--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
   <si>
     <t>Conventional generation (MW)</t>
   </si>
@@ -37,9 +37,6 @@
     <t>angle(degs)</t>
   </si>
   <si>
-    <t>Voltage(p.u.)</t>
-  </si>
-  <si>
     <t>busname</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>alpha</t>
   </si>
   <si>
-    <t>QD(MW)</t>
-  </si>
-  <si>
     <t>D14</t>
   </si>
   <si>
@@ -103,16 +97,109 @@
     <t>D1</t>
   </si>
   <si>
-    <t>PGLB(MW)</t>
+    <t>PG(MW)</t>
   </si>
   <si>
     <t>pG(MW)</t>
   </si>
   <si>
-    <t>PGUB(MW)</t>
-  </si>
-  <si>
-    <t>('QGLB(MW)', 'qG(MW)', 'QGUB(MW)')</t>
+    <t>G19</t>
+  </si>
+  <si>
+    <t>G16</t>
+  </si>
+  <si>
+    <t>G24</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G13</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G28</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>G17</t>
+  </si>
+  <si>
+    <t>G23</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G14</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>G31</t>
+  </si>
+  <si>
+    <t>G30</t>
+  </si>
+  <si>
+    <t>G25</t>
+  </si>
+  <si>
+    <t>G22</t>
+  </si>
+  <si>
+    <t>G29</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G15</t>
+  </si>
+  <si>
+    <t>G21</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>G26</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G18</t>
+  </si>
+  <si>
+    <t>G32</t>
+  </si>
+  <si>
+    <t>G33</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G20</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>G27</t>
   </si>
   <si>
     <t>PW(MW)</t>
@@ -127,13 +214,7 @@
     <t>to_busname</t>
   </si>
   <si>
-    <t>pLto(MW)</t>
-  </si>
-  <si>
-    <t>pLfrom(MW)</t>
-  </si>
-  <si>
-    <t>loss(MW)</t>
+    <t>pL(MW)</t>
   </si>
   <si>
     <t>L16-1223</t>
@@ -235,10 +316,7 @@
     <t>L28-1821</t>
   </si>
   <si>
-    <t>pLTto(MW)</t>
-  </si>
-  <si>
-    <t>pLTfrom(MW)</t>
+    <t>pLT(MW)</t>
   </si>
   <si>
     <t>T2-911</t>
@@ -630,7 +708,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2896.765548072822</v>
+        <v>2850.000028498449</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -646,285 +724,210 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-6.755434884756172</v>
-      </c>
-      <c r="C2">
-        <v>1.047227547524992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>9.242226441113573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-6.831083490839968</v>
-      </c>
-      <c r="C3">
-        <v>1.047206283621973</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>8.457026648178182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-6.187465633641493</v>
-      </c>
-      <c r="C4">
-        <v>1.013779184867813</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>41.15829541210107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-9.574331497091887</v>
-      </c>
-      <c r="C5">
-        <v>1.01624866058875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>7.409010687426385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-9.737554712491487</v>
-      </c>
-      <c r="C6">
-        <v>1.035427233010197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-1.85244231717763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-12.31054826145475</v>
-      </c>
-      <c r="C7">
-        <v>1.032406020324406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-9.05133702463624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-9.876561561749863</v>
-      </c>
-      <c r="C8">
-        <v>1.036004572887004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>1.943989160966431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-12.5531651414247</v>
-      </c>
-      <c r="C9">
-        <v>1.008963398698759</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-2.101665789242874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-7.818243368184379</v>
-      </c>
-      <c r="C10">
-        <v>1.023926693435027</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>10.94800586874138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-9.678324589918676</v>
-      </c>
-      <c r="C11">
-        <v>1.050000004431561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-9.853998583977292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-2.613089336661063</v>
-      </c>
-      <c r="C12">
-        <v>1.022627010851432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>11.83628175767672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-1.876066036690312</v>
-      </c>
-      <c r="C13">
-        <v>1.017272788512978</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-10.52563997905581</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.675190887696723e-30</v>
-      </c>
-      <c r="C14">
-        <v>1.033477333202541</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-9.17527102641913e-29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.012438740529386</v>
-      </c>
-      <c r="C15">
-        <v>1.039865131773935</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>3.371765297953462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>9.324357506537345</v>
-      </c>
-      <c r="C16">
-        <v>1.041060688957348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-4.386200130258183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>8.542574724883009</v>
-      </c>
-      <c r="C17">
-        <v>1.044277246263287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.1816171205750362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>12.89163330956417</v>
-      </c>
-      <c r="C18">
-        <v>1.047564196049829</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>2.821184219290648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>14.2470368563342</v>
-      </c>
-      <c r="C19">
-        <v>1.049999985615682</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>3.461413518871765</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7.493157871532119</v>
-      </c>
-      <c r="C20">
-        <v>1.038946882103307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.08362842811170122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>8.452298138845665</v>
-      </c>
-      <c r="C21">
-        <v>1.043973888312215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>2.053728046438543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>15.02296051882872</v>
-      </c>
-      <c r="C22">
-        <v>1.050000002300528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>3.540048478194987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>20.69119238604117</v>
-      </c>
-      <c r="C23">
-        <v>1.049999996772942</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>10.34780789419934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>9.683768873834786</v>
-      </c>
-      <c r="C24">
-        <v>1.049999999094497</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>4.011615714646209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>3.668279519969537</v>
-      </c>
-      <c r="C25">
-        <v>1.005845487048798</v>
+        <v>-30.75753130153424</v>
       </c>
     </row>
   </sheetData>
@@ -934,32 +937,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>10</v>
       </c>
       <c r="B2">
         <v>14</v>
@@ -970,13 +970,10 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -987,13 +984,10 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1004,13 +998,10 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1021,13 +1012,10 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1038,13 +1026,10 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>16</v>
@@ -1055,13 +1040,10 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1072,13 +1054,10 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -1089,13 +1068,10 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1106,13 +1082,10 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>13</v>
@@ -1123,13 +1096,10 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -1140,13 +1110,10 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -1157,13 +1124,10 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1174,13 +1138,10 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -1191,13 +1152,10 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -1208,13 +1166,10 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>18</v>
@@ -1225,13 +1180,10 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1241,9 +1193,6 @@
       </c>
       <c r="D18">
         <v>1</v>
-      </c>
-      <c r="E18">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1253,30 +1202,486 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2">
+        <v>0.12</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C3">
+        <v>0.12</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>0.951</v>
+      </c>
+      <c r="D6">
+        <v>45.333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>0.8</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>0.8</v>
+      </c>
+      <c r="D10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>0.12</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>0.76</v>
+      </c>
+      <c r="D13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>0.951</v>
+      </c>
+      <c r="D14">
+        <v>45.333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>0.8</v>
+      </c>
+      <c r="D15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>1.55</v>
+      </c>
+      <c r="D16">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>1.55</v>
+      </c>
+      <c r="D19">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>0.5</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>0.76</v>
+      </c>
+      <c r="D21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23">
+        <v>1.55</v>
+      </c>
+      <c r="D23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>0.76</v>
+      </c>
+      <c r="D24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>0.5</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26">
+        <v>0.76</v>
+      </c>
+      <c r="D26">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27">
+        <v>0.12</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>1.55</v>
+      </c>
+      <c r="D28">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29">
+        <v>3.5</v>
+      </c>
+      <c r="D29">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30">
+        <v>0.1</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31">
+        <v>0.12</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32">
+        <v>0.1</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33">
+        <v>0.951</v>
+      </c>
+      <c r="D33">
+        <v>45.333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34">
+        <v>0.5</v>
+      </c>
+      <c r="D34">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1297,13 +1702,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1313,35 +1718,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -1350,18 +1749,12 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>225.3116000465253</v>
-      </c>
-      <c r="E2">
-        <v>-219.506831114251</v>
-      </c>
-      <c r="F2">
-        <v>5.804768932274351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-262.6531843263409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1370,18 +1763,12 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>-51.69920766795152</v>
-      </c>
-      <c r="E3">
-        <v>52.97533190169651</v>
-      </c>
-      <c r="F3">
-        <v>1.276124233744991</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>159.1555170453038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -1390,18 +1777,12 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>180.3504799766482</v>
-      </c>
-      <c r="E4">
-        <v>-179.8193241260269</v>
-      </c>
-      <c r="F4">
-        <v>0.5311558506213121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-77.59798087097556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <v>21</v>
@@ -1410,18 +1791,12 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>159.0093346406055</v>
-      </c>
-      <c r="E5">
-        <v>-157.001899744802</v>
-      </c>
-      <c r="F5">
-        <v>2.007434895803417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>-175.2475169515317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -1430,18 +1805,12 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>364.42033172087</v>
-      </c>
-      <c r="E6">
-        <v>-358.3258957059193</v>
-      </c>
-      <c r="F6">
-        <v>6.094436014950677</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>159.4298786265158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -1450,18 +1819,12 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>-84.83779465758819</v>
-      </c>
-      <c r="E7">
-        <v>86.02828470508793</v>
-      </c>
-      <c r="F7">
-        <v>1.190490047499737</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>114.9999988283158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1470,18 +1833,12 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>-21.06213426257768</v>
-      </c>
-      <c r="E8">
-        <v>21.25452953088823</v>
-      </c>
-      <c r="F8">
-        <v>0.1923952683105523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>443.0832105147713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -1490,18 +1847,12 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>318.3715245403725</v>
-      </c>
-      <c r="E9">
-        <v>-315.316617590942</v>
-      </c>
-      <c r="F9">
-        <v>3.054906949430514</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-202.3504639532859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1510,18 +1861,12 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>30.7756131875831</v>
-      </c>
-      <c r="E10">
-        <v>-30.53350193137052</v>
-      </c>
-      <c r="F10">
-        <v>0.2421112562125904</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-59.5632768815294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -1530,18 +1875,12 @@
         <v>24</v>
       </c>
       <c r="D11">
-        <v>-203.0098915284346</v>
-      </c>
-      <c r="E11">
-        <v>205.8079035306464</v>
-      </c>
-      <c r="F11">
-        <v>2.798012002211747</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>886.8334432983494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1550,18 +1889,12 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>164.3258947522075</v>
-      </c>
-      <c r="E12">
-        <v>-162.9416677873203</v>
-      </c>
-      <c r="F12">
-        <v>1.384226964887181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>353.4298607932289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -1570,18 +1903,12 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <v>102.8517877684069</v>
-      </c>
-      <c r="E13">
-        <v>-102.2384369151303</v>
-      </c>
-      <c r="F13">
-        <v>0.6133508532766285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>433.9959829091649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1590,18 +1917,12 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>212.3914039015858</v>
-      </c>
-      <c r="E14">
-        <v>-207.8382287811901</v>
-      </c>
-      <c r="F14">
-        <v>4.553175120395681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-80.94323993665854</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B15">
         <v>20</v>
@@ -1610,18 +1931,12 @@
         <v>23</v>
       </c>
       <c r="D15">
-        <v>111.1485009062116</v>
-      </c>
-      <c r="E15">
-        <v>-110.8282003144748</v>
-      </c>
-      <c r="F15">
-        <v>0.320300591736844</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-158.2017879371334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1630,18 +1945,12 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>-81.87489113923536</v>
-      </c>
-      <c r="E16">
-        <v>82.02878694805689</v>
-      </c>
-      <c r="F16">
-        <v>0.1538958088215248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-424.1839144068965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -1650,18 +1959,12 @@
         <v>22</v>
       </c>
       <c r="D17">
-        <v>140.9906701536435</v>
-      </c>
-      <c r="E17">
-        <v>-138.5522004143456</v>
-      </c>
-      <c r="F17">
-        <v>2.438469739297844</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>-124.7524830823103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1670,18 +1973,12 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>0.7860716544951287</v>
-      </c>
-      <c r="E18">
-        <v>-0.6457334086400762</v>
-      </c>
-      <c r="F18">
-        <v>0.1403382458550526</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>-263.7502309836688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -1690,18 +1987,12 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>56.77311781627225</v>
-      </c>
-      <c r="E19">
-        <v>-56.67523976155107</v>
-      </c>
-      <c r="F19">
-        <v>0.09787805472118993</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-5.298992074751678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -1710,18 +2001,12 @@
         <v>9</v>
       </c>
       <c r="D20">
-        <v>51.18156226472655</v>
-      </c>
-      <c r="E20">
-        <v>-50.11332675127505</v>
-      </c>
-      <c r="F20">
-        <v>1.06823551345151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-137.9525964481421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B21">
         <v>15</v>
@@ -1730,18 +2015,12 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>221.7278339474302</v>
-      </c>
-      <c r="E21">
-        <v>-218.9183465233798</v>
-      </c>
-      <c r="F21">
-        <v>2.809487424050428</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-282.3247664267045</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -1750,18 +2029,12 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <v>85.23759245409964</v>
-      </c>
-      <c r="E22">
-        <v>-84.30079369195752</v>
-      </c>
-      <c r="F22">
-        <v>0.9367987621421214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>23.15551568539471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1770,18 +2043,12 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>-43.46649880853853</v>
-      </c>
-      <c r="E23">
-        <v>44.11708992827864</v>
-      </c>
-      <c r="F23">
-        <v>0.6505911197401126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>14.43672385837969</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1790,18 +2057,12 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>-10.09242315308474</v>
-      </c>
-      <c r="E24">
-        <v>10.09490938155504</v>
-      </c>
-      <c r="F24">
-        <v>0.002486228470299778</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>98.5922422496897</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B25">
         <v>19</v>
@@ -1810,18 +2071,12 @@
         <v>20</v>
       </c>
       <c r="D25">
-        <v>46.82819967452027</v>
-      </c>
-      <c r="E25">
-        <v>-46.72287908882835</v>
-      </c>
-      <c r="F25">
-        <v>0.1053205856919204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-94.20178729717887</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B26">
         <v>20</v>
@@ -1830,18 +2085,12 @@
         <v>23</v>
       </c>
       <c r="D26">
-        <v>111.1485009062116</v>
-      </c>
-      <c r="E26">
-        <v>-110.8282003144748</v>
-      </c>
-      <c r="F26">
-        <v>0.320300591736844</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-158.2017879371334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1850,18 +2099,12 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>-65.67029063988511</v>
-      </c>
-      <c r="E27">
-        <v>66.5508225934507</v>
-      </c>
-      <c r="F27">
-        <v>0.8805319535655887</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>229.1579872779728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -1870,18 +2113,12 @@
         <v>19</v>
       </c>
       <c r="D28">
-        <v>-87.55424363225234</v>
-      </c>
-      <c r="E28">
-        <v>87.77117728249596</v>
-      </c>
-      <c r="F28">
-        <v>0.2169336502436225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-7.403572784448646</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -1890,18 +2127,12 @@
         <v>10</v>
       </c>
       <c r="D29">
-        <v>36.68767643258914</v>
-      </c>
-      <c r="E29">
-        <v>-36.04888030104579</v>
-      </c>
-      <c r="F29">
-        <v>0.638796131543351</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>81.95259356654881</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B30">
         <v>12</v>
@@ -1910,18 +2141,12 @@
         <v>13</v>
       </c>
       <c r="D30">
-        <v>75.72368020563626</v>
-      </c>
-      <c r="E30">
-        <v>-75.35559446873461</v>
-      </c>
-      <c r="F30">
-        <v>0.3680857369016466</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-385.9392300707591</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -1930,18 +2155,12 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <v>5.38824782838519</v>
-      </c>
-      <c r="E31">
-        <v>-5.329710070023923</v>
-      </c>
-      <c r="F31">
-        <v>0.05853775836126771</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>158.1579865680637</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B32">
         <v>19</v>
@@ -1950,18 +2169,12 @@
         <v>20</v>
       </c>
       <c r="D32">
-        <v>46.82819967452027</v>
-      </c>
-      <c r="E32">
-        <v>-46.72287908882835</v>
-      </c>
-      <c r="F32">
-        <v>0.1053205856919204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-94.20178729717887</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -1970,18 +2183,12 @@
         <v>21</v>
       </c>
       <c r="D33">
-        <v>221.7278339474302</v>
-      </c>
-      <c r="E33">
-        <v>-218.9183465233798</v>
-      </c>
-      <c r="F33">
-        <v>2.809487424050428</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-282.3247664267045</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="B34">
         <v>18</v>
@@ -1990,13 +2197,7 @@
         <v>21</v>
       </c>
       <c r="D34">
-        <v>56.77311781627225</v>
-      </c>
-      <c r="E34">
-        <v>-56.67523976155107</v>
-      </c>
-      <c r="F34">
-        <v>0.09787805472118993</v>
+        <v>-5.298992074751665</v>
       </c>
     </row>
   </sheetData>
@@ -2006,35 +2207,29 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -2043,18 +2238,12 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>110.9326547858927</v>
-      </c>
-      <c r="E2">
-        <v>-110.6323443040448</v>
-      </c>
-      <c r="F2">
-        <v>0.3003104818478874</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>53916.26102081346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -2063,18 +2252,12 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>125.6350414727596</v>
-      </c>
-      <c r="E3">
-        <v>-125.2626986355961</v>
-      </c>
-      <c r="F3">
-        <v>0.372342837163453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-53845.69368537825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -2083,18 +2266,12 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>154.2474499165578</v>
-      </c>
-      <c r="E4">
-        <v>-153.7239816305747</v>
-      </c>
-      <c r="F4">
-        <v>0.523468285983153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-53128.83517711105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2103,18 +2280,12 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>203.0098915284346</v>
-      </c>
-      <c r="E5">
-        <v>-202.0406029852924</v>
-      </c>
-      <c r="F5">
-        <v>0.9692885431422216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>-886.8334432983494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -2123,13 +2294,7 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>169.227384110226</v>
-      </c>
-      <c r="E6">
-        <v>-168.5895370344083</v>
-      </c>
-      <c r="F6">
-        <v>0.6378470758176658</v>
+        <v>53197.10127098116</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="111">
   <si>
     <t>Conventional generation (MW)</t>
   </si>
@@ -37,6 +37,9 @@
     <t>angle(degs)</t>
   </si>
   <si>
+    <t>Voltage(p.u.)</t>
+  </si>
+  <si>
     <t>busname</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
     <t>alpha</t>
   </si>
   <si>
+    <t>QD(MVar)</t>
+  </si>
+  <si>
     <t>D14</t>
   </si>
   <si>
@@ -97,12 +103,24 @@
     <t>D1</t>
   </si>
   <si>
-    <t>PG(MW)</t>
+    <t>PGLB(MW)</t>
   </si>
   <si>
     <t>pG(MW)</t>
   </si>
   <si>
+    <t>PGUB(MW)</t>
+  </si>
+  <si>
+    <t>QGLB(MVar)</t>
+  </si>
+  <si>
+    <t>qG(MVar)</t>
+  </si>
+  <si>
+    <t>QGUB(MVar)</t>
+  </si>
+  <si>
     <t>G19</t>
   </si>
   <si>
@@ -202,19 +220,19 @@
     <t>G27</t>
   </si>
   <si>
-    <t>PW(MW)</t>
-  </si>
-  <si>
-    <t>pW(MW)</t>
-  </si>
-  <si>
     <t>from_busname</t>
   </si>
   <si>
     <t>to_busname</t>
   </si>
   <si>
-    <t>pL(MW)</t>
+    <t>pLto(MW)</t>
+  </si>
+  <si>
+    <t>pLfrom(MW)</t>
+  </si>
+  <si>
+    <t>loss(MW)</t>
   </si>
   <si>
     <t>L16-1223</t>
@@ -316,7 +334,10 @@
     <t>L28-1821</t>
   </si>
   <si>
-    <t>pLT(MW)</t>
+    <t>pLTto(MW)</t>
+  </si>
+  <si>
+    <t>pLTfrom(MW)</t>
   </si>
   <si>
     <t>T2-911</t>
@@ -708,7 +729,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2850.000028498449</v>
+        <v>2896.765548072822</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -724,210 +745,285 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.242226441113573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-6.755434884756172</v>
+      </c>
+      <c r="C2">
+        <v>1.047227547524992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8.457026648178182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>-6.831083490839968</v>
+      </c>
+      <c r="C3">
+        <v>1.047206283621973</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>41.15829541210107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-6.187465633641493</v>
+      </c>
+      <c r="C4">
+        <v>1.013779184867813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7.409010687426385</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>-9.574331497091887</v>
+      </c>
+      <c r="C5">
+        <v>1.01624866058875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-1.85244231717763</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-9.737554712491487</v>
+      </c>
+      <c r="C6">
+        <v>1.035427233010197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-9.05133702463624</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-12.31054826145475</v>
+      </c>
+      <c r="C7">
+        <v>1.032406020324406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.943989160966431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-9.876561561749863</v>
+      </c>
+      <c r="C8">
+        <v>1.036004572887004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-2.101665789242874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-12.5531651414247</v>
+      </c>
+      <c r="C9">
+        <v>1.008963398698759</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>10.94800586874138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-7.818243368184379</v>
+      </c>
+      <c r="C10">
+        <v>1.023926693435027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-9.853998583977292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-9.678324589918676</v>
+      </c>
+      <c r="C11">
+        <v>1.050000004431561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>11.83628175767672</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-2.613089336661063</v>
+      </c>
+      <c r="C12">
+        <v>1.022627010851432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-10.52563997905581</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-1.876066036690312</v>
+      </c>
+      <c r="C13">
+        <v>1.017272788512978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-9.17527102641913e-29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>3.675190887696723e-30</v>
+      </c>
+      <c r="C14">
+        <v>1.033477333202541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3.371765297953462</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>1.012438740529386</v>
+      </c>
+      <c r="C15">
+        <v>1.039865131773935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-4.386200130258183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>9.324357506537345</v>
+      </c>
+      <c r="C16">
+        <v>1.041060688957348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.1816171205750362</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>8.542574724883009</v>
+      </c>
+      <c r="C17">
+        <v>1.044277246263287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2.821184219290648</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>12.89163330956417</v>
+      </c>
+      <c r="C18">
+        <v>1.047564196049829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>3.461413518871765</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>14.2470368563342</v>
+      </c>
+      <c r="C19">
+        <v>1.049999985615682</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-0.08362842811170122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>7.493157871532119</v>
+      </c>
+      <c r="C20">
+        <v>1.038946882103307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2.053728046438543</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>8.452298138845665</v>
+      </c>
+      <c r="C21">
+        <v>1.043973888312215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>3.540048478194987</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>15.02296051882872</v>
+      </c>
+      <c r="C22">
+        <v>1.050000002300528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>10.34780789419934</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>20.69119238604117</v>
+      </c>
+      <c r="C23">
+        <v>1.049999996772942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>4.011615714646209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>9.683768873834786</v>
+      </c>
+      <c r="C24">
+        <v>1.049999999094497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-30.75753130153424</v>
+        <v>3.668279519969537</v>
+      </c>
+      <c r="C25">
+        <v>1.005845487048798</v>
       </c>
     </row>
   </sheetData>
@@ -937,29 +1033,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>14</v>
@@ -970,10 +1069,13 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -984,10 +1086,13 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -998,10 +1103,13 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1012,10 +1120,13 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1026,10 +1137,13 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>16</v>
@@ -1040,10 +1154,13 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1054,10 +1171,13 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>15</v>
@@ -1068,10 +1188,13 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1082,10 +1205,13 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>13</v>
@@ -1096,10 +1222,13 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -1110,10 +1239,13 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -1124,10 +1256,13 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1138,10 +1273,13 @@
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -1152,10 +1290,13 @@
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -1166,10 +1307,13 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>18</v>
@@ -1180,10 +1324,13 @@
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1193,6 +1340,9 @@
       </c>
       <c r="D18">
         <v>1</v>
+      </c>
+      <c r="E18">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1202,312 +1352,564 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C2">
-        <v>0.12</v>
+        <v>2.4</v>
       </c>
       <c r="D2">
+        <v>2.4</v>
+      </c>
+      <c r="E2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>0.12</v>
+        <v>2.4</v>
       </c>
       <c r="D3">
+        <v>2.4</v>
+      </c>
+      <c r="E3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <v>400</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>400</v>
+      </c>
+      <c r="F4">
+        <v>-50</v>
+      </c>
+      <c r="G4">
+        <v>-7.458</v>
+      </c>
+      <c r="H4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C5">
-        <v>0.1</v>
+        <v>16</v>
       </c>
       <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>4.862</v>
+      </c>
+      <c r="H5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>0.951</v>
+        <v>69</v>
       </c>
       <c r="D6">
-        <v>45.333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>78.57899999999999</v>
+      </c>
+      <c r="E6">
+        <v>197</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>32.592</v>
+      </c>
+      <c r="H6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C7">
-        <v>0.8</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>70.343</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>16.438</v>
+      </c>
+      <c r="H7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>16</v>
       </c>
       <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>4.814</v>
+      </c>
+      <c r="H8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>-10</v>
+      </c>
+      <c r="G9">
+        <v>-6.413</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>70.343</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>16.438</v>
+      </c>
+      <c r="H10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C11">
-        <v>0.12</v>
+        <v>2.4</v>
       </c>
       <c r="D11">
+        <v>2.4</v>
+      </c>
+      <c r="E11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <v>400</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>400</v>
+      </c>
+      <c r="F12">
+        <v>-50</v>
+      </c>
+      <c r="G12">
+        <v>72.898</v>
+      </c>
+      <c r="H12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C13">
-        <v>0.76</v>
+        <v>15.2</v>
       </c>
       <c r="D13">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>76</v>
+      </c>
+      <c r="F13">
+        <v>-25</v>
+      </c>
+      <c r="G13">
+        <v>-1.576</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C14">
-        <v>0.951</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>45.333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>78.57899999999999</v>
+      </c>
+      <c r="E14">
+        <v>197</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>32.592</v>
+      </c>
+      <c r="H14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C15">
-        <v>0.8</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>70.343</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>16.438</v>
+      </c>
+      <c r="H15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C16">
-        <v>1.55</v>
+        <v>54.3</v>
       </c>
       <c r="D16">
         <v>155</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>155</v>
+      </c>
+      <c r="F16">
+        <v>-50</v>
+      </c>
+      <c r="G16">
+        <v>2.547</v>
+      </c>
+      <c r="H16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C17">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <v>-10</v>
+      </c>
+      <c r="G17">
+        <v>-6.413</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C18">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>-10</v>
+      </c>
+      <c r="G18">
+        <v>-6.413</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C19">
-        <v>1.55</v>
+        <v>54.3</v>
       </c>
       <c r="D19">
         <v>155</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>155</v>
+      </c>
+      <c r="F19">
+        <v>-50</v>
+      </c>
+      <c r="G19">
+        <v>80</v>
+      </c>
+      <c r="H19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C20">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>-10</v>
+      </c>
+      <c r="G20">
+        <v>-6.413</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C21">
-        <v>0.76</v>
+        <v>15.2</v>
       </c>
       <c r="D21">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>76</v>
+      </c>
+      <c r="F21">
+        <v>-25</v>
+      </c>
+      <c r="G21">
+        <v>-2.923</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1515,173 +1917,329 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>-50</v>
+      </c>
+      <c r="G22">
+        <v>114.908</v>
+      </c>
+      <c r="H22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C23">
-        <v>1.55</v>
+        <v>54.3</v>
       </c>
       <c r="D23">
         <v>155</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>155</v>
+      </c>
+      <c r="F23">
+        <v>-50</v>
+      </c>
+      <c r="G23">
+        <v>80</v>
+      </c>
+      <c r="H23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C24">
-        <v>0.76</v>
+        <v>15.2</v>
       </c>
       <c r="D24">
         <v>76</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>76</v>
+      </c>
+      <c r="F24">
+        <v>-25</v>
+      </c>
+      <c r="G24">
+        <v>-2.923</v>
+      </c>
+      <c r="H24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C25">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>-10</v>
+      </c>
+      <c r="G25">
+        <v>-6.413</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C26">
-        <v>0.76</v>
+        <v>15.2</v>
       </c>
       <c r="D26">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>76</v>
+      </c>
+      <c r="F26">
+        <v>-25</v>
+      </c>
+      <c r="G26">
+        <v>-1.576</v>
+      </c>
+      <c r="H26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C27">
-        <v>0.12</v>
+        <v>2.4</v>
       </c>
       <c r="D27">
+        <v>2.4</v>
+      </c>
+      <c r="E27">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C28">
-        <v>1.55</v>
+        <v>54.3</v>
       </c>
       <c r="D28">
         <v>155</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>155</v>
+      </c>
+      <c r="F28">
+        <v>-50</v>
+      </c>
+      <c r="G28">
+        <v>2.547</v>
+      </c>
+      <c r="H28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C29">
-        <v>3.5</v>
+        <v>140</v>
       </c>
       <c r="D29">
         <v>350</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>350</v>
+      </c>
+      <c r="F29">
+        <v>-25</v>
+      </c>
+      <c r="G29">
+        <v>40.549</v>
+      </c>
+      <c r="H29">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C30">
-        <v>0.1</v>
+        <v>16</v>
       </c>
       <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>4.814</v>
+      </c>
+      <c r="H30">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C31">
-        <v>0.12</v>
+        <v>2.4</v>
       </c>
       <c r="D31">
+        <v>2.4</v>
+      </c>
+      <c r="E31">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C32">
-        <v>0.1</v>
+        <v>16</v>
       </c>
       <c r="D32">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>4.862</v>
+      </c>
+      <c r="H32">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C33">
-        <v>0.951</v>
+        <v>69</v>
       </c>
       <c r="D33">
-        <v>45.333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>78.57899999999999</v>
+      </c>
+      <c r="E33">
+        <v>197</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>32.592</v>
+      </c>
+      <c r="H33">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C34">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>50</v>
+      </c>
+      <c r="E34">
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <v>-10</v>
+      </c>
+      <c r="G34">
+        <v>-6.413</v>
+      </c>
+      <c r="H34">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1691,24 +2249,36 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1718,29 +2288,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -1749,12 +2325,18 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>-262.6531843263409</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>225.3116000465253</v>
+      </c>
+      <c r="E2">
+        <v>-219.506831114251</v>
+      </c>
+      <c r="F2">
+        <v>5.804768932274351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1763,12 +2345,18 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>159.1555170453038</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-51.69920766795152</v>
+      </c>
+      <c r="E3">
+        <v>52.97533190169651</v>
+      </c>
+      <c r="F3">
+        <v>1.276124233744991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -1777,12 +2365,18 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>-77.59798087097556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>180.3504799766482</v>
+      </c>
+      <c r="E4">
+        <v>-179.8193241260269</v>
+      </c>
+      <c r="F4">
+        <v>0.5311558506213121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>21</v>
@@ -1791,12 +2385,18 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>-175.2475169515317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>159.0093346406055</v>
+      </c>
+      <c r="E5">
+        <v>-157.001899744802</v>
+      </c>
+      <c r="F5">
+        <v>2.007434895803417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -1805,12 +2405,18 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>159.4298786265158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>364.42033172087</v>
+      </c>
+      <c r="E6">
+        <v>-358.3258957059193</v>
+      </c>
+      <c r="F6">
+        <v>6.094436014950677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -1819,12 +2425,18 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>114.9999988283158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-84.83779465758819</v>
+      </c>
+      <c r="E7">
+        <v>86.02828470508793</v>
+      </c>
+      <c r="F7">
+        <v>1.190490047499737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1833,12 +2445,18 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>443.0832105147713</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-21.06213426257768</v>
+      </c>
+      <c r="E8">
+        <v>21.25452953088823</v>
+      </c>
+      <c r="F8">
+        <v>0.1923952683105523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -1847,12 +2465,18 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>-202.3504639532859</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>318.3715245403725</v>
+      </c>
+      <c r="E9">
+        <v>-315.316617590942</v>
+      </c>
+      <c r="F9">
+        <v>3.054906949430514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1861,12 +2485,18 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>-59.5632768815294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>30.7756131875831</v>
+      </c>
+      <c r="E10">
+        <v>-30.53350193137052</v>
+      </c>
+      <c r="F10">
+        <v>0.2421112562125904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -1875,12 +2505,18 @@
         <v>24</v>
       </c>
       <c r="D11">
-        <v>886.8334432983494</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-203.0098915284346</v>
+      </c>
+      <c r="E11">
+        <v>205.8079035306464</v>
+      </c>
+      <c r="F11">
+        <v>2.798012002211747</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1889,12 +2525,18 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>353.4298607932289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>164.3258947522075</v>
+      </c>
+      <c r="E12">
+        <v>-162.9416677873203</v>
+      </c>
+      <c r="F12">
+        <v>1.384226964887181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -1903,12 +2545,18 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <v>433.9959829091649</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>102.8517877684069</v>
+      </c>
+      <c r="E13">
+        <v>-102.2384369151303</v>
+      </c>
+      <c r="F13">
+        <v>0.6133508532766285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1917,12 +2565,18 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>-80.94323993665854</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>212.3914039015858</v>
+      </c>
+      <c r="E14">
+        <v>-207.8382287811901</v>
+      </c>
+      <c r="F14">
+        <v>4.553175120395681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B15">
         <v>20</v>
@@ -1931,12 +2585,18 @@
         <v>23</v>
       </c>
       <c r="D15">
-        <v>-158.2017879371334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>111.1485009062116</v>
+      </c>
+      <c r="E15">
+        <v>-110.8282003144748</v>
+      </c>
+      <c r="F15">
+        <v>0.320300591736844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1945,12 +2605,18 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>-424.1839144068965</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-81.87489113923536</v>
+      </c>
+      <c r="E16">
+        <v>82.02878694805689</v>
+      </c>
+      <c r="F16">
+        <v>0.1538958088215248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -1959,12 +2625,18 @@
         <v>22</v>
       </c>
       <c r="D17">
-        <v>-124.7524830823103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>140.9906701536435</v>
+      </c>
+      <c r="E17">
+        <v>-138.5522004143456</v>
+      </c>
+      <c r="F17">
+        <v>2.438469739297844</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1973,12 +2645,18 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>-263.7502309836688</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.7860716544951287</v>
+      </c>
+      <c r="E18">
+        <v>-0.6457334086400762</v>
+      </c>
+      <c r="F18">
+        <v>0.1403382458550526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -1987,12 +2665,18 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>-5.298992074751678</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>56.77311781627225</v>
+      </c>
+      <c r="E19">
+        <v>-56.67523976155107</v>
+      </c>
+      <c r="F19">
+        <v>0.09787805472118993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -2001,12 +2685,18 @@
         <v>9</v>
       </c>
       <c r="D20">
-        <v>-137.9525964481421</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>51.18156226472655</v>
+      </c>
+      <c r="E20">
+        <v>-50.11332675127505</v>
+      </c>
+      <c r="F20">
+        <v>1.06823551345151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B21">
         <v>15</v>
@@ -2015,12 +2705,18 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>-282.3247664267045</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>221.7278339474302</v>
+      </c>
+      <c r="E21">
+        <v>-218.9183465233798</v>
+      </c>
+      <c r="F21">
+        <v>2.809487424050428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -2029,12 +2725,18 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <v>23.15551568539471</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>85.23759245409964</v>
+      </c>
+      <c r="E22">
+        <v>-84.30079369195752</v>
+      </c>
+      <c r="F22">
+        <v>0.9367987621421214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -2043,12 +2745,18 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>14.43672385837969</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-43.46649880853853</v>
+      </c>
+      <c r="E23">
+        <v>44.11708992827864</v>
+      </c>
+      <c r="F23">
+        <v>0.6505911197401126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2057,12 +2765,18 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>98.5922422496897</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-10.09242315308474</v>
+      </c>
+      <c r="E24">
+        <v>10.09490938155504</v>
+      </c>
+      <c r="F24">
+        <v>0.002486228470299778</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B25">
         <v>19</v>
@@ -2071,12 +2785,18 @@
         <v>20</v>
       </c>
       <c r="D25">
-        <v>-94.20178729717887</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>46.82819967452027</v>
+      </c>
+      <c r="E25">
+        <v>-46.72287908882835</v>
+      </c>
+      <c r="F25">
+        <v>0.1053205856919204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B26">
         <v>20</v>
@@ -2085,12 +2805,18 @@
         <v>23</v>
       </c>
       <c r="D26">
-        <v>-158.2017879371334</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>111.1485009062116</v>
+      </c>
+      <c r="E26">
+        <v>-110.8282003144748</v>
+      </c>
+      <c r="F26">
+        <v>0.320300591736844</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2099,12 +2825,18 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>229.1579872779728</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>-65.67029063988511</v>
+      </c>
+      <c r="E27">
+        <v>66.5508225934507</v>
+      </c>
+      <c r="F27">
+        <v>0.8805319535655887</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -2113,12 +2845,18 @@
         <v>19</v>
       </c>
       <c r="D28">
-        <v>-7.403572784448646</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-87.55424363225234</v>
+      </c>
+      <c r="E28">
+        <v>87.77117728249596</v>
+      </c>
+      <c r="F28">
+        <v>0.2169336502436225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -2127,12 +2865,18 @@
         <v>10</v>
       </c>
       <c r="D29">
-        <v>81.95259356654881</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>36.68767643258914</v>
+      </c>
+      <c r="E29">
+        <v>-36.04888030104579</v>
+      </c>
+      <c r="F29">
+        <v>0.638796131543351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B30">
         <v>12</v>
@@ -2141,12 +2885,18 @@
         <v>13</v>
       </c>
       <c r="D30">
-        <v>-385.9392300707591</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>75.72368020563626</v>
+      </c>
+      <c r="E30">
+        <v>-75.35559446873461</v>
+      </c>
+      <c r="F30">
+        <v>0.3680857369016466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -2155,12 +2905,18 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <v>158.1579865680637</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>5.38824782838519</v>
+      </c>
+      <c r="E31">
+        <v>-5.329710070023923</v>
+      </c>
+      <c r="F31">
+        <v>0.05853775836126771</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B32">
         <v>19</v>
@@ -2169,12 +2925,18 @@
         <v>20</v>
       </c>
       <c r="D32">
-        <v>-94.20178729717887</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>46.82819967452027</v>
+      </c>
+      <c r="E32">
+        <v>-46.72287908882835</v>
+      </c>
+      <c r="F32">
+        <v>0.1053205856919204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2183,12 +2945,18 @@
         <v>21</v>
       </c>
       <c r="D33">
-        <v>-282.3247664267045</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>221.7278339474302</v>
+      </c>
+      <c r="E33">
+        <v>-218.9183465233798</v>
+      </c>
+      <c r="F33">
+        <v>2.809487424050428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B34">
         <v>18</v>
@@ -2197,7 +2965,13 @@
         <v>21</v>
       </c>
       <c r="D34">
-        <v>-5.298992074751665</v>
+        <v>56.77311781627225</v>
+      </c>
+      <c r="E34">
+        <v>-56.67523976155107</v>
+      </c>
+      <c r="F34">
+        <v>0.09787805472118993</v>
       </c>
     </row>
   </sheetData>
@@ -2207,29 +2981,35 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>104</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -2238,12 +3018,18 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>53916.26102081346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>110.9326547858927</v>
+      </c>
+      <c r="E2">
+        <v>-110.6323443040448</v>
+      </c>
+      <c r="F2">
+        <v>0.3003104818478874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -2252,12 +3038,18 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>-53845.69368537825</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>125.6350414727596</v>
+      </c>
+      <c r="E3">
+        <v>-125.2626986355961</v>
+      </c>
+      <c r="F3">
+        <v>0.372342837163453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -2266,12 +3058,18 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>-53128.83517711105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>154.2474499165578</v>
+      </c>
+      <c r="E4">
+        <v>-153.7239816305747</v>
+      </c>
+      <c r="F4">
+        <v>0.523468285983153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2280,12 +3078,18 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>-886.8334432983494</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>203.0098915284346</v>
+      </c>
+      <c r="E5">
+        <v>-202.0406029852924</v>
+      </c>
+      <c r="F5">
+        <v>0.9692885431422216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -2294,7 +3098,13 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>53197.10127098116</v>
+        <v>169.227384110226</v>
+      </c>
+      <c r="E6">
+        <v>-168.5895370344083</v>
+      </c>
+      <c r="F6">
+        <v>0.6378470758176658</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
   <si>
     <t>Conventional generation (MW)</t>
   </si>
@@ -37,9 +37,6 @@
     <t>angle(degs)</t>
   </si>
   <si>
-    <t>Voltage(p.u.)</t>
-  </si>
-  <si>
     <t>busname</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>alpha</t>
   </si>
   <si>
-    <t>QD(MVar)</t>
-  </si>
-  <si>
     <t>D14</t>
   </si>
   <si>
@@ -112,15 +106,6 @@
     <t>PGUB(MW)</t>
   </si>
   <si>
-    <t>QGLB(MVar)</t>
-  </si>
-  <si>
-    <t>qG(MVar)</t>
-  </si>
-  <si>
-    <t>QGUB(MVar)</t>
-  </si>
-  <si>
     <t>G19</t>
   </si>
   <si>
@@ -226,13 +211,7 @@
     <t>to_busname</t>
   </si>
   <si>
-    <t>pLto(MW)</t>
-  </si>
-  <si>
-    <t>pLfrom(MW)</t>
-  </si>
-  <si>
-    <t>loss(MW)</t>
+    <t>pL(MW)</t>
   </si>
   <si>
     <t>L16-1223</t>
@@ -334,10 +313,7 @@
     <t>L28-1821</t>
   </si>
   <si>
-    <t>pLTto(MW)</t>
-  </si>
-  <si>
-    <t>pLTfrom(MW)</t>
+    <t>pLT(MW)</t>
   </si>
   <si>
     <t>T2-911</t>
@@ -729,7 +705,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2896.765548072822</v>
+        <v>2850.000028498454</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -745,285 +721,210 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-6.755434884756172</v>
-      </c>
-      <c r="C2">
-        <v>1.047227547524992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-1494.485543885834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-6.831083490839968</v>
-      </c>
-      <c r="C3">
-        <v>1.047206283621973</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>-1494.577911690925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-6.187465633641493</v>
-      </c>
-      <c r="C4">
-        <v>1.013779184867813</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-1494.002868075546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-9.574331497091887</v>
-      </c>
-      <c r="C5">
-        <v>1.01624866058875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-1497.821079440233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-9.737554712491487</v>
-      </c>
-      <c r="C6">
-        <v>1.035427233010197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-1497.796678295943</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-12.31054826145475</v>
-      </c>
-      <c r="C7">
-        <v>1.032406020324406</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-1500.509804192904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-9.876561561749863</v>
-      </c>
-      <c r="C8">
-        <v>1.036004572887004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-1501.147233617722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-12.5531651414247</v>
-      </c>
-      <c r="C9">
-        <v>1.008963398698759</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-1502.773353373234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-7.818243368184379</v>
-      </c>
-      <c r="C10">
-        <v>1.023926693435027</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-1496.078747561786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-9.678324589918676</v>
-      </c>
-      <c r="C11">
-        <v>1.050000004431561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-1497.664671451013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-2.613089336661063</v>
-      </c>
-      <c r="C12">
-        <v>1.022627010851432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-1.913229079300168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-1.876066036690312</v>
-      </c>
-      <c r="C13">
-        <v>1.017272788512978</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-2.896273031906602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3.675190887696723e-30</v>
-      </c>
-      <c r="C14">
-        <v>1.033477333202541</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>1.073799531927371e-21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.012438740529386</v>
-      </c>
-      <c r="C15">
-        <v>1.039865131773935</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>1.902404339074704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>9.324357506537345</v>
-      </c>
-      <c r="C16">
-        <v>1.041060688957348</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>10.58924477493816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>8.542574724883009</v>
-      </c>
-      <c r="C17">
-        <v>1.044277246263287</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>9.777200096607778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>12.89163330956417</v>
-      </c>
-      <c r="C18">
-        <v>1.047564196049829</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>14.53538748605544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>14.2470368563342</v>
-      </c>
-      <c r="C19">
-        <v>1.049999985615682</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>16.01842036608769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7.493157871532119</v>
-      </c>
-      <c r="C20">
-        <v>1.038946882103307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>8.39747018663676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>8.452298138845665</v>
-      </c>
-      <c r="C21">
-        <v>1.043973888312215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>9.268210716243271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>15.02296051882872</v>
-      </c>
-      <c r="C22">
-        <v>1.050000002300528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>16.8549932397513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>20.69119238604117</v>
-      </c>
-      <c r="C23">
-        <v>1.049999996772942</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>23.03577256659503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>9.683768873834786</v>
-      </c>
-      <c r="C24">
-        <v>1.049999999094497</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>10.53521695993692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>3.668279519969537</v>
-      </c>
-      <c r="C25">
-        <v>1.005845487048798</v>
+        <v>4.21269833801922</v>
       </c>
     </row>
   </sheetData>
@@ -1033,7 +934,272 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>194</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>181</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>97</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>171</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>125</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>317</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>74</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>265</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>128</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>136</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>180</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>195</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>175</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>333</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>108</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1044,352 +1210,24 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>194</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>181</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>97</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>171</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>71</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>125</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>317</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>74</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>265</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>128</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>136</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>180</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>195</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16">
-        <v>9</v>
-      </c>
-      <c r="C16">
-        <v>175</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>333</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>108</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
       <c r="A2">
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>2.4</v>
@@ -1400,22 +1238,13 @@
       <c r="E2">
         <v>12</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>2.4</v>
@@ -1426,22 +1255,13 @@
       <c r="E3">
         <v>12</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -1452,22 +1272,13 @@
       <c r="E4">
         <v>400</v>
       </c>
-      <c r="F4">
-        <v>-50</v>
-      </c>
-      <c r="G4">
-        <v>-7.458</v>
-      </c>
-      <c r="H4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -1478,74 +1289,47 @@
       <c r="E5">
         <v>20</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>4.862</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>69</v>
       </c>
       <c r="D6">
-        <v>78.57899999999999</v>
+        <v>76.259</v>
       </c>
       <c r="E6">
         <v>197</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>32.592</v>
-      </c>
-      <c r="H6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="D7">
-        <v>70.343</v>
+        <v>57.074</v>
       </c>
       <c r="E7">
         <v>100</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>16.438</v>
-      </c>
-      <c r="H7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>16</v>
@@ -1556,22 +1340,13 @@
       <c r="E8">
         <v>20</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>4.814</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -1582,48 +1357,30 @@
       <c r="E9">
         <v>50</v>
       </c>
-      <c r="F9">
-        <v>-10</v>
-      </c>
-      <c r="G9">
-        <v>-6.413</v>
-      </c>
-      <c r="H9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>25</v>
       </c>
       <c r="D10">
-        <v>70.343</v>
+        <v>57.074</v>
       </c>
       <c r="E10">
         <v>100</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>16.438</v>
-      </c>
-      <c r="H10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>2.4</v>
@@ -1634,22 +1391,13 @@
       <c r="E11">
         <v>12</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>100</v>
@@ -1660,22 +1408,13 @@
       <c r="E12">
         <v>400</v>
       </c>
-      <c r="F12">
-        <v>-50</v>
-      </c>
-      <c r="G12">
-        <v>72.898</v>
-      </c>
-      <c r="H12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>15.2</v>
@@ -1686,74 +1425,47 @@
       <c r="E13">
         <v>76</v>
       </c>
-      <c r="F13">
-        <v>-25</v>
-      </c>
-      <c r="G13">
-        <v>-1.576</v>
-      </c>
-      <c r="H13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C14">
         <v>69</v>
       </c>
       <c r="D14">
-        <v>78.57899999999999</v>
+        <v>76.259</v>
       </c>
       <c r="E14">
         <v>197</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>32.592</v>
-      </c>
-      <c r="H14">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>25</v>
       </c>
       <c r="D15">
-        <v>70.343</v>
+        <v>57.074</v>
       </c>
       <c r="E15">
         <v>100</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>16.438</v>
-      </c>
-      <c r="H15">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>54.3</v>
@@ -1764,22 +1476,13 @@
       <c r="E16">
         <v>155</v>
       </c>
-      <c r="F16">
-        <v>-50</v>
-      </c>
-      <c r="G16">
-        <v>2.547</v>
-      </c>
-      <c r="H16">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -1790,22 +1493,13 @@
       <c r="E17">
         <v>50</v>
       </c>
-      <c r="F17">
-        <v>-10</v>
-      </c>
-      <c r="G17">
-        <v>-6.413</v>
-      </c>
-      <c r="H17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -1816,22 +1510,13 @@
       <c r="E18">
         <v>50</v>
       </c>
-      <c r="F18">
-        <v>-10</v>
-      </c>
-      <c r="G18">
-        <v>-6.413</v>
-      </c>
-      <c r="H18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>54.3</v>
@@ -1842,22 +1527,13 @@
       <c r="E19">
         <v>155</v>
       </c>
-      <c r="F19">
-        <v>-50</v>
-      </c>
-      <c r="G19">
-        <v>80</v>
-      </c>
-      <c r="H19">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -1868,22 +1544,13 @@
       <c r="E20">
         <v>50</v>
       </c>
-      <c r="F20">
-        <v>-10</v>
-      </c>
-      <c r="G20">
-        <v>-6.413</v>
-      </c>
-      <c r="H20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>15.2</v>
@@ -1894,22 +1561,13 @@
       <c r="E21">
         <v>76</v>
       </c>
-      <c r="F21">
-        <v>-25</v>
-      </c>
-      <c r="G21">
-        <v>-2.923</v>
-      </c>
-      <c r="H21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1920,22 +1578,13 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
-        <v>-50</v>
-      </c>
-      <c r="G22">
-        <v>114.908</v>
-      </c>
-      <c r="H22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C23">
         <v>54.3</v>
@@ -1946,22 +1595,13 @@
       <c r="E23">
         <v>155</v>
       </c>
-      <c r="F23">
-        <v>-50</v>
-      </c>
-      <c r="G23">
-        <v>80</v>
-      </c>
-      <c r="H23">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>15.2</v>
@@ -1972,22 +1612,13 @@
       <c r="E24">
         <v>76</v>
       </c>
-      <c r="F24">
-        <v>-25</v>
-      </c>
-      <c r="G24">
-        <v>-2.923</v>
-      </c>
-      <c r="H24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -1998,22 +1629,13 @@
       <c r="E25">
         <v>50</v>
       </c>
-      <c r="F25">
-        <v>-10</v>
-      </c>
-      <c r="G25">
-        <v>-6.413</v>
-      </c>
-      <c r="H25">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C26">
         <v>15.2</v>
@@ -2024,22 +1646,13 @@
       <c r="E26">
         <v>76</v>
       </c>
-      <c r="F26">
-        <v>-25</v>
-      </c>
-      <c r="G26">
-        <v>-1.576</v>
-      </c>
-      <c r="H26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C27">
         <v>2.4</v>
@@ -2050,22 +1663,13 @@
       <c r="E27">
         <v>12</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
-      <c r="H27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C28">
         <v>54.3</v>
@@ -2076,22 +1680,13 @@
       <c r="E28">
         <v>155</v>
       </c>
-      <c r="F28">
-        <v>-50</v>
-      </c>
-      <c r="G28">
-        <v>2.547</v>
-      </c>
-      <c r="H28">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C29">
         <v>140</v>
@@ -2102,22 +1697,13 @@
       <c r="E29">
         <v>350</v>
       </c>
-      <c r="F29">
-        <v>-25</v>
-      </c>
-      <c r="G29">
-        <v>40.549</v>
-      </c>
-      <c r="H29">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C30">
         <v>16</v>
@@ -2128,22 +1714,13 @@
       <c r="E30">
         <v>20</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>4.814</v>
-      </c>
-      <c r="H30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C31">
         <v>2.4</v>
@@ -2154,22 +1731,13 @@
       <c r="E31">
         <v>12</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>6</v>
-      </c>
-      <c r="H31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C32">
         <v>16</v>
@@ -2180,48 +1748,30 @@
       <c r="E32">
         <v>20</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>4.862</v>
-      </c>
-      <c r="H32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C33">
         <v>69</v>
       </c>
       <c r="D33">
-        <v>78.57899999999999</v>
+        <v>76.259</v>
       </c>
       <c r="E33">
         <v>197</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>32.592</v>
-      </c>
-      <c r="H33">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C34">
         <v>10</v>
@@ -2231,15 +1781,6 @@
       </c>
       <c r="E34">
         <v>50</v>
-      </c>
-      <c r="F34">
-        <v>-10</v>
-      </c>
-      <c r="G34">
-        <v>-6.413</v>
-      </c>
-      <c r="H34">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2249,36 +1790,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2288,35 +1820,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -2325,18 +1851,12 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>225.3116000465253</v>
-      </c>
-      <c r="E2">
-        <v>-219.506831114251</v>
-      </c>
-      <c r="F2">
-        <v>5.804768932274351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-242.6746623252586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2345,18 +1865,12 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>-51.69920766795152</v>
-      </c>
-      <c r="E3">
-        <v>52.97533190169651</v>
-      </c>
-      <c r="F3">
-        <v>1.276124233744991</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>53.92242449678692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -2365,18 +1879,12 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>180.3504799766482</v>
-      </c>
-      <c r="E4">
-        <v>-179.8193241260269</v>
-      </c>
-      <c r="F4">
-        <v>0.5311558506213121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-179.7486574436127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B5">
         <v>21</v>
@@ -2385,18 +1893,12 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>159.0093346406055</v>
-      </c>
-      <c r="E5">
-        <v>-157.001899744802</v>
-      </c>
-      <c r="F5">
-        <v>2.007434895803417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>-159.1075952696433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -2405,18 +1907,12 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>364.42033172087</v>
-      </c>
-      <c r="E6">
-        <v>-358.3258957059193</v>
-      </c>
-      <c r="F6">
-        <v>6.094436014950677</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-353.3190588453491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -2425,18 +1921,12 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>-84.83779465758819</v>
-      </c>
-      <c r="E7">
-        <v>86.02828470508793</v>
-      </c>
-      <c r="F7">
-        <v>1.190490047499737</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>46.22336118133153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -2445,18 +1935,12 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>-21.06213426257768</v>
-      </c>
-      <c r="E8">
-        <v>21.25452953088823</v>
-      </c>
-      <c r="F8">
-        <v>0.1923952683105523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>30.4461612684857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -2465,18 +1949,12 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>318.3715245403725</v>
-      </c>
-      <c r="E9">
-        <v>-315.316617590942</v>
-      </c>
-      <c r="F9">
-        <v>3.054906949430514</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-320.6410670758776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -2485,18 +1963,12 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>30.7756131875831</v>
-      </c>
-      <c r="E10">
-        <v>-30.53350193137052</v>
-      </c>
-      <c r="F10">
-        <v>0.2421112562125904</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-29.32442424432037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -2505,18 +1977,12 @@
         <v>24</v>
       </c>
       <c r="D11">
-        <v>-203.0098915284346</v>
-      </c>
-      <c r="E11">
-        <v>205.8079035306464</v>
-      </c>
-      <c r="F11">
-        <v>2.798012002211747</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>214.4349330064938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2525,18 +1991,12 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>164.3258947522075</v>
-      </c>
-      <c r="E12">
-        <v>-162.9416677873203</v>
-      </c>
-      <c r="F12">
-        <v>1.384226964887181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-159.3190578943376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -2545,18 +2005,12 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <v>102.8517877684069</v>
-      </c>
-      <c r="E13">
-        <v>-102.2384369151303</v>
-      </c>
-      <c r="F13">
-        <v>0.6133508532766285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-70.15156886264042</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2565,18 +2019,12 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>212.3914039015858</v>
-      </c>
-      <c r="E14">
-        <v>-207.8382287811901</v>
-      </c>
-      <c r="F14">
-        <v>4.553175120395681</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-212.5713564885001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>20</v>
@@ -2585,18 +2033,12 @@
         <v>23</v>
       </c>
       <c r="D15">
-        <v>111.1485009062116</v>
-      </c>
-      <c r="E15">
-        <v>-110.8282003144748</v>
-      </c>
-      <c r="F15">
-        <v>0.320300591736844</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-102.3769934989888</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2605,18 +2047,12 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>-81.87489113923536</v>
-      </c>
-      <c r="E16">
-        <v>82.02878694805689</v>
-      </c>
-      <c r="F16">
-        <v>0.1538958088215248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>81.92400757320951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -2625,18 +2061,12 @@
         <v>22</v>
       </c>
       <c r="D17">
-        <v>140.9906701536435</v>
-      </c>
-      <c r="E17">
-        <v>-138.5522004143456</v>
-      </c>
-      <c r="F17">
-        <v>2.438469739297844</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>-140.892409632265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2645,18 +2075,12 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>0.7860716544951287</v>
-      </c>
-      <c r="E18">
-        <v>-0.6457334086400762</v>
-      </c>
-      <c r="F18">
-        <v>0.1403382458550526</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>-3.988769938099124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -2665,18 +2089,12 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>56.77311781627225</v>
-      </c>
-      <c r="E19">
-        <v>-56.67523976155107</v>
-      </c>
-      <c r="F19">
-        <v>0.09787805472118993</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-56.3743284875907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -2685,18 +2103,12 @@
         <v>9</v>
       </c>
       <c r="D20">
-        <v>51.18156226472655</v>
-      </c>
-      <c r="E20">
-        <v>-50.11332675127505</v>
-      </c>
-      <c r="F20">
-        <v>1.06823551345151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-70.77099547719999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>15</v>
@@ -2705,18 +2117,12 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>221.7278339474302</v>
-      </c>
-      <c r="E21">
-        <v>-218.9183465233798</v>
-      </c>
-      <c r="F21">
-        <v>2.809487424050428</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-223.1794710464011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -2725,18 +2131,12 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <v>85.23759245409964</v>
-      </c>
-      <c r="E22">
-        <v>-84.30079369195752</v>
-      </c>
-      <c r="F22">
-        <v>0.9367987621421214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-82.07757686312212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -2745,18 +2145,12 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>-43.46649880853853</v>
-      </c>
-      <c r="E23">
-        <v>44.11708992827864</v>
-      </c>
-      <c r="F23">
-        <v>0.6505911197401126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>44.67557649558866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2765,18 +2159,12 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>-10.09242315308474</v>
-      </c>
-      <c r="E24">
-        <v>10.09490938155504</v>
-      </c>
-      <c r="F24">
-        <v>0.002486228470299778</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>11.59800231417642</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B25">
         <v>19</v>
@@ -2785,18 +2173,12 @@
         <v>20</v>
       </c>
       <c r="D25">
-        <v>46.82819967452027</v>
-      </c>
-      <c r="E25">
-        <v>-46.72287908882835</v>
-      </c>
-      <c r="F25">
-        <v>0.1053205856919204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-38.37699285903433</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B26">
         <v>20</v>
@@ -2805,18 +2187,12 @@
         <v>23</v>
       </c>
       <c r="D26">
-        <v>111.1485009062116</v>
-      </c>
-      <c r="E26">
-        <v>-110.8282003144748</v>
-      </c>
-      <c r="F26">
-        <v>0.320300591736844</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-102.3769934989888</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2825,18 +2201,12 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>-65.67029063988511</v>
-      </c>
-      <c r="E27">
-        <v>66.5508225934507</v>
-      </c>
-      <c r="F27">
-        <v>0.8805319535655887</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>68.39076619212186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -2845,18 +2215,12 @@
         <v>19</v>
       </c>
       <c r="D28">
-        <v>-87.55424363225234</v>
-      </c>
-      <c r="E28">
-        <v>87.77117728249596</v>
-      </c>
-      <c r="F28">
-        <v>0.2169336502436225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>104.2460160918404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -2865,18 +2229,12 @@
         <v>10</v>
       </c>
       <c r="D29">
-        <v>36.68767643258914</v>
-      </c>
-      <c r="E29">
-        <v>-36.04888030104579</v>
-      </c>
-      <c r="F29">
-        <v>0.638796131543351</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-54.00564505137751</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B30">
         <v>12</v>
@@ -2885,18 +2243,12 @@
         <v>13</v>
       </c>
       <c r="D30">
-        <v>75.72368020563626</v>
-      </c>
-      <c r="E30">
-        <v>-75.35559446873461</v>
-      </c>
-      <c r="F30">
-        <v>0.3680857369016466</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-106.196429502903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -2905,18 +2257,12 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <v>5.38824782838519</v>
-      </c>
-      <c r="E31">
-        <v>-5.329710070023923</v>
-      </c>
-      <c r="F31">
-        <v>0.05853775836126771</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-2.609234517787181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B32">
         <v>19</v>
@@ -2925,18 +2271,12 @@
         <v>20</v>
       </c>
       <c r="D32">
-        <v>46.82819967452027</v>
-      </c>
-      <c r="E32">
-        <v>-46.72287908882835</v>
-      </c>
-      <c r="F32">
-        <v>0.1053205856919204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-38.3769928590343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2945,18 +2285,12 @@
         <v>21</v>
       </c>
       <c r="D33">
-        <v>221.7278339474302</v>
-      </c>
-      <c r="E33">
-        <v>-218.9183465233798</v>
-      </c>
-      <c r="F33">
-        <v>2.809487424050428</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-223.1794710464011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B34">
         <v>18</v>
@@ -2965,13 +2299,7 @@
         <v>21</v>
       </c>
       <c r="D34">
-        <v>56.77311781627225</v>
-      </c>
-      <c r="E34">
-        <v>-56.67523976155107</v>
-      </c>
-      <c r="F34">
-        <v>0.09787805472118993</v>
+        <v>-56.3743284875907</v>
       </c>
     </row>
   </sheetData>
@@ -2981,35 +2309,29 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -3018,18 +2340,12 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>110.9326547858927</v>
-      </c>
-      <c r="E2">
-        <v>-110.6323443040448</v>
-      </c>
-      <c r="F2">
-        <v>0.3003104818478874</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-88.6316762178698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -3038,18 +2354,12 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>125.6350414727596</v>
-      </c>
-      <c r="E3">
-        <v>-125.2626986355961</v>
-      </c>
-      <c r="F3">
-        <v>0.372342837163453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-156.0175839850739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -3058,18 +2368,12 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>154.2474499165578</v>
-      </c>
-      <c r="E4">
-        <v>-153.7239816305747</v>
-      </c>
-      <c r="F4">
-        <v>0.523468285983153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-140.8389505391082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -3078,18 +2382,12 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>203.0098915284346</v>
-      </c>
-      <c r="E5">
-        <v>-202.0406029852924</v>
-      </c>
-      <c r="F5">
-        <v>0.9692885431422216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>-214.4349330064938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -3098,13 +2396,7 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>169.227384110226</v>
-      </c>
-      <c r="E6">
-        <v>-168.5895370344083</v>
-      </c>
-      <c r="F6">
-        <v>0.6378470758176658</v>
+        <v>-192.8535078430877</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="110">
   <si>
     <t>Conventional generation (MW)</t>
   </si>
@@ -46,52 +46,118 @@
     <t>alpha</t>
   </si>
   <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
     <t>D14</t>
   </si>
   <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D34</t>
+  </si>
+  <si>
+    <t>D37</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D39</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D31</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D29</t>
+  </si>
+  <si>
     <t>D19</t>
   </si>
   <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D16</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D15</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D13</t>
+    <t>D35</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D38</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>D33</t>
+  </si>
+  <si>
+    <t>D36</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D32</t>
   </si>
   <si>
     <t>D20</t>
   </si>
   <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>D18</t>
+    <t>D28</t>
   </si>
   <si>
     <t>D1</t>
@@ -106,19 +172,19 @@
     <t>PGUB(MW)</t>
   </si>
   <si>
-    <t>G19</t>
-  </si>
-  <si>
-    <t>G16</t>
-  </si>
-  <si>
-    <t>G24</t>
-  </si>
-  <si>
     <t>G2</t>
   </si>
   <si>
-    <t>G13</t>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G8</t>
   </si>
   <si>
     <t>G10</t>
@@ -127,84 +193,15 @@
     <t>G5</t>
   </si>
   <si>
-    <t>G28</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>G17</t>
-  </si>
-  <si>
-    <t>G23</t>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G7</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>G14</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>G31</t>
-  </si>
-  <si>
-    <t>G30</t>
-  </si>
-  <si>
-    <t>G25</t>
-  </si>
-  <si>
-    <t>G22</t>
-  </si>
-  <si>
-    <t>G29</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>G15</t>
-  </si>
-  <si>
-    <t>G21</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>G26</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>G18</t>
-  </si>
-  <si>
-    <t>G32</t>
-  </si>
-  <si>
-    <t>G33</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>G20</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>G27</t>
-  </si>
-  <si>
     <t>from_busname</t>
   </si>
   <si>
@@ -214,121 +211,145 @@
     <t>pL(MW)</t>
   </si>
   <si>
-    <t>L16-1223</t>
-  </si>
-  <si>
-    <t>L5-26</t>
+    <t>L16-1011</t>
+  </si>
+  <si>
+    <t>L28-2223</t>
+  </si>
+  <si>
+    <t>L32-2628</t>
   </si>
   <si>
     <t>L25-1718</t>
   </si>
   <si>
-    <t>L33-2122</t>
-  </si>
-  <si>
-    <t>L18-1416</t>
-  </si>
-  <si>
-    <t>L10-78</t>
-  </si>
-  <si>
-    <t>L6-39</t>
-  </si>
-  <si>
-    <t>L23-1617</t>
-  </si>
-  <si>
-    <t>L7-49</t>
-  </si>
-  <si>
-    <t>L22-1524</t>
-  </si>
-  <si>
-    <t>L14-1114</t>
-  </si>
-  <si>
-    <t>L13-1113</t>
-  </si>
-  <si>
-    <t>L17-1323</t>
-  </si>
-  <si>
-    <t>L32-2023</t>
-  </si>
-  <si>
-    <t>L19-1516</t>
-  </si>
-  <si>
-    <t>L26-1722</t>
-  </si>
-  <si>
-    <t>L2-13</t>
-  </si>
-  <si>
-    <t>L27-1821</t>
-  </si>
-  <si>
-    <t>L11-89</t>
-  </si>
-  <si>
-    <t>L21-1521</t>
-  </si>
-  <si>
-    <t>L9-610</t>
-  </si>
-  <si>
-    <t>L4-24</t>
+    <t>L27-2122</t>
+  </si>
+  <si>
+    <t>L31-2627</t>
+  </si>
+  <si>
+    <t>L21-1617</t>
+  </si>
+  <si>
+    <t>L10-58</t>
+  </si>
+  <si>
+    <t>L22-1619</t>
+  </si>
+  <si>
+    <t>L33-2629</t>
+  </si>
+  <si>
+    <t>L3-23</t>
+  </si>
+  <si>
+    <t>L2-139</t>
+  </si>
+  <si>
+    <t>L14-89</t>
+  </si>
+  <si>
+    <t>L20-1516</t>
+  </si>
+  <si>
+    <t>L6-318</t>
+  </si>
+  <si>
+    <t>L26-1727</t>
+  </si>
+  <si>
+    <t>L19-1415</t>
+  </si>
+  <si>
+    <t>L24-1624</t>
+  </si>
+  <si>
+    <t>L15-939</t>
+  </si>
+  <si>
+    <t>L5-34</t>
+  </si>
+  <si>
+    <t>L9-56</t>
+  </si>
+  <si>
+    <t>L11-67</t>
+  </si>
+  <si>
+    <t>L23-1621</t>
   </si>
   <si>
     <t>L1-12</t>
   </si>
   <si>
-    <t>L29-1920</t>
-  </si>
-  <si>
-    <t>L31-2023</t>
-  </si>
-  <si>
-    <t>L3-15</t>
-  </si>
-  <si>
-    <t>L24-1619</t>
-  </si>
-  <si>
-    <t>L12-810</t>
-  </si>
-  <si>
-    <t>L15-1213</t>
-  </si>
-  <si>
-    <t>L8-510</t>
-  </si>
-  <si>
-    <t>L30-1920</t>
-  </si>
-  <si>
-    <t>L20-1521</t>
-  </si>
-  <si>
-    <t>L28-1821</t>
+    <t>L4-225</t>
+  </si>
+  <si>
+    <t>L17-1013</t>
+  </si>
+  <si>
+    <t>L12-611</t>
+  </si>
+  <si>
+    <t>L29-2324</t>
+  </si>
+  <si>
+    <t>L7-45</t>
+  </si>
+  <si>
+    <t>L8-414</t>
+  </si>
+  <si>
+    <t>L18-1314</t>
+  </si>
+  <si>
+    <t>L13-78</t>
+  </si>
+  <si>
+    <t>L34-2829</t>
+  </si>
+  <si>
+    <t>L30-2526</t>
   </si>
   <si>
     <t>pLT(MW)</t>
   </si>
   <si>
-    <t>T2-911</t>
-  </si>
-  <si>
-    <t>T3-912</t>
-  </si>
-  <si>
-    <t>T4-1011</t>
-  </si>
-  <si>
-    <t>T1-324</t>
-  </si>
-  <si>
-    <t>T5-1012</t>
+    <t>T10-2336</t>
+  </si>
+  <si>
+    <t>T5-1213</t>
+  </si>
+  <si>
+    <t>T6-1920</t>
+  </si>
+  <si>
+    <t>T9-2235</t>
+  </si>
+  <si>
+    <t>T8-2034</t>
+  </si>
+  <si>
+    <t>T1-230</t>
+  </si>
+  <si>
+    <t>T12-2938</t>
+  </si>
+  <si>
+    <t>T7-1933</t>
+  </si>
+  <si>
+    <t>T2-631</t>
+  </si>
+  <si>
+    <t>T3-1032</t>
+  </si>
+  <si>
+    <t>T4-1211</t>
+  </si>
+  <si>
+    <t>T11-2537</t>
   </si>
 </sst>
 </file>
@@ -705,13 +726,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2850.000028498454</v>
+        <v>6254.230062540391</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2850</v>
+        <v>6254.23</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +742,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -740,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1494.485543885834</v>
+        <v>-6.509739824996397</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -748,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1494.577911690925</v>
+        <v>2.510551897378904</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -756,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-1494.002868075546</v>
+        <v>-1.389873860697729</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -764,7 +785,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-1497.821079440233</v>
+        <v>-3.013391283462669</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -772,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-1497.796678295943</v>
+        <v>-2.282807000760174</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -780,7 +801,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-1500.509804192904</v>
+        <v>-1.521175004233506</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -788,7 +809,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-1501.147233617722</v>
+        <v>-4.200809469272173</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -796,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-1502.773353373234</v>
+        <v>-4.924422046122895</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -804,7 +825,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-1496.078747561786</v>
+        <v>-8.339583983396768</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -812,7 +833,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-1497.664671451013</v>
+        <v>1.213862432578388</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -820,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-1.913229079300168</v>
+        <v>0.2774170758301628</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -828,7 +849,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-2.896273031906602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -836,7 +857,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.073799531927371e-21</v>
+        <v>0.5221691315109387</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -844,7 +865,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.902404339074704</v>
+        <v>-1.037362471014231</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -852,7 +873,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>10.58924477493816</v>
+        <v>-1.064021820698251</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -860,7 +881,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>9.777200096607778</v>
+        <v>0.6478869545709648</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -868,7 +889,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>14.53538748605544</v>
+        <v>-0.5957875050129229</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -876,7 +897,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>16.01842036608769</v>
+        <v>-1.357853505152266</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -884,7 +905,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>8.39747018663676</v>
+        <v>6.010769878995998</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -892,7 +913,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>9.268210716243271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -900,7 +921,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>16.8549932397513</v>
+        <v>3.372787292621911</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -908,7 +929,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>23.03577256659503</v>
+        <v>8.396475989514235</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -916,7 +937,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>10.53521695993692</v>
+        <v>8.206376982333454</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -924,7 +945,127 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4.21269833801922</v>
+        <v>0.8455113956933391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3.363166717077255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.2732068747222489</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>-1.405493681987617</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1.924105720166659</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>4.232267507974369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>-10.59851824246278</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +1075,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -959,13 +1100,13 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -973,10 +1114,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>181</v>
+        <v>247.5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -987,10 +1128,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>97</v>
+        <v>322</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1001,10 +1142,10 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>171</v>
+        <v>329</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1015,10 +1156,10 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>71</v>
+        <v>320</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1029,10 +1170,10 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1043,13 +1184,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1057,13 +1198,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1071,13 +1212,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1085,13 +1226,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1099,13 +1240,13 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1113,13 +1254,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1127,10 +1268,10 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1141,13 +1282,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1155,10 +1296,10 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>175</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1169,10 +1310,10 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C17">
-        <v>333</v>
+        <v>1104</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1183,12 +1324,320 @@
         <v>24</v>
       </c>
       <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>233.8</v>
+      </c>
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="C18">
-        <v>108</v>
-      </c>
-      <c r="D18">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>522</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>224</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>6.5</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>308.6</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>283.5</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>139</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33">
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <v>281</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>274</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37">
+        <v>32</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>680</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <v>206</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>97.59999999999999</v>
+      </c>
+      <c r="D40">
         <v>1</v>
       </c>
     </row>
@@ -1199,7 +1648,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1213,574 +1662,183 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.4</v>
+        <v>646</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C3">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.4</v>
+        <v>660.846</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>687</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>400</v>
+        <v>660.846</v>
       </c>
       <c r="E4">
-        <v>400</v>
+        <v>865</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>652</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C6">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>76.259</v>
+        <v>564</v>
       </c>
       <c r="E6">
-        <v>197</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>57.074</v>
+        <v>660.846</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>508</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>660.846</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>57.074</v>
+        <v>580</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C11">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>2.4</v>
+        <v>660.846</v>
       </c>
       <c r="E11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <v>400</v>
-      </c>
-      <c r="E12">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13">
-        <v>15.2</v>
-      </c>
-      <c r="D13">
-        <v>76</v>
-      </c>
-      <c r="E13">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14">
-        <v>69</v>
-      </c>
-      <c r="D14">
-        <v>76.259</v>
-      </c>
-      <c r="E14">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15">
-        <v>25</v>
-      </c>
-      <c r="D15">
-        <v>57.074</v>
-      </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16">
-        <v>54.3</v>
-      </c>
-      <c r="D16">
-        <v>155</v>
-      </c>
-      <c r="E16">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>50</v>
-      </c>
-      <c r="E17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>50</v>
-      </c>
-      <c r="E18">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19">
-        <v>54.3</v>
-      </c>
-      <c r="D19">
-        <v>155</v>
-      </c>
-      <c r="E19">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>50</v>
-      </c>
-      <c r="E20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21">
-        <v>15.2</v>
-      </c>
-      <c r="D21">
-        <v>76</v>
-      </c>
-      <c r="E21">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23">
-        <v>54.3</v>
-      </c>
-      <c r="D23">
-        <v>155</v>
-      </c>
-      <c r="E23">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24">
-        <v>15.2</v>
-      </c>
-      <c r="D24">
-        <v>76</v>
-      </c>
-      <c r="E24">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>50</v>
-      </c>
-      <c r="E25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26">
-        <v>15.2</v>
-      </c>
-      <c r="D26">
-        <v>76</v>
-      </c>
-      <c r="E26">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>15</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27">
-        <v>2.4</v>
-      </c>
-      <c r="D27">
-        <v>2.4</v>
-      </c>
-      <c r="E27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>23</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28">
-        <v>54.3</v>
-      </c>
-      <c r="D28">
-        <v>155</v>
-      </c>
-      <c r="E28">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>23</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29">
-        <v>140</v>
-      </c>
-      <c r="D29">
-        <v>350</v>
-      </c>
-      <c r="E29">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30">
-        <v>16</v>
-      </c>
-      <c r="D30">
-        <v>16</v>
-      </c>
-      <c r="E30">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>15</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31">
-        <v>2.4</v>
-      </c>
-      <c r="D31">
-        <v>2.4</v>
-      </c>
-      <c r="E31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32">
-        <v>16</v>
-      </c>
-      <c r="D32">
-        <v>16</v>
-      </c>
-      <c r="E32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33">
-        <v>69</v>
-      </c>
-      <c r="D33">
-        <v>76.259</v>
-      </c>
-      <c r="E33">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>22</v>
-      </c>
-      <c r="B34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>50</v>
-      </c>
-      <c r="E34">
-        <v>50</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -1804,13 +1862,13 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1820,7 +1878,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1831,475 +1889,489 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>-242.6746623252586</v>
+        <v>380.0942962855257</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>53.92242449678692</v>
+        <v>34.56097479257897</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>-179.7486574436127</v>
+        <v>-60.78822884045372</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>-159.1075952696433</v>
+        <v>162.2019612184613</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>-353.3190588453491</v>
+        <v>-626.2850596859253</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>46.22336118133153</v>
+        <v>199.3119174807406</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>30.4461612684857</v>
+        <v>243.8900465476298</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>-320.6410670758776</v>
+        <v>411.6507152838524</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>-29.32442424432037</v>
+        <v>-479.9998175912205</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>214.4349330064938</v>
+        <v>-110.5578293381459</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>-159.3190578943376</v>
+        <v>450.8296139603891</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D13">
-        <v>-70.15156886264042</v>
+        <v>285.4505830770862</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>-212.5713564885001</v>
+        <v>164.2033616921107</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>-102.3769934989888</v>
+        <v>-317.8557938523187</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16">
-        <v>81.92400757320951</v>
+        <v>-4.201959638552262</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>-140.892409632265</v>
+        <v>81.68808532916849</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>-3.988769938099124</v>
+        <v>2.144209347590357</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>-56.3743284875907</v>
+        <v>-58.46096915262083</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D20">
-        <v>-70.77099547719999</v>
+        <v>157.7033616272017</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>-223.1794710464011</v>
+        <v>133.0315703790322</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
         <v>6</v>
       </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
       <c r="D22">
-        <v>-82.07757686312212</v>
+        <v>-511.2686933813492</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>44.67557649558866</v>
+        <v>508.3526539660764</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>11.59800231417642</v>
+        <v>-352.2850569460162</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>-38.37699285903433</v>
+        <v>-383.0505840529952</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>-102.3769934989888</v>
+        <v>-173.0341378485755</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D27">
-        <v>68.39076619212186</v>
+        <v>280.7517562237543</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>104.2460160918404</v>
+        <v>-382.8213865531007</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>-54.00564505137751</v>
+        <v>367.0609722385299</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>-106.196429502903</v>
+        <v>-99.61797809749686</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>-2.609234517787181</v>
+        <v>-267.3504565233799</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>-38.3769928590343</v>
+        <v>269.4946658709703</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C33">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>-223.1794710464011</v>
+        <v>274.5526516281674</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34">
+        <v>28</v>
+      </c>
+      <c r="C34">
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <v>-266.7882309003628</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
         <v>96</v>
       </c>
-      <c r="B34">
-        <v>18</v>
-      </c>
-      <c r="C34">
-        <v>21</v>
-      </c>
-      <c r="D34">
-        <v>-56.3743284875907</v>
+      <c r="B35">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>26</v>
+      </c>
+      <c r="D35">
+        <v>166.96586069205</v>
       </c>
     </row>
   </sheetData>
@@ -2309,7 +2381,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2320,10 +2392,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>97</v>
@@ -2334,13 +2406,13 @@
         <v>98</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>-88.6316762178698</v>
+        <v>-579.99999992086</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2348,13 +2420,13 @@
         <v>99</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>-156.0175839850739</v>
+        <v>-11.25709035278412</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2362,13 +2434,13 @@
         <v>100</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>-140.8389505391082</v>
+        <v>172.0000047598335</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2376,13 +2448,13 @@
         <v>101</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>-214.4349330064938</v>
+        <v>-660.8460344785042</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2390,13 +2462,111 @@
         <v>102</v>
       </c>
       <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <v>-508.0000020400755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>-660.8460601648087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>-660.8460630734178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>-651.999822351054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>-636.799960794325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>-660.8460525092801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12">
         <v>12</v>
       </c>
-      <c r="D6">
-        <v>-192.8535078430877</v>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>2.727090267575046</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>-564.0000007805345</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
   <si>
     <t>Conventional generation (MW)</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Demand (MW)</t>
   </si>
   <si>
+    <t>Objective function value</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -46,120 +49,54 @@
     <t>alpha</t>
   </si>
   <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
     <t>D2</t>
   </si>
   <si>
-    <t>D23</t>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D6</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>D16</t>
-  </si>
-  <si>
-    <t>D15</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D17</t>
-  </si>
-  <si>
-    <t>D14</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D22</t>
-  </si>
-  <si>
-    <t>D34</t>
-  </si>
-  <si>
-    <t>D37</t>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D9</t>
   </si>
   <si>
     <t>D18</t>
   </si>
   <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>D39</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>D30</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D31</t>
-  </si>
-  <si>
-    <t>D25</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>D24</t>
-  </si>
-  <si>
-    <t>D29</t>
-  </si>
-  <si>
-    <t>D19</t>
-  </si>
-  <si>
-    <t>D35</t>
-  </si>
-  <si>
-    <t>D26</t>
-  </si>
-  <si>
-    <t>D38</t>
-  </si>
-  <si>
-    <t>D27</t>
-  </si>
-  <si>
-    <t>D33</t>
-  </si>
-  <si>
-    <t>D36</t>
-  </si>
-  <si>
-    <t>D21</t>
-  </si>
-  <si>
-    <t>D32</t>
-  </si>
-  <si>
-    <t>D20</t>
-  </si>
-  <si>
-    <t>D28</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -172,34 +109,103 @@
     <t>PGUB(MW)</t>
   </si>
   <si>
+    <t>G19</t>
+  </si>
+  <si>
+    <t>G16</t>
+  </si>
+  <si>
+    <t>G24</t>
+  </si>
+  <si>
     <t>G2</t>
   </si>
   <si>
+    <t>G13</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G28</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>G17</t>
+  </si>
+  <si>
+    <t>G23</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G14</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>G31</t>
+  </si>
+  <si>
+    <t>G30</t>
+  </si>
+  <si>
+    <t>G25</t>
+  </si>
+  <si>
+    <t>G22</t>
+  </si>
+  <si>
+    <t>G29</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G15</t>
+  </si>
+  <si>
+    <t>G21</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>G26</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G18</t>
+  </si>
+  <si>
+    <t>G32</t>
+  </si>
+  <si>
+    <t>G33</t>
+  </si>
+  <si>
     <t>G6</t>
   </si>
   <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>G5</t>
+    <t>G20</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>G3</t>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>G27</t>
   </si>
   <si>
     <t>from_busname</t>
@@ -211,145 +217,121 @@
     <t>pL(MW)</t>
   </si>
   <si>
-    <t>L16-1011</t>
-  </si>
-  <si>
-    <t>L28-2223</t>
-  </si>
-  <si>
-    <t>L32-2628</t>
+    <t>L16-1223</t>
+  </si>
+  <si>
+    <t>L5-26</t>
   </si>
   <si>
     <t>L25-1718</t>
   </si>
   <si>
-    <t>L27-2122</t>
-  </si>
-  <si>
-    <t>L31-2627</t>
-  </si>
-  <si>
-    <t>L21-1617</t>
-  </si>
-  <si>
-    <t>L10-58</t>
-  </si>
-  <si>
-    <t>L22-1619</t>
-  </si>
-  <si>
-    <t>L33-2629</t>
-  </si>
-  <si>
-    <t>L3-23</t>
-  </si>
-  <si>
-    <t>L2-139</t>
-  </si>
-  <si>
-    <t>L14-89</t>
-  </si>
-  <si>
-    <t>L20-1516</t>
-  </si>
-  <si>
-    <t>L6-318</t>
-  </si>
-  <si>
-    <t>L26-1727</t>
-  </si>
-  <si>
-    <t>L19-1415</t>
-  </si>
-  <si>
-    <t>L24-1624</t>
-  </si>
-  <si>
-    <t>L15-939</t>
-  </si>
-  <si>
-    <t>L5-34</t>
-  </si>
-  <si>
-    <t>L9-56</t>
-  </si>
-  <si>
-    <t>L11-67</t>
-  </si>
-  <si>
-    <t>L23-1621</t>
+    <t>L33-2122</t>
+  </si>
+  <si>
+    <t>L18-1416</t>
+  </si>
+  <si>
+    <t>L10-78</t>
+  </si>
+  <si>
+    <t>L6-39</t>
+  </si>
+  <si>
+    <t>L23-1617</t>
+  </si>
+  <si>
+    <t>L7-49</t>
+  </si>
+  <si>
+    <t>L22-1524</t>
+  </si>
+  <si>
+    <t>L14-1114</t>
+  </si>
+  <si>
+    <t>L13-1113</t>
+  </si>
+  <si>
+    <t>L17-1323</t>
+  </si>
+  <si>
+    <t>L32-2023</t>
+  </si>
+  <si>
+    <t>L19-1516</t>
+  </si>
+  <si>
+    <t>L26-1722</t>
+  </si>
+  <si>
+    <t>L2-13</t>
+  </si>
+  <si>
+    <t>L27-1821</t>
+  </si>
+  <si>
+    <t>L11-89</t>
+  </si>
+  <si>
+    <t>L21-1521</t>
+  </si>
+  <si>
+    <t>L9-610</t>
+  </si>
+  <si>
+    <t>L4-24</t>
   </si>
   <si>
     <t>L1-12</t>
   </si>
   <si>
-    <t>L4-225</t>
-  </si>
-  <si>
-    <t>L17-1013</t>
-  </si>
-  <si>
-    <t>L12-611</t>
-  </si>
-  <si>
-    <t>L29-2324</t>
-  </si>
-  <si>
-    <t>L7-45</t>
-  </si>
-  <si>
-    <t>L8-414</t>
-  </si>
-  <si>
-    <t>L18-1314</t>
-  </si>
-  <si>
-    <t>L13-78</t>
-  </si>
-  <si>
-    <t>L34-2829</t>
-  </si>
-  <si>
-    <t>L30-2526</t>
+    <t>L29-1920</t>
+  </si>
+  <si>
+    <t>L31-2023</t>
+  </si>
+  <si>
+    <t>L3-15</t>
+  </si>
+  <si>
+    <t>L24-1619</t>
+  </si>
+  <si>
+    <t>L12-810</t>
+  </si>
+  <si>
+    <t>L15-1213</t>
+  </si>
+  <si>
+    <t>L8-510</t>
+  </si>
+  <si>
+    <t>L30-1920</t>
+  </si>
+  <si>
+    <t>L20-1521</t>
+  </si>
+  <si>
+    <t>L28-1821</t>
   </si>
   <si>
     <t>pLT(MW)</t>
   </si>
   <si>
-    <t>T10-2336</t>
-  </si>
-  <si>
-    <t>T5-1213</t>
-  </si>
-  <si>
-    <t>T6-1920</t>
-  </si>
-  <si>
-    <t>T9-2235</t>
-  </si>
-  <si>
-    <t>T8-2034</t>
-  </si>
-  <si>
-    <t>T1-230</t>
-  </si>
-  <si>
-    <t>T12-2938</t>
-  </si>
-  <si>
-    <t>T7-1933</t>
-  </si>
-  <si>
-    <t>T2-631</t>
-  </si>
-  <si>
-    <t>T3-1032</t>
-  </si>
-  <si>
-    <t>T4-1211</t>
-  </si>
-  <si>
-    <t>T11-2537</t>
+    <t>T2-911</t>
+  </si>
+  <si>
+    <t>T3-912</t>
+  </si>
+  <si>
+    <t>T4-1011</t>
+  </si>
+  <si>
+    <t>T1-324</t>
+  </si>
+  <si>
+    <t>T5-1012</t>
   </si>
 </sst>
 </file>
@@ -707,13 +689,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,16 +705,22 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>6254.230062540391</v>
+        <v>2850.000028498454</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6254.23</v>
+        <v>2850</v>
+      </c>
+      <c r="D2">
+        <v>60998.39058607066</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +730,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -750,10 +738,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -761,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-6.509739824996397</v>
+        <v>-1494.485543885834</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -769,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.510551897378904</v>
+        <v>-1494.577911690925</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -777,7 +765,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-1.389873860697729</v>
+        <v>-1494.002868075546</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -785,7 +773,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-3.013391283462669</v>
+        <v>-1497.821079440233</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -793,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-2.282807000760174</v>
+        <v>-1497.796678295943</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -801,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-1.521175004233506</v>
+        <v>-1500.509804192904</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -809,7 +797,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-4.200809469272173</v>
+        <v>-1501.147233617722</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -817,7 +805,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-4.924422046122895</v>
+        <v>-1502.773353373234</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -825,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-8.339583983396768</v>
+        <v>-1496.078747561786</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -833,7 +821,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.213862432578388</v>
+        <v>-1497.664671451013</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -841,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.2774170758301628</v>
+        <v>-1.913229079300168</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -849,7 +837,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>-2.896273031906602</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -857,7 +845,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.5221691315109387</v>
+        <v>1.073799531927371e-21</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -865,7 +853,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-1.037362471014231</v>
+        <v>1.902404339074704</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -873,7 +861,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-1.064021820698251</v>
+        <v>10.58924477493816</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -881,7 +869,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.6478869545709648</v>
+        <v>9.777200096607778</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -889,7 +877,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.5957875050129229</v>
+        <v>14.53538748605544</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -897,7 +885,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-1.357853505152266</v>
+        <v>16.01842036608769</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -905,7 +893,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>6.010769878995998</v>
+        <v>8.39747018663676</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -913,7 +901,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>9.268210716243271</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -921,7 +909,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>3.372787292621911</v>
+        <v>16.8549932397513</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -929,7 +917,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>8.396475989514235</v>
+        <v>23.03577256659503</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -937,7 +925,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>8.206376982333454</v>
+        <v>10.53521695993692</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -945,127 +933,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.8455113956933391</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>3.363166717077255</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>0.2732068747222489</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>-1.405493681987617</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1.924105720166659</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>4.232267507974369</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>-10.59851824246278</v>
+        <v>4.21269833801922</v>
       </c>
     </row>
   </sheetData>
@@ -1075,7 +943,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1083,41 +951,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>247.5</v>
+        <v>181</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1125,13 +993,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>322</v>
+        <v>97</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1139,13 +1007,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>329</v>
+        <v>171</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1153,13 +1021,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>320</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1167,13 +1035,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1181,97 +1049,97 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>14</v>
-      </c>
       <c r="C9">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1279,27 +1147,27 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>8.529999999999999</v>
+        <v>175</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1307,13 +1175,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>1104</v>
+        <v>333</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1321,323 +1189,15 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>233.8</v>
+        <v>108</v>
       </c>
       <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>13</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22">
-        <v>30</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>522</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24">
-        <v>31</v>
-      </c>
-      <c r="C24">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25">
-        <v>25</v>
-      </c>
-      <c r="C25">
-        <v>224</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="C26">
-        <v>6.5</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27">
-        <v>24</v>
-      </c>
-      <c r="C27">
-        <v>308.6</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28">
-        <v>29</v>
-      </c>
-      <c r="C28">
-        <v>283.5</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29">
-        <v>19</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30">
-        <v>35</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31">
-        <v>26</v>
-      </c>
-      <c r="C31">
-        <v>139</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32">
-        <v>38</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33">
-        <v>27</v>
-      </c>
-      <c r="C33">
-        <v>281</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34">
-        <v>33</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35">
-        <v>36</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36">
-        <v>21</v>
-      </c>
-      <c r="C36">
-        <v>274</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37">
-        <v>32</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38">
-        <v>20</v>
-      </c>
-      <c r="C38">
-        <v>680</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>28</v>
-      </c>
-      <c r="C39">
-        <v>206</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="D40">
         <v>1</v>
       </c>
     </row>
@@ -1648,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1656,189 +1216,580 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="D2">
-        <v>646</v>
+        <v>2.4</v>
       </c>
       <c r="E2">
-        <v>646</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="D3">
-        <v>660.846</v>
+        <v>2.4</v>
       </c>
       <c r="E3">
-        <v>687</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>660.846</v>
+        <v>400</v>
       </c>
       <c r="E4">
-        <v>865</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>652</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>652</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D6">
-        <v>564</v>
+        <v>76.259</v>
       </c>
       <c r="E6">
-        <v>564</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>660.846</v>
+        <v>57.074</v>
       </c>
       <c r="E7">
-        <v>1100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>508</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>508</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>660.846</v>
+        <v>50</v>
       </c>
       <c r="E9">
-        <v>1040</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>580</v>
+        <v>57.074</v>
       </c>
       <c r="E10">
-        <v>580</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>2.4</v>
+      </c>
+      <c r="D11">
+        <v>2.4</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>400</v>
+      </c>
+      <c r="E12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>15.2</v>
+      </c>
+      <c r="D13">
+        <v>76</v>
+      </c>
+      <c r="E13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>69</v>
+      </c>
+      <c r="D14">
+        <v>76.259</v>
+      </c>
+      <c r="E14">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>57.074</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>54.3</v>
+      </c>
+      <c r="D16">
+        <v>155</v>
+      </c>
+      <c r="E16">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>54.3</v>
+      </c>
+      <c r="D19">
+        <v>155</v>
+      </c>
+      <c r="E19">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <v>15.2</v>
+      </c>
+      <c r="D21">
+        <v>76</v>
+      </c>
+      <c r="E21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>54.3</v>
+      </c>
+      <c r="D23">
+        <v>155</v>
+      </c>
+      <c r="E23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>15.2</v>
+      </c>
+      <c r="D24">
+        <v>76</v>
+      </c>
+      <c r="E24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>15.2</v>
+      </c>
+      <c r="D26">
+        <v>76</v>
+      </c>
+      <c r="E26">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>2.4</v>
+      </c>
+      <c r="D27">
+        <v>2.4</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <v>54.3</v>
+      </c>
+      <c r="D28">
+        <v>155</v>
+      </c>
+      <c r="E28">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29">
+        <v>140</v>
+      </c>
+      <c r="D29">
+        <v>350</v>
+      </c>
+      <c r="E29">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31">
+        <v>2.4</v>
+      </c>
+      <c r="D31">
+        <v>2.4</v>
+      </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
         <v>59</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>660.846</v>
-      </c>
-      <c r="E11">
-        <v>725</v>
+      <c r="C32">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33">
+        <v>69</v>
+      </c>
+      <c r="D33">
+        <v>76.259</v>
+      </c>
+      <c r="E33">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1856,19 +1807,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1878,7 +1829,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1886,492 +1837,478 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>380.0942962855257</v>
+        <v>-242.6746623252586</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>34.56097479257897</v>
+        <v>53.92242449678692</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>-60.78822884045372</v>
+        <v>-179.7486574436127</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>162.2019612184613</v>
+        <v>-159.1075952696433</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>-626.2850596859253</v>
+        <v>-353.3190588453491</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B7">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>199.3119174807406</v>
+        <v>46.22336118133153</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>243.8900465476298</v>
+        <v>30.4461612684857</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>411.6507152838524</v>
+        <v>-320.6410670758776</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>-479.9998175912205</v>
+        <v>-29.32442424432037</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B11">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>-110.5578293381459</v>
+        <v>214.4349330064938</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>450.8296139603891</v>
+        <v>-159.3190578943376</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>285.4505830770862</v>
+        <v>-70.15156886264042</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>164.2033616921107</v>
+        <v>-212.5713564885001</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>-317.8557938523187</v>
+        <v>-102.3769934989888</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>-4.201959638552262</v>
+        <v>81.92400757320951</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B17">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>81.68808532916849</v>
+        <v>-140.892409632265</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>2.144209347590357</v>
+        <v>-3.988769938099124</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>-58.46096915262083</v>
+        <v>-56.3743284875907</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
         <v>9</v>
       </c>
-      <c r="C20">
-        <v>39</v>
-      </c>
       <c r="D20">
-        <v>157.7033616272017</v>
+        <v>-70.77099547719999</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>133.0315703790322</v>
+        <v>-223.1794710464011</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>-511.2686933813492</v>
+        <v>-82.07757686312212</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>508.3526539660764</v>
+        <v>44.67557649558866</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>-352.2850569460162</v>
+        <v>11.59800231417642</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>-383.0505840529952</v>
+        <v>-38.37699285903433</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>-173.0341378485755</v>
+        <v>-102.3769934989888</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>280.7517562237543</v>
+        <v>68.39076619212186</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B28">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>-382.8213865531007</v>
+        <v>104.2460160918404</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B29">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D29">
-        <v>367.0609722385299</v>
+        <v>-54.00564505137751</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>-99.61797809749686</v>
+        <v>-106.196429502903</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>-267.3504565233799</v>
+        <v>-2.609234517787181</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>269.4946658709703</v>
+        <v>-38.3769928590343</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>274.5526516281674</v>
+        <v>-223.1794710464011</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B34">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>-266.7882309003628</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B35">
-        <v>25</v>
-      </c>
-      <c r="C35">
-        <v>26</v>
-      </c>
-      <c r="D35">
-        <v>166.96586069205</v>
+        <v>-56.3743284875907</v>
       </c>
     </row>
   </sheetData>
@@ -2381,7 +2318,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2389,184 +2326,86 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>-579.99999992086</v>
+        <v>-88.6316762178698</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>13</v>
-      </c>
       <c r="D3">
-        <v>-11.25709035278412</v>
+        <v>-156.0175839850739</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>172.0000047598335</v>
+        <v>-140.8389505391082</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>-660.8460344785042</v>
+        <v>-214.4349330064938</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>-508.0000020400755</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <v>-660.8460601648087</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8">
-        <v>29</v>
-      </c>
-      <c r="C8">
-        <v>38</v>
-      </c>
-      <c r="D8">
-        <v>-660.8460630734178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>33</v>
-      </c>
-      <c r="D9">
-        <v>-651.999822351054</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>31</v>
-      </c>
-      <c r="D10">
-        <v>-636.799960794325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>-660.8460525092801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>2.727090267575046</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>37</v>
-      </c>
-      <c r="D13">
-        <v>-564.0000007805345</v>
+        <v>-192.8535078430877</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -711,7 +711,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>2850.000028498454</v>
+        <v>2850.0000285</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>2850</v>
       </c>
       <c r="D2">
-        <v>60998.39058607066</v>
+        <v>60998.39019467979</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1494.485543885834</v>
+        <v>-7.014224642325977</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -757,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-1494.577911690925</v>
+        <v>-7.103140916682147</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -765,7 +765,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-1494.002868075546</v>
+        <v>-6.404042958386182</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -773,7 +773,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-1497.821079440233</v>
+        <v>-10.23923767718209</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -781,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-1497.796678295943</v>
+        <v>-10.39735582046898</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -789,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-1500.509804192904</v>
+        <v>-13.14961201638763</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -797,7 +797,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-1501.147233617722</v>
+        <v>-13.65044939529142</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -805,7 +805,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-1502.773353373234</v>
+        <v>-15.27657009612768</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -813,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-1496.078747561786</v>
+        <v>-8.409271532435426</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -821,7 +821,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-1497.664671451013</v>
+        <v>-10.34058346804791</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -829,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-1.913229079300168</v>
+        <v>-2.790266574471174</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -837,7 +837,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-2.896273031906602</v>
+        <v>-2.059230895068654</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -845,7 +845,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.073799531927371e-21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -853,7 +853,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.902404339074704</v>
+        <v>1.32057356624658</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -861,7 +861,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>10.58924477493816</v>
+        <v>10.28199939289767</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -869,7 +869,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>9.777200096607778</v>
+        <v>9.470095196720891</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -877,7 +877,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>14.53538748605544</v>
+        <v>14.22823343942049</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -885,7 +885,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>16.01842036608769</v>
+        <v>15.71124271994595</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -893,7 +893,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>8.39747018663676</v>
+        <v>8.253737254026634</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -901,7 +901,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>9.268210716243271</v>
+        <v>9.264510898442829</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -909,7 +909,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>16.8549932397513</v>
+        <v>16.54779436894681</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -917,7 +917,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>23.03577256659503</v>
+        <v>22.72859127851293</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -925,7 +925,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>10.53521695993692</v>
+        <v>10.60789884112406</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -933,7 +933,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4.21269833801922</v>
+        <v>3.904933133453839</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1860,7 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>-242.6746623252586</v>
+        <v>-228.8645141549848</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1874,7 +1874,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>53.92242449678692</v>
+        <v>54.9639733419143</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1888,7 +1888,7 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>-179.7486574436127</v>
+        <v>-179.7457971026728</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1902,7 +1902,7 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>-159.1075952696433</v>
+        <v>-159.1080478896982</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1916,7 +1916,7 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>-353.3190588453491</v>
+        <v>-365.6452054346382</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1930,7 +1930,7 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>46.22336118133153</v>
+        <v>46.22338805270467</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1944,7 +1944,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>30.4461612684857</v>
+        <v>29.40995031280614</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1958,7 +1958,7 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>-320.6410670758776</v>
+        <v>-320.6377552126719</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1972,7 +1972,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>-29.32442424432037</v>
+        <v>-30.79935817343193</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1986,7 +1986,7 @@
         <v>24</v>
       </c>
       <c r="D11">
-        <v>214.4349330064938</v>
+        <v>214.4524139594521</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2000,7 +2000,7 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>-159.3190578943376</v>
+        <v>-171.6452044945984</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2014,7 +2014,7 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <v>-70.15156886264042</v>
+        <v>-102.309535152862</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2028,7 +2028,7 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>-212.5713564885001</v>
+        <v>-214.0378745616294</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2042,7 +2042,7 @@
         <v>23</v>
       </c>
       <c r="D15">
-        <v>-102.3769934989888</v>
+        <v>-108.5488089415843</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2056,7 +2056,7 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>81.92400757320951</v>
+        <v>81.90983487886993</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2070,7 +2070,7 @@
         <v>22</v>
       </c>
       <c r="D17">
-        <v>-140.892409632265</v>
+        <v>-140.8919581099992</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2084,7 +2084,7 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>-3.988769938099124</v>
+        <v>-5.04246184664594</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2098,7 +2098,7 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>-56.3743284875907</v>
+        <v>-56.3728982163642</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2112,7 +2112,7 @@
         <v>9</v>
       </c>
       <c r="D20">
-        <v>-70.77099547719999</v>
+        <v>-72.59659034151359</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2126,7 +2126,7 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>-223.1794710464011</v>
+        <v>-223.1811277284571</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2140,7 +2140,7 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <v>-82.07757686312212</v>
+        <v>-81.03602801808567</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2154,7 +2154,7 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>44.67557649558866</v>
+        <v>43.20064256656804</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2168,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>11.59800231417642</v>
+        <v>11.16461687857928</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2182,7 +2182,7 @@
         <v>20</v>
       </c>
       <c r="D25">
-        <v>-38.37699285903433</v>
+        <v>-44.54880830158424</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2196,7 +2196,7 @@
         <v>23</v>
       </c>
       <c r="D26">
-        <v>-102.3769934989888</v>
+        <v>-108.5488089415842</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2210,7 +2210,7 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>68.39076619212186</v>
+        <v>69.87784388796968</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2224,7 +2224,7 @@
         <v>19</v>
       </c>
       <c r="D28">
-        <v>104.2460160918404</v>
+        <v>91.9023852068315</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2238,7 +2238,7 @@
         <v>10</v>
       </c>
       <c r="D29">
-        <v>-54.00564505137751</v>
+        <v>-52.18002331578169</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2252,7 +2252,7 @@
         <v>13</v>
       </c>
       <c r="D30">
-        <v>-106.196429502903</v>
+        <v>-75.50495625559178</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2266,7 +2266,7 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <v>-2.609234517787181</v>
+        <v>-1.122156822030282</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2280,7 +2280,7 @@
         <v>20</v>
       </c>
       <c r="D32">
-        <v>-38.3769928590343</v>
+        <v>-44.54880830158424</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2294,7 +2294,7 @@
         <v>21</v>
       </c>
       <c r="D33">
-        <v>-223.1794710464011</v>
+        <v>-223.1811277284571</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2308,7 +2308,7 @@
         <v>21</v>
       </c>
       <c r="D34">
-        <v>-56.3743284875907</v>
+        <v>-56.37289821636418</v>
       </c>
     </row>
   </sheetData>
@@ -2349,7 +2349,7 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>-88.6316762178698</v>
+        <v>-116.8893172852906</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2363,7 +2363,7 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>-156.0175839850739</v>
+        <v>-132.0966826668487</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2377,7 +2377,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>-140.8389505391082</v>
+        <v>-157.0654223621697</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2391,7 +2391,7 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>-214.4349330064938</v>
+        <v>-214.4524139594521</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2405,7 +2405,7 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>-192.8535078430877</v>
+        <v>-172.2727877437279</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>Conventional generation (MW)</t>
   </si>
@@ -40,181 +40,190 @@
     <t>angle(degs)</t>
   </si>
   <si>
+    <t>Voltage(p.u.)</t>
+  </si>
+  <si>
     <t>busname</t>
   </si>
   <si>
     <t>PD(MW)</t>
   </si>
   <si>
-    <t>alpha</t>
+    <t>QD(MVar)</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D13</t>
   </si>
   <si>
     <t>D14</t>
   </si>
   <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
     <t>D19</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
     <t>D8</t>
   </si>
   <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D16</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D15</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>D20</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
     <t>D9</t>
   </si>
   <si>
-    <t>D18</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>PGLB(MW)</t>
+    <t>PG(MW)</t>
   </si>
   <si>
     <t>pG(MW)</t>
   </si>
   <si>
-    <t>PGUB(MW)</t>
+    <t>qG(MVar)</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>G13</t>
+  </si>
+  <si>
+    <t>G14</t>
+  </si>
+  <si>
+    <t>G15</t>
+  </si>
+  <si>
+    <t>G20</t>
+  </si>
+  <si>
+    <t>G17</t>
+  </si>
+  <si>
+    <t>G18</t>
+  </si>
+  <si>
+    <t>G16</t>
+  </si>
+  <si>
+    <t>G21</t>
   </si>
   <si>
     <t>G19</t>
   </si>
   <si>
-    <t>G16</t>
+    <t>G22</t>
+  </si>
+  <si>
+    <t>G23</t>
   </si>
   <si>
     <t>G24</t>
   </si>
   <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>G13</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>G5</t>
+    <t>G25</t>
+  </si>
+  <si>
+    <t>G29</t>
+  </si>
+  <si>
+    <t>G30</t>
   </si>
   <si>
     <t>G28</t>
   </si>
   <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>G17</t>
-  </si>
-  <si>
-    <t>G23</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>G14</t>
-  </si>
-  <si>
-    <t>G11</t>
+    <t>G26</t>
+  </si>
+  <si>
+    <t>G27</t>
+  </si>
+  <si>
+    <t>G32</t>
+  </si>
+  <si>
+    <t>G33</t>
   </si>
   <si>
     <t>G31</t>
   </si>
   <si>
-    <t>G30</t>
-  </si>
-  <si>
-    <t>G25</t>
-  </si>
-  <si>
-    <t>G22</t>
-  </si>
-  <si>
-    <t>G29</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>G15</t>
-  </si>
-  <si>
-    <t>G21</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>G26</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>G18</t>
-  </si>
-  <si>
-    <t>G32</t>
-  </si>
-  <si>
-    <t>G33</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>G20</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>G27</t>
-  </si>
-  <si>
     <t>from_busname</t>
   </si>
   <si>
     <t>to_busname</t>
   </si>
   <si>
-    <t>pL(MW)</t>
+    <t>pLto(MW)</t>
+  </si>
+  <si>
+    <t>pLfrom(MW)</t>
+  </si>
+  <si>
+    <t>loss(MW)</t>
   </si>
   <si>
     <t>L16-1223</t>
@@ -316,7 +325,13 @@
     <t>L28-1821</t>
   </si>
   <si>
-    <t>pLT(MW)</t>
+    <t>pLTto(MW)</t>
+  </si>
+  <si>
+    <t>pLTfrom(MW)</t>
+  </si>
+  <si>
+    <t>tap</t>
   </si>
   <si>
     <t>T2-911</t>
@@ -711,7 +726,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>2850.0000285</v>
+        <v>2904.200000000004</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -720,7 +735,7 @@
         <v>2850</v>
       </c>
       <c r="D2">
-        <v>60998.39019467979</v>
+        <v>51.70107259315819</v>
       </c>
     </row>
   </sheetData>
@@ -730,210 +745,285 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-7.014224642325977</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-6.954323538502835</v>
+      </c>
+      <c r="C2">
+        <v>1.04117082822278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-7.103140916682147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>-6.987036112691704</v>
+      </c>
+      <c r="C3">
+        <v>1.035000002455433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-6.404042958386182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-5.791311160742485</v>
+      </c>
+      <c r="C4">
+        <v>1.049999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-10.23923767718209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>-9.380424379343285</v>
+      </c>
+      <c r="C5">
+        <v>1.006629789036372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-10.39735582046898</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-9.703130788889492</v>
+      </c>
+      <c r="C6">
+        <v>1.023815596890451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-13.14961201638763</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-12.18984802220104</v>
+      </c>
+      <c r="C7">
+        <v>1.015735433141981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-13.65044939529142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-7.013805415393748</v>
+      </c>
+      <c r="C8">
+        <v>1.025000002362354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-15.27657009612768</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-10.79187799824353</v>
+      </c>
+      <c r="C9">
+        <v>0.9969942998416456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-8.409271532435426</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-7.255528366266605</v>
+      </c>
+      <c r="C10">
+        <v>1.0167618684634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-10.34058346804791</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-9.343244551591434</v>
+      </c>
+      <c r="C11">
+        <v>1.032710786498738</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-2.790266574471174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-2.175645716463541</v>
+      </c>
+      <c r="C12">
+        <v>0.9934632329817151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-2.059230895068654</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-1.519621563376003</v>
+      </c>
+      <c r="C13">
+        <v>1.007024401032142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>4.221759495687971e-20</v>
+      </c>
+      <c r="C14">
+        <v>1.020000001888093</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.32057356624658</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>2.116495859886609</v>
+      </c>
+      <c r="C15">
+        <v>0.9800000080843081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>10.28199939289767</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>10.47761278022463</v>
+      </c>
+      <c r="C16">
+        <v>1.095787515001609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>9.470095196720891</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>9.901489759718437</v>
+      </c>
+      <c r="C17">
+        <v>1.035523049175849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>14.22823343942049</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>14.21566969594195</v>
+      </c>
+      <c r="C18">
+        <v>1.044723693697603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>15.71124271994595</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>15.536375327696</v>
+      </c>
+      <c r="C19">
+        <v>1.049999999486777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>8.253737254026634</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>8.557751830377441</v>
+      </c>
+      <c r="C20">
+        <v>1.033921930874467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>9.264510898442829</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>9.284541202331065</v>
+      </c>
+      <c r="C21">
+        <v>1.042247776687631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>16.54779436894681</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>16.29524219487851</v>
+      </c>
+      <c r="C22">
+        <v>1.050001127725279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>22.72859127851293</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>21.98421337364544</v>
+      </c>
+      <c r="C23">
+        <v>1.050000000301776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>10.60789884112406</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>10.38975429877364</v>
+      </c>
+      <c r="C24">
+        <v>1.0500000010586</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>3.904933133453839</v>
+        <v>4.964785223388745</v>
+      </c>
+      <c r="C25">
+        <v>1.027050699266258</v>
       </c>
     </row>
   </sheetData>
@@ -954,88 +1044,88 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>19</v>
-      </c>
       <c r="C3">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>97</v>
+        <v>265</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>71</v>
+        <v>317</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>16</v>
@@ -1044,161 +1134,161 @@
         <v>100</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>125</v>
+        <v>333</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>317</v>
+        <v>181</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>265</v>
+        <v>128</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>180</v>
+        <v>71</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>333</v>
+        <v>171</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1219,67 +1309,67 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>2.4</v>
+        <v>76</v>
       </c>
       <c r="D2">
-        <v>2.4</v>
+        <v>76</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>10.467</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>2.4</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>2.4</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>10.467</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>400</v>
+        <v>10.467</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1287,50 +1377,50 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>10.467</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>76.259</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>197</v>
+        <v>-9.763</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="D7">
-        <v>57.074</v>
+        <v>76</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>-9.763</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1338,33 +1428,33 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>-9.763</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>-9.763</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1372,67 +1462,67 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D10">
-        <v>57.074</v>
+        <v>80</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>14.906</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11">
-        <v>2.4</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>2.4</v>
+        <v>80</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>14.906</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D12">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="E12">
-        <v>400</v>
+        <v>14.906</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13">
-        <v>15.2</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D13">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>76</v>
+        <v>38.554</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1440,356 +1530,356 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14">
-        <v>69</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D14">
-        <v>76.259</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E14">
-        <v>197</v>
+        <v>38.554</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="D15">
-        <v>57.074</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>38.554</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16">
-        <v>54.3</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>155</v>
+        <v>-85.18899999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>137.038</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E18">
-        <v>50</v>
+        <v>137.038</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19">
-        <v>54.3</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="E19">
-        <v>155</v>
+        <v>137.038</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>50</v>
+        <v>137.038</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21">
-        <v>15.2</v>
+        <v>155</v>
       </c>
       <c r="D21">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="E21">
-        <v>76</v>
+        <v>137.038</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>137.038</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23">
-        <v>54.3</v>
+        <v>155</v>
       </c>
       <c r="D23">
         <v>155</v>
       </c>
       <c r="E23">
-        <v>155</v>
+        <v>-204.617</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24">
-        <v>15.2</v>
+        <v>400</v>
       </c>
       <c r="D24">
-        <v>76</v>
+        <v>400</v>
       </c>
       <c r="E24">
-        <v>76</v>
+        <v>93.44799999999999</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="E25">
-        <v>50</v>
+        <v>-239.827</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26">
-        <v>15.2</v>
+        <v>50</v>
       </c>
       <c r="D26">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E26">
-        <v>76</v>
+        <v>-5.949</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27">
-        <v>2.4</v>
+        <v>50</v>
       </c>
       <c r="D27">
-        <v>2.4</v>
+        <v>50</v>
       </c>
       <c r="E27">
-        <v>12</v>
+        <v>-5.949</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28">
-        <v>54.3</v>
+        <v>50</v>
       </c>
       <c r="D28">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="E28">
-        <v>155</v>
+        <v>-5.949</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D29">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="E29">
-        <v>350</v>
+        <v>-5.949</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>-5.949</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31">
-        <v>2.4</v>
+        <v>50</v>
       </c>
       <c r="D31">
-        <v>2.4</v>
+        <v>50</v>
       </c>
       <c r="E31">
-        <v>12</v>
+        <v>-5.949</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>31.016</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C33">
-        <v>69</v>
+        <v>350</v>
       </c>
       <c r="D33">
-        <v>76.259</v>
+        <v>350</v>
       </c>
       <c r="E33">
-        <v>197</v>
+        <v>31.016</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="D34">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="E34">
-        <v>50</v>
+        <v>31.016</v>
       </c>
     </row>
   </sheetData>
@@ -1810,16 +1900,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1829,29 +1919,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -1860,12 +1956,18 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>-228.8645141549848</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>231.0973846062458</v>
+      </c>
+      <c r="E2">
+        <v>-224.9052493739453</v>
+      </c>
+      <c r="F2">
+        <v>6.192135232300444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1874,12 +1976,18 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>54.9639733419143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-48.45929200953859</v>
+      </c>
+      <c r="E3">
+        <v>49.60074781399344</v>
+      </c>
+      <c r="F3">
+        <v>1.141455804454855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -1888,12 +1996,18 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>-179.7457971026728</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>177.8622472010045</v>
+      </c>
+      <c r="E4">
+        <v>-177.3403116581501</v>
+      </c>
+      <c r="F4">
+        <v>0.5219355428544903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>21</v>
@@ -1902,12 +2016,18 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>-159.1080478896982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>159.592863284746</v>
+      </c>
+      <c r="E5">
+        <v>-157.5707215604764</v>
+      </c>
+      <c r="F5">
+        <v>2.022141724269666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -1916,12 +2036,18 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>-365.6452054346382</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>369.3602085196973</v>
+      </c>
+      <c r="E6">
+        <v>-362.2775765304243</v>
+      </c>
+      <c r="F6">
+        <v>7.08263198927308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -1930,12 +2056,18 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>46.22338805270467</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-112.9343942867115</v>
+      </c>
+      <c r="E7">
+        <v>115.0000000000011</v>
+      </c>
+      <c r="F7">
+        <v>2.065605713289664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1944,12 +2076,18 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>29.40995031280614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-28.30296306950447</v>
+      </c>
+      <c r="E8">
+        <v>28.67028120670147</v>
+      </c>
+      <c r="F8">
+        <v>0.3673181371970036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -1958,12 +2096,18 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>-320.6377552126719</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>315.3322318685674</v>
+      </c>
+      <c r="E9">
+        <v>-312.323499216732</v>
+      </c>
+      <c r="F9">
+        <v>3.008732651835411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1972,12 +2116,18 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>-30.79935817343193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>36.87524112000978</v>
+      </c>
+      <c r="E10">
+        <v>-36.52243142367535</v>
+      </c>
+      <c r="F10">
+        <v>0.3528096963344218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -1986,12 +2136,18 @@
         <v>24</v>
       </c>
       <c r="D11">
-        <v>214.4524139594521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-220.9043010387272</v>
+      </c>
+      <c r="E11">
+        <v>224.6073721434057</v>
+      </c>
+      <c r="F11">
+        <v>3.703071104678513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2000,12 +2156,18 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>-171.6452044945984</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>168.2775755304249</v>
+      </c>
+      <c r="E12">
+        <v>-166.5623896137328</v>
+      </c>
+      <c r="F12">
+        <v>1.715185916692152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -2014,12 +2176,18 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <v>-102.309535152862</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>86.87483976711863</v>
+      </c>
+      <c r="E13">
+        <v>-86.30134885151266</v>
+      </c>
+      <c r="F13">
+        <v>0.5734909156059675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2028,12 +2196,18 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>-214.0378745616294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>226.8349381744235</v>
+      </c>
+      <c r="E14">
+        <v>-221.5777826725933</v>
+      </c>
+      <c r="F14">
+        <v>5.257155501830235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B15">
         <v>20</v>
@@ -2042,12 +2216,18 @@
         <v>23</v>
       </c>
       <c r="D15">
-        <v>-108.5488089415843</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>101.0338386096659</v>
+      </c>
+      <c r="E15">
+        <v>-100.7580387932958</v>
+      </c>
+      <c r="F15">
+        <v>0.2757998163700481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2056,12 +2236,18 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>81.90983487886993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-110.0029129863685</v>
+      </c>
+      <c r="E16">
+        <v>112.7130610828596</v>
+      </c>
+      <c r="F16">
+        <v>2.710148096491172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -2070,12 +2256,18 @@
         <v>22</v>
       </c>
       <c r="D17">
-        <v>-140.8919581099992</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>140.4071367152556</v>
+      </c>
+      <c r="E17">
+        <v>-137.991920210417</v>
+      </c>
+      <c r="F17">
+        <v>2.415216504838624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2084,12 +2276,18 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>-5.04246184664594</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>10.93763466232599</v>
+      </c>
+      <c r="E18">
+        <v>-10.87700970800601</v>
+      </c>
+      <c r="F18">
+        <v>0.06062495431997938</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -2098,12 +2296,18 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>-56.3728982163642</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>55.52474588094621</v>
+      </c>
+      <c r="E19">
+        <v>-55.43112360050198</v>
+      </c>
+      <c r="F19">
+        <v>0.09362228044423881</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -2112,12 +2316,18 @@
         <v>9</v>
       </c>
       <c r="D20">
-        <v>-72.59659034151359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>38.73237685987056</v>
+      </c>
+      <c r="E20">
+        <v>-38.10817160533062</v>
+      </c>
+      <c r="F20">
+        <v>0.624205254539939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B21">
         <v>15</v>
@@ -2126,12 +2336,18 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>-223.1811277284571</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>223.2606148992922</v>
+      </c>
+      <c r="E21">
+        <v>-219.6602166131318</v>
+      </c>
+      <c r="F21">
+        <v>3.600398286160456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -2140,12 +2356,18 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <v>-81.03602801808567</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>88.5784283000702</v>
+      </c>
+      <c r="E22">
+        <v>-87.54070799046096</v>
+      </c>
+      <c r="F22">
+        <v>1.037720309609247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -2154,12 +2376,18 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>43.20064256656804</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-37.47756857632417</v>
+      </c>
+      <c r="E23">
+        <v>37.97977196480572</v>
+      </c>
+      <c r="F23">
+        <v>0.5022033884815424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2168,12 +2396,18 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>11.16461687857928</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-12.58051977879781</v>
+      </c>
+      <c r="E24">
+        <v>12.63048672482128</v>
+      </c>
+      <c r="F24">
+        <v>0.04996694602347196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B25">
         <v>19</v>
@@ -2182,12 +2416,18 @@
         <v>20</v>
       </c>
       <c r="D25">
-        <v>-44.54880830158424</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>36.75803879329603</v>
+      </c>
+      <c r="E25">
+        <v>-36.68039205606517</v>
+      </c>
+      <c r="F25">
+        <v>0.07764673723086313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B26">
         <v>20</v>
@@ -2196,12 +2436,18 @@
         <v>23</v>
       </c>
       <c r="D26">
-        <v>-108.5488089415842</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>101.0338386096659</v>
+      </c>
+      <c r="E26">
+        <v>-100.7580387932958</v>
+      </c>
+      <c r="F26">
+        <v>0.2757998163700481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2210,12 +2456,18 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>69.87784388796968</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>-61.4580981947222</v>
+      </c>
+      <c r="E27">
+        <v>62.2465229831861</v>
+      </c>
+      <c r="F27">
+        <v>0.788424788463904</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -2224,12 +2476,18 @@
         <v>19</v>
       </c>
       <c r="D28">
-        <v>91.9023852068315</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-107.6392158878692</v>
+      </c>
+      <c r="E28">
+        <v>107.9662036834029</v>
+      </c>
+      <c r="F28">
+        <v>0.326987795533662</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -2238,12 +2496,18 @@
         <v>10</v>
       </c>
       <c r="D29">
-        <v>-52.18002331578169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>20.24137494942709</v>
+      </c>
+      <c r="E29">
+        <v>-19.95743410795746</v>
+      </c>
+      <c r="F29">
+        <v>0.2839408414696321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B30">
         <v>12</v>
@@ -2252,12 +2516,18 @@
         <v>13</v>
       </c>
       <c r="D30">
-        <v>-75.50495625559178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>59.90294190801899</v>
+      </c>
+      <c r="E30">
+        <v>-59.66697230505906</v>
+      </c>
+      <c r="F30">
+        <v>0.235969602959929</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -2266,12 +2536,18 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <v>-1.122156822030282</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>9.575029256403427</v>
+      </c>
+      <c r="E31">
+        <v>-9.541901805277332</v>
+      </c>
+      <c r="F31">
+        <v>0.03312745112609566</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B32">
         <v>19</v>
@@ -2280,12 +2556,18 @@
         <v>20</v>
       </c>
       <c r="D32">
-        <v>-44.54880830158424</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>36.75803879329603</v>
+      </c>
+      <c r="E32">
+        <v>-36.68039205606517</v>
+      </c>
+      <c r="F32">
+        <v>0.07764673723086313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2294,12 +2576,18 @@
         <v>21</v>
       </c>
       <c r="D33">
-        <v>-223.1811277284571</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>223.2606148992922</v>
+      </c>
+      <c r="E33">
+        <v>-219.6602166131318</v>
+      </c>
+      <c r="F33">
+        <v>3.600398286160456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B34">
         <v>18</v>
@@ -2308,7 +2596,13 @@
         <v>21</v>
       </c>
       <c r="D34">
-        <v>-56.37289821636418</v>
+        <v>55.52474588094621</v>
+      </c>
+      <c r="E34">
+        <v>-55.43112360050198</v>
+      </c>
+      <c r="F34">
+        <v>0.09362228044423881</v>
       </c>
     </row>
   </sheetData>
@@ -2318,29 +2612,38 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>101</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -2349,12 +2652,21 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>-116.8893172852906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>103.7513389609836</v>
+      </c>
+      <c r="E2">
+        <v>-103.498507010708</v>
+      </c>
+      <c r="F2">
+        <v>0.2528319502756116</v>
+      </c>
+      <c r="G2">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -2363,12 +2675,21 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>-132.0966826668487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>119.1440568789012</v>
+      </c>
+      <c r="E3">
+        <v>-118.8061478996674</v>
+      </c>
+      <c r="F3">
+        <v>0.3379089792338252</v>
+      </c>
+      <c r="G3">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -2377,12 +2698,21 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>-157.0654223621697</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>149.1123995042622</v>
+      </c>
+      <c r="E4">
+        <v>-148.5873477006254</v>
+      </c>
+      <c r="F4">
+        <v>0.525051803636889</v>
+      </c>
+      <c r="G4">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2391,12 +2721,21 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>-214.4524139594521</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>220.9043010387276</v>
+      </c>
+      <c r="E5">
+        <v>-219.607915869027</v>
+      </c>
+      <c r="F5">
+        <v>1.296385169700631</v>
+      </c>
+      <c r="G5">
+        <v>1.100000010651292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -2405,7 +2744,16 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>-172.2727877437279</v>
+        <v>165.4281648001037</v>
+      </c>
+      <c r="E6">
+        <v>-164.8074848052748</v>
+      </c>
+      <c r="F6">
+        <v>0.6206799948288211</v>
+      </c>
+      <c r="G6">
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -726,7 +726,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>2904.200000000004</v>
+        <v>2904.199958328551</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>2850</v>
       </c>
       <c r="D2">
-        <v>51.70107259315819</v>
+        <v>51.70103124997319</v>
       </c>
     </row>
   </sheetData>
@@ -767,10 +767,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-6.954323538502835</v>
+        <v>-6.954336164209468</v>
       </c>
       <c r="C2">
-        <v>1.04117082822278</v>
+        <v>1.041171740726286</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -778,10 +778,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-6.987036112691704</v>
+        <v>-6.987038895179992</v>
       </c>
       <c r="C3">
-        <v>1.035000002455433</v>
+        <v>1.035000000900278</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -789,10 +789,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-5.791311160742485</v>
+        <v>-5.791314030672015</v>
       </c>
       <c r="C4">
-        <v>1.049999999999991</v>
+        <v>1.049999989553545</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -800,10 +800,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-9.380424379343285</v>
+        <v>-9.380426072626054</v>
       </c>
       <c r="C5">
-        <v>1.006629789036372</v>
+        <v>1.006629803587966</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -811,10 +811,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-9.703130788889492</v>
+        <v>-9.703135100475894</v>
       </c>
       <c r="C6">
-        <v>1.023815596890451</v>
+        <v>1.023816162635372</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -822,10 +822,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-12.18984802220104</v>
+        <v>-12.18984785700471</v>
       </c>
       <c r="C7">
-        <v>1.015735433141981</v>
+        <v>1.015735577424695</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -833,10 +833,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-7.013805415393748</v>
+        <v>-7.0138043603139</v>
       </c>
       <c r="C8">
-        <v>1.025000002362354</v>
+        <v>1.025000000861727</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -844,10 +844,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-10.79187799824353</v>
+        <v>-10.7918773526312</v>
       </c>
       <c r="C9">
-        <v>0.9969942998416456</v>
+        <v>0.996994344779235</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -855,10 +855,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-7.255528366266605</v>
+        <v>-7.255529263787974</v>
       </c>
       <c r="C10">
-        <v>1.0167618684634</v>
+        <v>1.016761895503189</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -866,10 +866,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-9.343244551591434</v>
+        <v>-9.343244474360933</v>
       </c>
       <c r="C11">
-        <v>1.032710786498738</v>
+        <v>1.032710967342917</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -877,10 +877,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-2.175645716463541</v>
+        <v>-2.175645845717776</v>
       </c>
       <c r="C12">
-        <v>0.9934632329817151</v>
+        <v>0.993463264623684</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -888,10 +888,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-1.519621563376003</v>
+        <v>-1.519622106706469</v>
       </c>
       <c r="C13">
-        <v>1.007024401032142</v>
+        <v>1.007024443039843</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -899,10 +899,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4.221759495687971e-20</v>
+        <v>1.922255097482938e-22</v>
       </c>
       <c r="C14">
-        <v>1.020000001888093</v>
+        <v>1.020000000687559</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -910,10 +910,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.116495859886609</v>
+        <v>2.116497042707441</v>
       </c>
       <c r="C15">
-        <v>0.9800000080843081</v>
+        <v>0.9800000029333509</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -921,10 +921,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>10.47761278022463</v>
+        <v>10.47761840216531</v>
       </c>
       <c r="C16">
-        <v>1.095787515001609</v>
+        <v>1.09578684298166</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -932,10 +932,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>9.901489759718437</v>
+        <v>9.901490906490791</v>
       </c>
       <c r="C17">
-        <v>1.035523049175849</v>
+        <v>1.03552312332949</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -943,10 +943,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>14.21566969594195</v>
+        <v>14.21567334744549</v>
       </c>
       <c r="C18">
-        <v>1.044723693697603</v>
+        <v>1.044723716059756</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -954,10 +954,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>15.536375327696</v>
+        <v>15.53637998996704</v>
       </c>
       <c r="C19">
-        <v>1.049999999486777</v>
+        <v>1.049999999808577</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -965,10 +965,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>8.557751830377441</v>
+        <v>8.557752832219609</v>
       </c>
       <c r="C20">
-        <v>1.033921930874467</v>
+        <v>1.033921973285685</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -976,10 +976,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>9.284541202331065</v>
+        <v>9.284541911580224</v>
       </c>
       <c r="C21">
-        <v>1.042247776687631</v>
+        <v>1.042247791338515</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -987,10 +987,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>16.29524219487851</v>
+        <v>16.29525361727388</v>
       </c>
       <c r="C22">
-        <v>1.050001127725279</v>
+        <v>1.050000356255982</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -998,10 +998,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>21.98421337364544</v>
+        <v>21.98422090266471</v>
       </c>
       <c r="C23">
-        <v>1.050000000301776</v>
+        <v>1.050000000112305</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1009,10 +1009,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>10.38975429877364</v>
+        <v>10.38975485847643</v>
       </c>
       <c r="C24">
-        <v>1.0500000010586</v>
+        <v>1.050000000393651</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1020,10 +1020,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4.964785223388745</v>
+        <v>4.964784838117613</v>
       </c>
       <c r="C25">
-        <v>1.027050699266258</v>
+        <v>1.027050270768929</v>
       </c>
     </row>
   </sheetData>
@@ -1335,7 +1335,7 @@
         <v>76</v>
       </c>
       <c r="E2">
-        <v>10.467</v>
+        <v>10.469</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1352,7 +1352,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>10.467</v>
+        <v>10.469</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1369,7 +1369,7 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>10.467</v>
+        <v>10.469</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1386,7 +1386,7 @@
         <v>76</v>
       </c>
       <c r="E5">
-        <v>10.467</v>
+        <v>10.469</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1403,7 +1403,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>-9.763</v>
+        <v>-9.765000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1420,7 +1420,7 @@
         <v>76</v>
       </c>
       <c r="E7">
-        <v>-9.763</v>
+        <v>-9.765000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1437,7 +1437,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>-9.763</v>
+        <v>-9.765000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1454,7 +1454,7 @@
         <v>76</v>
       </c>
       <c r="E9">
-        <v>-9.763</v>
+        <v>-9.765000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1590,7 +1590,7 @@
         <v>12</v>
       </c>
       <c r="E17">
-        <v>137.038</v>
+        <v>137.037</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1607,7 +1607,7 @@
         <v>12</v>
       </c>
       <c r="E18">
-        <v>137.038</v>
+        <v>137.037</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1624,7 +1624,7 @@
         <v>12</v>
       </c>
       <c r="E19">
-        <v>137.038</v>
+        <v>137.037</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1641,7 +1641,7 @@
         <v>12</v>
       </c>
       <c r="E20">
-        <v>137.038</v>
+        <v>137.037</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1658,7 +1658,7 @@
         <v>155</v>
       </c>
       <c r="E21">
-        <v>137.038</v>
+        <v>137.037</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="E22">
-        <v>137.038</v>
+        <v>137.037</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1692,7 +1692,7 @@
         <v>155</v>
       </c>
       <c r="E23">
-        <v>-204.617</v>
+        <v>-204.612</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1709,7 +1709,7 @@
         <v>400</v>
       </c>
       <c r="E24">
-        <v>93.44799999999999</v>
+        <v>93.45399999999999</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1726,7 +1726,7 @@
         <v>400</v>
       </c>
       <c r="E25">
-        <v>-239.827</v>
+        <v>-239.835</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1956,13 +1956,13 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>231.0973846062458</v>
+        <v>231.0974088300875</v>
       </c>
       <c r="E2">
-        <v>-224.9052493739453</v>
+        <v>-224.9052727344524</v>
       </c>
       <c r="F2">
-        <v>6.192135232300444</v>
+        <v>6.192136095635004</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1976,13 +1976,13 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>-48.45929200953859</v>
+        <v>-48.45925443476258</v>
       </c>
       <c r="E3">
-        <v>49.60074781399344</v>
+        <v>49.60070844371397</v>
       </c>
       <c r="F3">
-        <v>1.141455804454855</v>
+        <v>1.141454008951392</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1996,13 +1996,13 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>177.8622472010045</v>
+        <v>177.8623638468168</v>
       </c>
       <c r="E4">
-        <v>-177.3403116581501</v>
+        <v>-177.3404277294767</v>
       </c>
       <c r="F4">
-        <v>0.5219355428544903</v>
+        <v>0.5219361173400383</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2016,13 +2016,13 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>159.592863284746</v>
+        <v>159.5927872348254</v>
       </c>
       <c r="E5">
-        <v>-157.5707215604764</v>
+        <v>-157.5706497575499</v>
       </c>
       <c r="F5">
-        <v>2.022141724269666</v>
+        <v>2.022137477275576</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2036,13 +2036,13 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>369.3602085196973</v>
+        <v>369.3602581928429</v>
       </c>
       <c r="E6">
-        <v>-362.2775765304243</v>
+        <v>-362.277622993714</v>
       </c>
       <c r="F6">
-        <v>7.08263198927308</v>
+        <v>7.082635199128884</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2056,13 +2056,13 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>-112.9343942867115</v>
+        <v>-112.9343918605495</v>
       </c>
       <c r="E7">
-        <v>115.0000000000011</v>
+        <v>114.9999970027528</v>
       </c>
       <c r="F7">
-        <v>2.065605713289664</v>
+        <v>2.065605142203308</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2076,13 +2076,13 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>-28.30296306950447</v>
+        <v>-28.30292709544883</v>
       </c>
       <c r="E8">
-        <v>28.67028120670147</v>
+        <v>28.67024434418971</v>
       </c>
       <c r="F8">
-        <v>0.3673181371970036</v>
+        <v>0.3673172487408782</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2096,13 +2096,13 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>315.3322318685674</v>
+        <v>315.3324155686497</v>
       </c>
       <c r="E9">
-        <v>-312.323499216732</v>
+        <v>-312.323679657658</v>
       </c>
       <c r="F9">
-        <v>3.008732651835411</v>
+        <v>3.008735910991645</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2116,13 +2116,13 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>36.87524112000978</v>
+        <v>36.87525852921386</v>
       </c>
       <c r="E10">
-        <v>-36.52243142367535</v>
+        <v>-36.52244851399961</v>
       </c>
       <c r="F10">
-        <v>0.3528096963344218</v>
+        <v>0.3528100152142499</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2136,13 +2136,13 @@
         <v>24</v>
       </c>
       <c r="D11">
-        <v>-220.9043010387272</v>
+        <v>-220.9042426163613</v>
       </c>
       <c r="E11">
-        <v>224.6073721434057</v>
+        <v>224.6073084525962</v>
       </c>
       <c r="F11">
-        <v>3.703071104678513</v>
+        <v>3.703065836234876</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2156,13 +2156,13 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>168.2775755304249</v>
+        <v>168.2776219955612</v>
       </c>
       <c r="E12">
-        <v>-166.5623896137328</v>
+        <v>-166.5624347190722</v>
       </c>
       <c r="F12">
-        <v>1.715185916692152</v>
+        <v>1.715187276489027</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2176,13 +2176,13 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <v>86.87483976711863</v>
+        <v>86.87483807478857</v>
       </c>
       <c r="E13">
-        <v>-86.30134885151266</v>
+        <v>-86.30134756302856</v>
       </c>
       <c r="F13">
-        <v>0.5734909156059675</v>
+        <v>0.5734905117600109</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2196,13 +2196,13 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>226.8349381744235</v>
+        <v>226.8349498303853</v>
       </c>
       <c r="E14">
-        <v>-221.5777826725933</v>
+        <v>-221.5777937823791</v>
       </c>
       <c r="F14">
-        <v>5.257155501830235</v>
+        <v>5.257156048006184</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2216,13 +2216,13 @@
         <v>23</v>
       </c>
       <c r="D15">
-        <v>101.0338386096659</v>
+        <v>101.0338173711477</v>
       </c>
       <c r="E15">
-        <v>-100.7580387932958</v>
+        <v>-100.7580177567392</v>
       </c>
       <c r="F15">
-        <v>0.2757998163700481</v>
+        <v>0.2757996144084673</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2236,13 +2236,13 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>-110.0029129863685</v>
+        <v>-110.0028256249187</v>
       </c>
       <c r="E16">
-        <v>112.7130610828596</v>
+        <v>112.7129099135157</v>
       </c>
       <c r="F16">
-        <v>2.710148096491172</v>
+        <v>2.710084288597092</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2256,13 +2256,13 @@
         <v>22</v>
       </c>
       <c r="D17">
-        <v>140.4071367152556</v>
+        <v>140.4072067707107</v>
       </c>
       <c r="E17">
-        <v>-137.991920210417</v>
+        <v>-137.991987839173</v>
       </c>
       <c r="F17">
-        <v>2.415216504838624</v>
+        <v>2.41521893153771</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2276,13 +2276,13 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>10.93763466232599</v>
+        <v>10.93761504779571</v>
       </c>
       <c r="E18">
-        <v>-10.87700970800601</v>
+        <v>-10.87699104974649</v>
       </c>
       <c r="F18">
-        <v>0.06062495431997938</v>
+        <v>0.06062399804922375</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2296,13 +2296,13 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>55.52474588094621</v>
+        <v>55.52480781459366</v>
       </c>
       <c r="E19">
-        <v>-55.43112360050198</v>
+        <v>-55.43118392294721</v>
       </c>
       <c r="F19">
-        <v>0.09362228044423881</v>
+        <v>0.0936238916464438</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2316,13 +2316,13 @@
         <v>9</v>
       </c>
       <c r="D20">
-        <v>38.73237685987056</v>
+        <v>38.732361113112</v>
       </c>
       <c r="E20">
-        <v>-38.10817160533062</v>
+        <v>-38.10815641637365</v>
       </c>
       <c r="F20">
-        <v>0.624205254539939</v>
+        <v>0.6242046967383508</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2336,13 +2336,13 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>223.2606148992922</v>
+        <v>223.2605150646424</v>
       </c>
       <c r="E21">
-        <v>-219.6602166131318</v>
+        <v>-219.6601124552858</v>
       </c>
       <c r="F21">
-        <v>3.600398286160456</v>
+        <v>3.600402609356612</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2356,13 +2356,13 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <v>88.5784283000702</v>
+        <v>88.57846656106835</v>
       </c>
       <c r="E22">
-        <v>-87.54070799046096</v>
+        <v>-87.54074556523743</v>
       </c>
       <c r="F22">
-        <v>1.037720309609247</v>
+        <v>1.037720995830915</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2376,13 +2376,13 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>-37.47756857632417</v>
+        <v>-37.47755148600039</v>
       </c>
       <c r="E23">
-        <v>37.97977196480572</v>
+        <v>37.97975438722105</v>
       </c>
       <c r="F23">
-        <v>0.5022033884815424</v>
+        <v>0.5022029012206608</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2396,13 +2396,13 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>-12.58051977879781</v>
+        <v>-12.58046682726585</v>
       </c>
       <c r="E24">
-        <v>12.63048672482128</v>
+        <v>12.63044818795772</v>
       </c>
       <c r="F24">
-        <v>0.04996694602347196</v>
+        <v>0.04998136069186976</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2416,13 +2416,13 @@
         <v>20</v>
       </c>
       <c r="D25">
-        <v>36.75803879329603</v>
+        <v>36.75801775673923</v>
       </c>
       <c r="E25">
-        <v>-36.68039205606517</v>
+        <v>-36.68037120899265</v>
       </c>
       <c r="F25">
-        <v>0.07764673723086313</v>
+        <v>0.07764654774657376</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2436,13 +2436,13 @@
         <v>23</v>
       </c>
       <c r="D26">
-        <v>101.0338386096659</v>
+        <v>101.0338173711477</v>
       </c>
       <c r="E26">
-        <v>-100.7580387932958</v>
+        <v>-100.7580177567392</v>
       </c>
       <c r="F26">
-        <v>0.2757998163700481</v>
+        <v>0.2757996144084673</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2456,13 +2456,13 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>-61.4580981947222</v>
+        <v>-61.45811387440724</v>
       </c>
       <c r="E27">
-        <v>62.2465229831861</v>
+        <v>62.24653886545782</v>
       </c>
       <c r="F27">
-        <v>0.788424788463904</v>
+        <v>0.7884249910505847</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2476,13 +2476,13 @@
         <v>19</v>
       </c>
       <c r="D28">
-        <v>-107.6392158878692</v>
+        <v>-107.6392575820147</v>
       </c>
       <c r="E28">
-        <v>107.9662036834029</v>
+        <v>107.9662455406568</v>
       </c>
       <c r="F28">
-        <v>0.326987795533662</v>
+        <v>0.326987958642122</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2496,13 +2496,13 @@
         <v>10</v>
       </c>
       <c r="D29">
-        <v>20.24137494942709</v>
+        <v>20.2413939355046</v>
       </c>
       <c r="E29">
-        <v>-19.95743410795746</v>
+        <v>-19.95745172307686</v>
       </c>
       <c r="F29">
-        <v>0.2839408414696321</v>
+        <v>0.283942212427743</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2516,13 +2516,13 @@
         <v>13</v>
       </c>
       <c r="D30">
-        <v>59.90294190801899</v>
+        <v>59.90295271036039</v>
       </c>
       <c r="E30">
-        <v>-59.66697230505906</v>
+        <v>-59.66698325979712</v>
       </c>
       <c r="F30">
-        <v>0.235969602959929</v>
+        <v>0.235969450563267</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2536,13 +2536,13 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <v>9.575029256403427</v>
+        <v>9.575011987546883</v>
       </c>
       <c r="E31">
-        <v>-9.541901805277332</v>
+        <v>-9.541886125592757</v>
       </c>
       <c r="F31">
-        <v>0.03312745112609566</v>
+        <v>0.03312586195412526</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2556,13 +2556,13 @@
         <v>20</v>
       </c>
       <c r="D32">
-        <v>36.75803879329603</v>
+        <v>36.75801775673923</v>
       </c>
       <c r="E32">
-        <v>-36.68039205606517</v>
+        <v>-36.68037120899265</v>
       </c>
       <c r="F32">
-        <v>0.07764673723086313</v>
+        <v>0.07764654774657376</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2576,13 +2576,13 @@
         <v>21</v>
       </c>
       <c r="D33">
-        <v>223.2606148992922</v>
+        <v>223.2605150646424</v>
       </c>
       <c r="E33">
-        <v>-219.6602166131318</v>
+        <v>-219.6601124552858</v>
       </c>
       <c r="F33">
-        <v>3.600398286160456</v>
+        <v>3.600402609356612</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2596,13 +2596,13 @@
         <v>21</v>
       </c>
       <c r="D34">
-        <v>55.52474588094621</v>
+        <v>55.52480781459366</v>
       </c>
       <c r="E34">
-        <v>-55.43112360050198</v>
+        <v>-55.43118392294721</v>
       </c>
       <c r="F34">
-        <v>0.09362228044423881</v>
+        <v>0.0936238916464438</v>
       </c>
     </row>
   </sheetData>
@@ -2652,13 +2652,13 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>103.7513389609836</v>
+        <v>103.751360831875</v>
       </c>
       <c r="E2">
-        <v>-103.498507010708</v>
+        <v>-103.498528788644</v>
       </c>
       <c r="F2">
-        <v>0.2528319502756116</v>
+        <v>0.2528320432310105</v>
       </c>
       <c r="G2">
         <v>1.03</v>
@@ -2675,13 +2675,13 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>119.1440568789012</v>
+        <v>119.1440728202233</v>
       </c>
       <c r="E3">
-        <v>-118.8061478996674</v>
+        <v>-118.8061637582331</v>
       </c>
       <c r="F3">
-        <v>0.3379089792338252</v>
+        <v>0.3379090619902048</v>
       </c>
       <c r="G3">
         <v>1.03</v>
@@ -2698,13 +2698,13 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>149.1123995042622</v>
+        <v>149.1124214502258</v>
       </c>
       <c r="E4">
-        <v>-148.5873477006254</v>
+        <v>-148.5873693891832</v>
       </c>
       <c r="F4">
-        <v>0.525051803636889</v>
+        <v>0.5250520610425191</v>
       </c>
       <c r="G4">
         <v>1.02</v>
@@ -2721,16 +2721,16 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>220.9043010387276</v>
+        <v>220.9042426163613</v>
       </c>
       <c r="E5">
-        <v>-219.607915869027</v>
+        <v>-219.6078593919854</v>
       </c>
       <c r="F5">
-        <v>1.296385169700631</v>
+        <v>1.296383224375885</v>
       </c>
       <c r="G5">
-        <v>1.100000010651292</v>
+        <v>1.100000010873496</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2744,13 +2744,13 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>165.4281648001037</v>
+        <v>165.4281831740263</v>
       </c>
       <c r="E6">
-        <v>-164.8074848052748</v>
+        <v>-164.8075030949366</v>
       </c>
       <c r="F6">
-        <v>0.6206799948288211</v>
+        <v>0.6206800790897082</v>
       </c>
       <c r="G6">
         <v>1.02</v>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
   <si>
     <t>Conventional generation (MW)</t>
   </si>
@@ -40,16 +40,13 @@
     <t>angle(degs)</t>
   </si>
   <si>
-    <t>Voltage(p.u.)</t>
-  </si>
-  <si>
     <t>busname</t>
   </si>
   <si>
     <t>PD(MW)</t>
   </si>
   <si>
-    <t>QD(MVar)</t>
+    <t>alpha</t>
   </si>
   <si>
     <t>D1</t>
@@ -103,13 +100,13 @@
     <t>D9</t>
   </si>
   <si>
-    <t>PG(MW)</t>
+    <t>PGLB(MW)</t>
   </si>
   <si>
     <t>pG(MW)</t>
   </si>
   <si>
-    <t>qG(MVar)</t>
+    <t>PGUB(MW)</t>
   </si>
   <si>
     <t>G3</t>
@@ -217,13 +214,7 @@
     <t>to_busname</t>
   </si>
   <si>
-    <t>pLto(MW)</t>
-  </si>
-  <si>
-    <t>pLfrom(MW)</t>
-  </si>
-  <si>
-    <t>loss(MW)</t>
+    <t>pL(MW)</t>
   </si>
   <si>
     <t>L16-1223</t>
@@ -325,13 +316,7 @@
     <t>L28-1821</t>
   </si>
   <si>
-    <t>pLTto(MW)</t>
-  </si>
-  <si>
-    <t>pLTfrom(MW)</t>
-  </si>
-  <si>
-    <t>tap</t>
+    <t>pLT(MW)</t>
   </si>
   <si>
     <t>T2-911</t>
@@ -726,7 +711,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>2904.199958328551</v>
+        <v>2850.000028498455</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -735,7 +720,7 @@
         <v>2850</v>
       </c>
       <c r="D2">
-        <v>51.70103124997319</v>
+        <v>60998.39058603409</v>
       </c>
     </row>
   </sheetData>
@@ -745,285 +730,210 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-6.954336164209468</v>
-      </c>
-      <c r="C2">
-        <v>1.041171740726286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-132.6133918265722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-6.987038895179992</v>
-      </c>
-      <c r="C3">
-        <v>1.035000000900278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>-132.7051973714957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-5.791314030672015</v>
-      </c>
-      <c r="C4">
-        <v>1.049999989553545</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-132.1945556026775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-9.380426072626054</v>
-      </c>
-      <c r="C5">
-        <v>1.006629803587966</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-135.9656598392043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-9.703135100475894</v>
-      </c>
-      <c r="C6">
-        <v>1.023816162635372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-135.902402413119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-12.18984785700471</v>
-      </c>
-      <c r="C7">
-        <v>1.015735577424695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-138.6031151469106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-7.0138043603139</v>
-      </c>
-      <c r="C8">
-        <v>1.025000000861727</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-139.267904099149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-10.7918773526312</v>
-      </c>
-      <c r="C9">
-        <v>0.996994344779235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-140.8940238546722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-7.255529263787974</v>
-      </c>
-      <c r="C10">
-        <v>1.016761895503189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-134.2374831485872</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-9.343244474360933</v>
-      </c>
-      <c r="C11">
-        <v>1.032710967342917</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-135.7472768271178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-2.175645845717776</v>
-      </c>
-      <c r="C12">
-        <v>0.993463264623684</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-1.939599528520019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-1.519622106706469</v>
-      </c>
-      <c r="C13">
-        <v>1.007024443039843</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-2.876568004860241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.922255097482938e-22</v>
-      </c>
-      <c r="C14">
-        <v>1.020000000687559</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.116497042707441</v>
-      </c>
-      <c r="C15">
-        <v>0.9800000029333509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>1.897675616928149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>10.47761840216531</v>
-      </c>
-      <c r="C16">
-        <v>1.09578684298166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>10.61277787743842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>9.901490906490791</v>
-      </c>
-      <c r="C17">
-        <v>1.03552312332949</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>9.792611641984362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>14.21567334744549</v>
-      </c>
-      <c r="C18">
-        <v>1.044723716059756</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>14.55364087426504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>15.53637998996704</v>
-      </c>
-      <c r="C19">
-        <v>1.049999999808577</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>16.03803819224997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>8.557752832219609</v>
-      </c>
-      <c r="C20">
-        <v>1.033921973285685</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>8.411462625922606</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>9.284541911580224</v>
-      </c>
-      <c r="C21">
-        <v>1.042247791338515</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>9.280986778879916</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>16.29525361727388</v>
-      </c>
-      <c r="C22">
-        <v>1.050000356255982</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>16.87583811254465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>21.98422090266471</v>
-      </c>
-      <c r="C23">
-        <v>1.050000000112305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>23.05560240383218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>10.38975485847643</v>
-      </c>
-      <c r="C24">
-        <v>1.050000000393651</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>10.54732954440127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4.964784838117613</v>
-      </c>
-      <c r="C25">
-        <v>1.027050270768929</v>
+        <v>4.266290769922725</v>
       </c>
     </row>
   </sheetData>
@@ -1044,18 +954,18 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1064,12 +974,12 @@
         <v>108</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -1078,12 +988,12 @@
         <v>195</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -1092,12 +1002,12 @@
         <v>265</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>14</v>
@@ -1106,12 +1016,12 @@
         <v>194</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>15</v>
@@ -1120,12 +1030,12 @@
         <v>317</v>
       </c>
       <c r="D6">
-        <v>64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>16</v>
@@ -1134,12 +1044,12 @@
         <v>100</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -1148,12 +1058,12 @@
         <v>333</v>
       </c>
       <c r="D8">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>19</v>
@@ -1162,12 +1072,12 @@
         <v>181</v>
       </c>
       <c r="D9">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1176,12 +1086,12 @@
         <v>97</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -1190,12 +1100,12 @@
         <v>128</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -1204,12 +1114,12 @@
         <v>180</v>
       </c>
       <c r="D12">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -1218,12 +1128,12 @@
         <v>74</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -1232,12 +1142,12 @@
         <v>71</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -1246,12 +1156,12 @@
         <v>136</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -1260,12 +1170,12 @@
         <v>125</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -1274,12 +1184,12 @@
         <v>171</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -1288,7 +1198,7 @@
         <v>175</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1309,16 +1219,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1326,16 +1236,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2">
-        <v>76</v>
+        <v>15.2</v>
       </c>
       <c r="D2">
         <v>76</v>
       </c>
       <c r="E2">
-        <v>10.469</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1343,16 +1253,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>10.469</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1360,16 +1270,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>10.469</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1377,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>76</v>
+        <v>15.2</v>
       </c>
       <c r="D5">
         <v>76</v>
       </c>
       <c r="E5">
-        <v>10.469</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1394,16 +1304,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>-9.765000000000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1411,16 +1321,16 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>76</v>
+        <v>15.2</v>
       </c>
       <c r="D7">
         <v>76</v>
       </c>
       <c r="E7">
-        <v>-9.765000000000001</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1428,16 +1338,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>-9.765000000000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1445,16 +1355,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9">
-        <v>76</v>
+        <v>15.2</v>
       </c>
       <c r="D9">
         <v>76</v>
       </c>
       <c r="E9">
-        <v>-9.765000000000001</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1462,16 +1372,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>80</v>
+        <v>57.074</v>
       </c>
       <c r="E10">
-        <v>14.906</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1479,16 +1389,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>80</v>
+        <v>57.074</v>
       </c>
       <c r="E11">
-        <v>14.906</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1496,16 +1406,16 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>80</v>
+        <v>57.074</v>
       </c>
       <c r="E12">
-        <v>14.906</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1513,16 +1423,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13">
-        <v>95.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>76.259</v>
       </c>
       <c r="E13">
-        <v>38.554</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1530,16 +1440,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14">
-        <v>95.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>95.09999999999999</v>
+        <v>76.259</v>
       </c>
       <c r="E14">
-        <v>38.554</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1547,16 +1457,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15">
-        <v>95.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="D15">
-        <v>95.09999999999999</v>
+        <v>76.259</v>
       </c>
       <c r="E15">
-        <v>38.554</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1564,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1573,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>-85.18899999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1581,16 +1491,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17">
+        <v>2.4</v>
+      </c>
+      <c r="D17">
+        <v>2.4</v>
+      </c>
+      <c r="E17">
         <v>12</v>
-      </c>
-      <c r="D17">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>137.037</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1598,16 +1508,16 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18">
+        <v>2.4</v>
+      </c>
+      <c r="D18">
+        <v>2.4</v>
+      </c>
+      <c r="E18">
         <v>12</v>
-      </c>
-      <c r="D18">
-        <v>12</v>
-      </c>
-      <c r="E18">
-        <v>137.037</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1615,16 +1525,16 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19">
+        <v>2.4</v>
+      </c>
+      <c r="D19">
+        <v>2.4</v>
+      </c>
+      <c r="E19">
         <v>12</v>
-      </c>
-      <c r="D19">
-        <v>12</v>
-      </c>
-      <c r="E19">
-        <v>137.037</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1632,16 +1542,16 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20">
+        <v>2.4</v>
+      </c>
+      <c r="D20">
+        <v>2.4</v>
+      </c>
+      <c r="E20">
         <v>12</v>
-      </c>
-      <c r="D20">
-        <v>12</v>
-      </c>
-      <c r="E20">
-        <v>137.037</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1649,16 +1559,16 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21">
-        <v>155</v>
+        <v>54.3</v>
       </c>
       <c r="D21">
         <v>155</v>
       </c>
       <c r="E21">
-        <v>137.037</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1666,16 +1576,16 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22">
+        <v>2.4</v>
+      </c>
+      <c r="D22">
+        <v>2.4</v>
+      </c>
+      <c r="E22">
         <v>12</v>
-      </c>
-      <c r="D22">
-        <v>12</v>
-      </c>
-      <c r="E22">
-        <v>137.037</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1683,16 +1593,16 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>155</v>
+        <v>54.3</v>
       </c>
       <c r="D23">
         <v>155</v>
       </c>
       <c r="E23">
-        <v>-204.612</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1700,16 +1610,16 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <v>400</v>
       </c>
       <c r="E24">
-        <v>93.45399999999999</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1717,16 +1627,16 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D25">
         <v>400</v>
       </c>
       <c r="E25">
-        <v>-239.835</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1734,16 +1644,16 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>50</v>
       </c>
       <c r="E26">
-        <v>-5.949</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1751,16 +1661,16 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>50</v>
       </c>
       <c r="E27">
-        <v>-5.949</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1768,16 +1678,16 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>50</v>
       </c>
       <c r="E28">
-        <v>-5.949</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1785,16 +1695,16 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>50</v>
       </c>
       <c r="E29">
-        <v>-5.949</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1802,16 +1712,16 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>50</v>
       </c>
       <c r="E30">
-        <v>-5.949</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1819,16 +1729,16 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D31">
         <v>50</v>
       </c>
       <c r="E31">
-        <v>-5.949</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1836,16 +1746,16 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32">
-        <v>155</v>
+        <v>54.3</v>
       </c>
       <c r="D32">
         <v>155</v>
       </c>
       <c r="E32">
-        <v>31.016</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1853,16 +1763,16 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="D33">
         <v>350</v>
       </c>
       <c r="E33">
-        <v>31.016</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1870,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34">
-        <v>155</v>
+        <v>54.3</v>
       </c>
       <c r="D34">
         <v>155</v>
       </c>
       <c r="E34">
-        <v>31.016</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1900,16 +1810,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1919,35 +1829,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>68</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -1956,18 +1860,12 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>231.0974088300875</v>
-      </c>
-      <c r="E2">
-        <v>-224.9052727344524</v>
-      </c>
-      <c r="F2">
-        <v>6.192136095635004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-242.5374851810303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1976,18 +1874,12 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>-48.45925443476258</v>
-      </c>
-      <c r="E3">
-        <v>49.60070844371397</v>
-      </c>
-      <c r="F3">
-        <v>1.141454008951392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>53.61358551709535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -1996,18 +1888,12 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>177.8623638468168</v>
-      </c>
-      <c r="E4">
-        <v>-177.3404277294767</v>
-      </c>
-      <c r="F4">
-        <v>0.5219361173400383</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-179.9140319902351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <v>21</v>
@@ -2016,18 +1902,12 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>159.5927872348254</v>
-      </c>
-      <c r="E5">
-        <v>-157.5706497575499</v>
-      </c>
-      <c r="F5">
-        <v>2.022137477275576</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>-159.0814659002029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -2036,18 +1916,12 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>369.3602581928429</v>
-      </c>
-      <c r="E6">
-        <v>-362.277622993714</v>
-      </c>
-      <c r="F6">
-        <v>7.082635199128884</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-354.2226937566877</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -2056,18 +1930,12 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>-112.9343918605495</v>
-      </c>
-      <c r="E7">
-        <v>114.9999970027528</v>
-      </c>
-      <c r="F7">
-        <v>2.065605142203308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>46.22336118165342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -2076,18 +1944,12 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>-28.30292709544883</v>
-      </c>
-      <c r="E8">
-        <v>28.67024434418971</v>
-      </c>
-      <c r="F8">
-        <v>0.3673172487408782</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>29.96286727379901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -2096,18 +1958,12 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>315.3324155686497</v>
-      </c>
-      <c r="E9">
-        <v>-312.323679657658</v>
-      </c>
-      <c r="F9">
-        <v>3.008735910991645</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-320.8325709919405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -2116,18 +1972,12 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>36.87525852921386</v>
-      </c>
-      <c r="E10">
-        <v>-36.52244851399961</v>
-      </c>
-      <c r="F10">
-        <v>0.3528100152142499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-29.08618448165901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -2136,18 +1986,12 @@
         <v>24</v>
       </c>
       <c r="D11">
-        <v>-220.9042426163613</v>
-      </c>
-      <c r="E11">
-        <v>224.6073084525962</v>
-      </c>
-      <c r="F11">
-        <v>3.703065836234876</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>213.4240769968072</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2156,18 +2000,12 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>168.2776219955612</v>
-      </c>
-      <c r="E12">
-        <v>-166.5624347190722</v>
-      </c>
-      <c r="F12">
-        <v>1.715187276489027</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-160.2226928064126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -2176,18 +2014,12 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <v>86.87483807478857</v>
-      </c>
-      <c r="E13">
-        <v>-86.30134756302856</v>
-      </c>
-      <c r="F13">
-        <v>0.5734905117600109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-71.11848307296684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2196,18 +2028,12 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>226.8349498303853</v>
-      </c>
-      <c r="E14">
-        <v>-221.5777937823791</v>
-      </c>
-      <c r="F14">
-        <v>5.257156048006184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-212.8157547310765</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B15">
         <v>20</v>
@@ -2216,18 +2042,12 @@
         <v>23</v>
       </c>
       <c r="D15">
-        <v>101.0338173711477</v>
-      </c>
-      <c r="E15">
-        <v>-100.7580177567392</v>
-      </c>
-      <c r="F15">
-        <v>0.2757996144084673</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-102.3233829498148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2236,18 +2056,12 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>-110.0028256249187</v>
-      </c>
-      <c r="E16">
-        <v>112.7129099135157</v>
-      </c>
-      <c r="F16">
-        <v>2.710084288597092</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>82.74335966683338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -2256,18 +2070,12 @@
         <v>22</v>
       </c>
       <c r="D17">
-        <v>140.4072067707107</v>
-      </c>
-      <c r="E17">
-        <v>-137.991987839173</v>
-      </c>
-      <c r="F17">
-        <v>2.41521893153771</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>-140.9185390017054</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2276,18 +2084,12 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>10.93761504779571</v>
-      </c>
-      <c r="E18">
-        <v>-10.87699104974649</v>
-      </c>
-      <c r="F18">
-        <v>0.06062399804922375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>-3.46120792309914</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -2296,18 +2098,12 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>55.52480781459366</v>
-      </c>
-      <c r="E19">
-        <v>-55.43118392294721</v>
-      </c>
-      <c r="F19">
-        <v>0.0936238916464438</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-56.4570157609019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -2316,18 +2112,12 @@
         <v>9</v>
       </c>
       <c r="D20">
-        <v>38.732361113112</v>
-      </c>
-      <c r="E20">
-        <v>-38.10815641637365</v>
-      </c>
-      <c r="F20">
-        <v>0.6242046967383508</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-70.36859607155991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B21">
         <v>15</v>
@@ -2336,18 +2126,12 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>223.2605150646424</v>
-      </c>
-      <c r="E21">
-        <v>-219.6601124552858</v>
-      </c>
-      <c r="F21">
-        <v>3.600402609356612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-223.0837190883697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -2356,18 +2140,12 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <v>88.57846656106835</v>
-      </c>
-      <c r="E22">
-        <v>-87.54074556523743</v>
-      </c>
-      <c r="F22">
-        <v>1.037720995830915</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-82.38641584281369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -2376,18 +2154,12 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>-37.47755148600039</v>
-      </c>
-      <c r="E23">
-        <v>37.97975438722105</v>
-      </c>
-      <c r="F23">
-        <v>0.5022029012206608</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>44.91381625825002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2396,18 +2168,12 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>-12.58046682726585</v>
-      </c>
-      <c r="E24">
-        <v>12.63044818795772</v>
-      </c>
-      <c r="F24">
-        <v>0.04998136069186976</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>11.52740309714622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B25">
         <v>19</v>
@@ -2416,18 +2182,12 @@
         <v>20</v>
       </c>
       <c r="D25">
-        <v>36.75801775673923</v>
-      </c>
-      <c r="E25">
-        <v>-36.68037120899265</v>
-      </c>
-      <c r="F25">
-        <v>0.07764654774657376</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-38.32338230986029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B26">
         <v>20</v>
@@ -2436,18 +2196,12 @@
         <v>23</v>
       </c>
       <c r="D26">
-        <v>101.0338173711477</v>
-      </c>
-      <c r="E26">
-        <v>-100.7580177567392</v>
-      </c>
-      <c r="F26">
-        <v>0.2757996144084673</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-102.3233829498148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2456,18 +2210,12 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>-61.45811387440724</v>
-      </c>
-      <c r="E27">
-        <v>62.24653886545782</v>
-      </c>
-      <c r="F27">
-        <v>0.7884249910505847</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>67.93380339415208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -2476,18 +2224,12 @@
         <v>19</v>
       </c>
       <c r="D28">
-        <v>-107.6392575820147</v>
-      </c>
-      <c r="E28">
-        <v>107.9662455406568</v>
-      </c>
-      <c r="F28">
-        <v>0.326987958642122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>104.3532371901885</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -2496,18 +2238,12 @@
         <v>10</v>
       </c>
       <c r="D29">
-        <v>20.2413939355046</v>
-      </c>
-      <c r="E29">
-        <v>-19.95745172307686</v>
-      </c>
-      <c r="F29">
-        <v>0.283942212427743</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-54.40804445669571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B30">
         <v>12</v>
@@ -2516,18 +2252,12 @@
         <v>13</v>
       </c>
       <c r="D30">
-        <v>59.90295271036039</v>
-      </c>
-      <c r="E30">
-        <v>-59.66698325979712</v>
-      </c>
-      <c r="F30">
-        <v>0.235969450563267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-105.4739135340946</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -2536,18 +2266,12 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <v>9.575011987546883</v>
-      </c>
-      <c r="E31">
-        <v>-9.541886125592757</v>
-      </c>
-      <c r="F31">
-        <v>0.03312586195412526</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-3.066197315756954</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B32">
         <v>19</v>
@@ -2556,18 +2280,12 @@
         <v>20</v>
       </c>
       <c r="D32">
-        <v>36.75801775673923</v>
-      </c>
-      <c r="E32">
-        <v>-36.68037120899265</v>
-      </c>
-      <c r="F32">
-        <v>0.07764654774657376</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-38.32338230986026</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2576,18 +2294,12 @@
         <v>21</v>
       </c>
       <c r="D33">
-        <v>223.2605150646424</v>
-      </c>
-      <c r="E33">
-        <v>-219.6601124552858</v>
-      </c>
-      <c r="F33">
-        <v>3.600402609356612</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-223.0837190883697</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B34">
         <v>18</v>
@@ -2596,13 +2308,7 @@
         <v>21</v>
       </c>
       <c r="D34">
-        <v>55.52480781459366</v>
-      </c>
-      <c r="E34">
-        <v>-55.43118392294721</v>
-      </c>
-      <c r="F34">
-        <v>0.0936238916464438</v>
+        <v>-56.4570157609019</v>
       </c>
     </row>
   </sheetData>
@@ -2612,38 +2318,29 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -2652,21 +2349,12 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>103.751360831875</v>
-      </c>
-      <c r="E2">
-        <v>-103.498528788644</v>
-      </c>
-      <c r="F2">
-        <v>0.2528320432310105</v>
-      </c>
-      <c r="G2">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-89.20351550662039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -2675,21 +2363,12 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>119.1440728202233</v>
-      </c>
-      <c r="E3">
-        <v>-118.8061637582331</v>
-      </c>
-      <c r="F3">
-        <v>0.3379090619902048</v>
-      </c>
-      <c r="G3">
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-155.2883995227085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -2698,21 +2377,12 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>149.1124214502258</v>
-      </c>
-      <c r="E4">
-        <v>-148.5873693891832</v>
-      </c>
-      <c r="F4">
-        <v>0.5250520610425191</v>
-      </c>
-      <c r="G4">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-142.137660372759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2721,21 +2391,12 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>220.9042426163613</v>
-      </c>
-      <c r="E5">
-        <v>-219.6078593919854</v>
-      </c>
-      <c r="F5">
-        <v>1.296383224375885</v>
-      </c>
-      <c r="G5">
-        <v>1.100000010873496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>-213.4240769968072</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -2744,16 +2405,7 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>165.4281831740263</v>
-      </c>
-      <c r="E6">
-        <v>-164.8075030949366</v>
-      </c>
-      <c r="F6">
-        <v>0.6206800790897082</v>
-      </c>
-      <c r="G6">
-        <v>1.02</v>
+        <v>-192.7229991924163</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="113">
   <si>
     <t>Conventional generation (MW)</t>
   </si>
@@ -40,12 +40,18 @@
     <t>angle(degs)</t>
   </si>
   <si>
+    <t>Voltage(p.u.)</t>
+  </si>
+  <si>
     <t>busname</t>
   </si>
   <si>
     <t>PD(MW)</t>
   </si>
   <si>
+    <t>QD(MVar)</t>
+  </si>
+  <si>
     <t>alpha</t>
   </si>
   <si>
@@ -103,12 +109,24 @@
     <t>PGLB(MW)</t>
   </si>
   <si>
+    <t>PG(MW)</t>
+  </si>
+  <si>
     <t>pG(MW)</t>
   </si>
   <si>
     <t>PGUB(MW)</t>
   </si>
   <si>
+    <t>QGLB(MVar)</t>
+  </si>
+  <si>
+    <t>qG(MVar)</t>
+  </si>
+  <si>
+    <t>QGUB(MVar)</t>
+  </si>
+  <si>
     <t>G3</t>
   </si>
   <si>
@@ -214,7 +232,13 @@
     <t>to_busname</t>
   </si>
   <si>
-    <t>pL(MW)</t>
+    <t>pLto(MW)</t>
+  </si>
+  <si>
+    <t>pLfrom(MW)</t>
+  </si>
+  <si>
+    <t>loss(MW)</t>
   </si>
   <si>
     <t>L16-1223</t>
@@ -316,7 +340,10 @@
     <t>L28-1821</t>
   </si>
   <si>
-    <t>pLT(MW)</t>
+    <t>pLTto(MW)</t>
+  </si>
+  <si>
+    <t>pLTfrom(MW)</t>
   </si>
   <si>
     <t>T2-911</t>
@@ -711,7 +738,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>2850.000028498455</v>
+        <v>2896.357344121534</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -720,7 +747,7 @@
         <v>2850</v>
       </c>
       <c r="D2">
-        <v>60998.39058603409</v>
+        <v>3805.990532205099</v>
       </c>
     </row>
   </sheetData>
@@ -730,210 +757,285 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-132.6133918265722</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-6.466152699262157</v>
+      </c>
+      <c r="C2">
+        <v>1.049999982605085</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-132.7051973714957</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>-6.539232816460347</v>
+      </c>
+      <c r="C3">
+        <v>1.049999979600153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-132.1945556026775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-6.03888140370221</v>
+      </c>
+      <c r="C4">
+        <v>1.024290155903114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-135.9656598392043</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>-9.299110087850506</v>
+      </c>
+      <c r="C5">
+        <v>1.02461465963264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-135.902402413119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-9.423394686507905</v>
+      </c>
+      <c r="C6">
+        <v>1.036874229239571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-138.6031151469106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-11.98517030355955</v>
+      </c>
+      <c r="C7">
+        <v>1.033109845798978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-139.267904099149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-9.178634767023798</v>
+      </c>
+      <c r="C8">
+        <v>1.049558580161324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-140.8940238546722</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-11.97422891942581</v>
+      </c>
+      <c r="C9">
+        <v>1.019821468140645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-134.2374831485872</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-7.616014636592167</v>
+      </c>
+      <c r="C10">
+        <v>1.036522608195682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-135.7472768271178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-9.350744214096236</v>
+      </c>
+      <c r="C11">
+        <v>1.050000003759179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-1.939599528520019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-2.489563043343162</v>
+      </c>
+      <c r="C12">
+        <v>1.029169240451002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-2.876568004860241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-1.779390337709839</v>
+      </c>
+      <c r="C13">
+        <v>1.02382200581327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-1.084761611808807e-27</v>
+      </c>
+      <c r="C14">
+        <v>1.041088371710202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.897675616928149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>1.100610516668815</v>
+      </c>
+      <c r="C15">
+        <v>1.045304584495609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>10.61277787743842</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>9.40082914351291</v>
+      </c>
+      <c r="C16">
+        <v>1.041756176226173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>9.792611641984362</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>8.608974567893155</v>
+      </c>
+      <c r="C17">
+        <v>1.045677551223554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>14.55364087426504</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>12.9603964889255</v>
+      </c>
+      <c r="C18">
+        <v>1.048020674380289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>16.03803819224997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>14.31984170322459</v>
+      </c>
+      <c r="C19">
+        <v>1.049999996444465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>8.411462625922606</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>7.55353488691155</v>
+      </c>
+      <c r="C20">
+        <v>1.039754074509631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>9.280986778879916</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>8.504587797921708</v>
+      </c>
+      <c r="C21">
+        <v>1.044261765460458</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>16.87583811254465</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>15.09713696277908</v>
+      </c>
+      <c r="C22">
+        <v>1.050000005527165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>23.05560240383218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>20.76316616302879</v>
+      </c>
+      <c r="C23">
+        <v>1.050000002059877</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>10.54732954440127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>9.731913424459648</v>
+      </c>
+      <c r="C24">
+        <v>1.050000005217705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4.266290769922725</v>
+        <v>3.781897527061615</v>
+      </c>
+      <c r="C25">
+        <v>1.005838071555074</v>
       </c>
     </row>
   </sheetData>
@@ -943,272 +1045,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>108</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>195</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>265</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>194</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>317</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>333</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>181</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>97</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>128</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>180</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>74</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>71</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>136</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>125</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>171</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>175</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1219,24 +1056,355 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>108</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>195</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>265</v>
+      </c>
+      <c r="D4">
+        <v>54</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>194</v>
+      </c>
+      <c r="D5">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>317</v>
+      </c>
+      <c r="D6">
+        <v>64</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>333</v>
+      </c>
+      <c r="D8">
+        <v>68</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>181</v>
+      </c>
+      <c r="D9">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>97</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>128</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>180</v>
+      </c>
+      <c r="D12">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>74</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>71</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
         <v>6</v>
       </c>
+      <c r="C15">
+        <v>136</v>
+      </c>
+      <c r="D15">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>125</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>171</v>
+      </c>
+      <c r="D17">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>175</v>
+      </c>
+      <c r="D18">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>15.2</v>
@@ -1247,13 +1415,25 @@
       <c r="E2">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>76</v>
+      </c>
+      <c r="G2">
+        <v>-25</v>
+      </c>
+      <c r="H2">
+        <v>-2.778</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -1262,15 +1442,27 @@
         <v>16</v>
       </c>
       <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.819</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -1279,15 +1471,27 @@
         <v>16</v>
       </c>
       <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.819</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>15.2</v>
@@ -1298,13 +1502,25 @@
       <c r="E5">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>76</v>
+      </c>
+      <c r="G5">
+        <v>-25</v>
+      </c>
+      <c r="H5">
+        <v>-2.778</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -1313,15 +1529,27 @@
         <v>16</v>
       </c>
       <c r="E6">
+        <v>16</v>
+      </c>
+      <c r="F6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.751</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>15.2</v>
@@ -1332,13 +1560,25 @@
       <c r="E7">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>76</v>
+      </c>
+      <c r="G7">
+        <v>-25</v>
+      </c>
+      <c r="H7">
+        <v>-4.543</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>16</v>
@@ -1347,15 +1587,27 @@
         <v>16</v>
       </c>
       <c r="E8">
+        <v>16</v>
+      </c>
+      <c r="F8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.751</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>15.2</v>
@@ -1366,115 +1618,199 @@
       <c r="E9">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>76</v>
+      </c>
+      <c r="G9">
+        <v>-25</v>
+      </c>
+      <c r="H9">
+        <v>-4.543</v>
+      </c>
+      <c r="I9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>25</v>
       </c>
       <c r="D10">
-        <v>57.074</v>
+        <v>57.054</v>
       </c>
       <c r="E10">
+        <v>72.50700000000001</v>
+      </c>
+      <c r="F10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>17.678</v>
+      </c>
+      <c r="I10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C11">
         <v>25</v>
       </c>
       <c r="D11">
-        <v>57.074</v>
+        <v>57.054</v>
       </c>
       <c r="E11">
+        <v>72.50700000000001</v>
+      </c>
+      <c r="F11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>17.678</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>25</v>
       </c>
       <c r="D12">
-        <v>57.074</v>
+        <v>57.054</v>
       </c>
       <c r="E12">
+        <v>72.50700000000001</v>
+      </c>
+      <c r="F12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>17.678</v>
+      </c>
+      <c r="I12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>69</v>
       </c>
       <c r="D13">
-        <v>76.259</v>
+        <v>76.279</v>
       </c>
       <c r="E13">
+        <v>76.279</v>
+      </c>
+      <c r="F13">
         <v>197</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>37.496</v>
+      </c>
+      <c r="I13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>69</v>
       </c>
       <c r="D14">
-        <v>76.259</v>
+        <v>76.279</v>
       </c>
       <c r="E14">
+        <v>76.279</v>
+      </c>
+      <c r="F14">
         <v>197</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>37.496</v>
+      </c>
+      <c r="I14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>69</v>
       </c>
       <c r="D15">
-        <v>76.259</v>
+        <v>76.279</v>
       </c>
       <c r="E15">
+        <v>76.279</v>
+      </c>
+      <c r="F15">
         <v>197</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>37.496</v>
+      </c>
+      <c r="I15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1485,13 +1821,25 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>-50</v>
+      </c>
+      <c r="H16">
+        <v>123.049</v>
+      </c>
+      <c r="I16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <v>2.4</v>
@@ -1500,15 +1848,27 @@
         <v>2.4</v>
       </c>
       <c r="E17">
+        <v>2.4</v>
+      </c>
+      <c r="F17">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>2.4</v>
@@ -1517,15 +1877,27 @@
         <v>2.4</v>
       </c>
       <c r="E18">
+        <v>2.4</v>
+      </c>
+      <c r="F18">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>2.4</v>
@@ -1534,15 +1906,27 @@
         <v>2.4</v>
       </c>
       <c r="E19">
+        <v>2.4</v>
+      </c>
+      <c r="F19">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>2.4</v>
@@ -1551,15 +1935,27 @@
         <v>2.4</v>
       </c>
       <c r="E20">
+        <v>2.4</v>
+      </c>
+      <c r="F20">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>54.3</v>
@@ -1570,13 +1966,25 @@
       <c r="E21">
         <v>155</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>155</v>
+      </c>
+      <c r="G21">
+        <v>-50</v>
+      </c>
+      <c r="H21">
+        <v>80</v>
+      </c>
+      <c r="I21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>2.4</v>
@@ -1585,15 +1993,27 @@
         <v>2.4</v>
       </c>
       <c r="E22">
+        <v>2.4</v>
+      </c>
+      <c r="F22">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>54.3</v>
@@ -1604,13 +2024,25 @@
       <c r="E23">
         <v>155</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>155</v>
+      </c>
+      <c r="G23">
+        <v>-50</v>
+      </c>
+      <c r="H23">
+        <v>80</v>
+      </c>
+      <c r="I23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>100</v>
@@ -1621,13 +2053,25 @@
       <c r="E24">
         <v>400</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>400</v>
+      </c>
+      <c r="G24">
+        <v>-50</v>
+      </c>
+      <c r="H24">
+        <v>69.587</v>
+      </c>
+      <c r="I24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>100</v>
@@ -1638,13 +2082,25 @@
       <c r="E25">
         <v>400</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>400</v>
+      </c>
+      <c r="G25">
+        <v>-50</v>
+      </c>
+      <c r="H25">
+        <v>-10.445</v>
+      </c>
+      <c r="I25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -1655,13 +2111,25 @@
       <c r="E26">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>-10</v>
+      </c>
+      <c r="H26">
+        <v>-6.488</v>
+      </c>
+      <c r="I26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -1672,13 +2140,25 @@
       <c r="E27">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>-10</v>
+      </c>
+      <c r="H27">
+        <v>-6.488</v>
+      </c>
+      <c r="I27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -1689,13 +2169,25 @@
       <c r="E28">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>-10</v>
+      </c>
+      <c r="H28">
+        <v>-6.488</v>
+      </c>
+      <c r="I28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -1706,13 +2198,25 @@
       <c r="E29">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>-10</v>
+      </c>
+      <c r="H29">
+        <v>-6.488</v>
+      </c>
+      <c r="I29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>10</v>
@@ -1723,13 +2227,25 @@
       <c r="E30">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <v>-10</v>
+      </c>
+      <c r="H30">
+        <v>-6.488</v>
+      </c>
+      <c r="I30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>10</v>
@@ -1740,13 +2256,25 @@
       <c r="E31">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>-10</v>
+      </c>
+      <c r="H31">
+        <v>-6.488</v>
+      </c>
+      <c r="I31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C32">
         <v>54.3</v>
@@ -1757,13 +2285,25 @@
       <c r="E32">
         <v>155</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>155</v>
+      </c>
+      <c r="G32">
+        <v>-50</v>
+      </c>
+      <c r="H32">
+        <v>-2.675</v>
+      </c>
+      <c r="I32">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C33">
         <v>140</v>
@@ -1774,13 +2314,25 @@
       <c r="E33">
         <v>350</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>350</v>
+      </c>
+      <c r="G33">
+        <v>-25</v>
+      </c>
+      <c r="H33">
+        <v>32.09</v>
+      </c>
+      <c r="I33">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C34">
         <v>54.3</v>
@@ -1790,6 +2342,18 @@
       </c>
       <c r="E34">
         <v>155</v>
+      </c>
+      <c r="F34">
+        <v>155</v>
+      </c>
+      <c r="G34">
+        <v>-50</v>
+      </c>
+      <c r="H34">
+        <v>-2.675</v>
+      </c>
+      <c r="I34">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1799,27 +2363,36 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1829,29 +2402,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -1860,12 +2439,18 @@
         <v>23</v>
       </c>
       <c r="D2">
-        <v>-242.5374851810303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>224.9018551391359</v>
+      </c>
+      <c r="E2">
+        <v>-219.1586582294877</v>
+      </c>
+      <c r="F2">
+        <v>5.74319690964824</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1874,12 +2459,18 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>53.61358551709535</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-51.83931743099927</v>
+      </c>
+      <c r="E3">
+        <v>53.11272326775494</v>
+      </c>
+      <c r="F3">
+        <v>1.27340583675567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -1888,12 +2479,18 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>-179.9140319902351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>180.5506535287781</v>
+      </c>
+      <c r="E4">
+        <v>-180.0178475993984</v>
+      </c>
+      <c r="F4">
+        <v>0.5328059293797427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>21</v>
@@ -1902,12 +2499,18 @@
         <v>22</v>
       </c>
       <c r="D5">
-        <v>-159.0814659002029</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>158.9473565951548</v>
+      </c>
+      <c r="E5">
+        <v>-156.9414802812995</v>
+      </c>
+      <c r="F5">
+        <v>2.005876313855315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -1916,12 +2519,18 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>-354.2226937566877</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>364.3780295063975</v>
+      </c>
+      <c r="E6">
+        <v>-358.2851580490458</v>
+      </c>
+      <c r="F6">
+        <v>6.092871457351734</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -1930,12 +2539,18 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>46.22336118165342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-91.16378300843239</v>
+      </c>
+      <c r="E7">
+        <v>92.5202780260517</v>
+      </c>
+      <c r="F7">
+        <v>1.356495017619308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1944,12 +2559,18 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>29.96286727379901</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-20.34709303102877</v>
+      </c>
+      <c r="E8">
+        <v>20.54156397175313</v>
+      </c>
+      <c r="F8">
+        <v>0.19447094072437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -1958,12 +2579,18 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>-320.8325709919405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>318.6291958931679</v>
+      </c>
+      <c r="E9">
+        <v>-315.5681215135626</v>
+      </c>
+      <c r="F9">
+        <v>3.061074379605344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1972,12 +2599,18 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>-29.08618448165901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>31.18765452638066</v>
+      </c>
+      <c r="E10">
+        <v>-30.94044702405075</v>
+      </c>
+      <c r="F10">
+        <v>0.2472075023299047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -1986,12 +2619,18 @@
         <v>24</v>
       </c>
       <c r="D11">
-        <v>213.4240769968072</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-202.0462707815688</v>
+      </c>
+      <c r="E11">
+        <v>204.8255093261738</v>
+      </c>
+      <c r="F11">
+        <v>2.779238544604956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2000,12 +2639,18 @@
         <v>14</v>
       </c>
       <c r="D12">
-        <v>-160.2226928064126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>164.2851566655688</v>
+      </c>
+      <c r="E12">
+        <v>-162.9224246835644</v>
+      </c>
+      <c r="F12">
+        <v>1.362731982004406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -2014,12 +2659,18 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <v>-71.11848307296684</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>99.7506439782118</v>
+      </c>
+      <c r="E13">
+        <v>-99.17728101756124</v>
+      </c>
+      <c r="F13">
+        <v>0.5733629606505586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2028,12 +2679,18 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>-212.8157547310765</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>213.8229066190032</v>
+      </c>
+      <c r="E14">
+        <v>-209.219534316267</v>
+      </c>
+      <c r="F14">
+        <v>4.603372302736242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B15">
         <v>20</v>
@@ -2042,12 +2699,18 @@
         <v>23</v>
       </c>
       <c r="D15">
-        <v>-102.3233829498148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>110.6376195635052</v>
+      </c>
+      <c r="E15">
+        <v>-110.3212444579575</v>
+      </c>
+      <c r="F15">
+        <v>0.3163751055476727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2056,12 +2719,18 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <v>82.74335966683338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-82.59520317011139</v>
+      </c>
+      <c r="E16">
+        <v>82.75683685031591</v>
+      </c>
+      <c r="F16">
+        <v>0.1616336802045204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -2070,12 +2739,18 @@
         <v>22</v>
       </c>
       <c r="D17">
-        <v>-140.9185390017054</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>141.052644027376</v>
+      </c>
+      <c r="E17">
+        <v>-138.6113482937696</v>
+      </c>
+      <c r="F17">
+        <v>2.44129573360643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2084,12 +2759,18 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>-3.46120792309914</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.5414575520811779</v>
+      </c>
+      <c r="E18">
+        <v>-0.4587536960814427</v>
+      </c>
+      <c r="F18">
+        <v>0.08270385599973519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -2098,12 +2779,18 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>-56.4570157609019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>56.87355281830472</v>
+      </c>
+      <c r="E19">
+        <v>-56.77532842446865</v>
+      </c>
+      <c r="F19">
+        <v>0.09822439383606607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -2112,12 +2799,18 @@
         <v>9</v>
       </c>
       <c r="D20">
-        <v>-70.36859607155991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>48.59461563902457</v>
+      </c>
+      <c r="E20">
+        <v>-47.65606766631542</v>
+      </c>
+      <c r="F20">
+        <v>0.9385479727091528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B21">
         <v>15</v>
@@ -2126,12 +2819,18 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>-223.0837190883697</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>221.5971873223451</v>
+      </c>
+      <c r="E21">
+        <v>-218.7911672099672</v>
+      </c>
+      <c r="F21">
+        <v>2.806020112377849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -2140,12 +2839,18 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <v>-82.38641584281369</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>85.09067244310276</v>
+      </c>
+      <c r="E22">
+        <v>-84.16068391906867</v>
+      </c>
+      <c r="F22">
+        <v>0.9299885240340866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -2154,12 +2859,18 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>44.91381625825002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-43.05955370602915</v>
+      </c>
+      <c r="E23">
+        <v>43.66086635803253</v>
+      </c>
+      <c r="F23">
+        <v>0.6013126520033829</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2168,12 +2879,18 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>11.52740309714622</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-9.773573722580853</v>
+      </c>
+      <c r="E24">
+        <v>9.775905785322495</v>
+      </c>
+      <c r="F24">
+        <v>0.002332062741641772</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B25">
         <v>19</v>
@@ -2182,12 +2899,18 @@
         <v>20</v>
       </c>
       <c r="D25">
-        <v>-38.32338230986029</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>46.32124382288884</v>
+      </c>
+      <c r="E25">
+        <v>-46.21903945871017</v>
+      </c>
+      <c r="F25">
+        <v>0.1022043641786652</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B26">
         <v>20</v>
@@ -2196,12 +2919,18 @@
         <v>23</v>
       </c>
       <c r="D26">
-        <v>-102.3233829498148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>110.6376195635052</v>
+      </c>
+      <c r="E26">
+        <v>-110.3212444579575</v>
+      </c>
+      <c r="F26">
+        <v>0.3163751055476727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2210,12 +2939,18 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>67.93380339415208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>-65.80349172816798</v>
+      </c>
+      <c r="E27">
+        <v>66.68286337335645</v>
+      </c>
+      <c r="F27">
+        <v>0.8793716451884759</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -2224,12 +2959,18 @@
         <v>19</v>
       </c>
       <c r="D28">
-        <v>104.3532371901885</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-88.56192288271316</v>
+      </c>
+      <c r="E28">
+        <v>88.78529450533583</v>
+      </c>
+      <c r="F28">
+        <v>0.2233716226226701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -2238,12 +2979,18 @@
         <v>10</v>
       </c>
       <c r="D29">
-        <v>-54.40804445669571</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>32.64345730532149</v>
+      </c>
+      <c r="E29">
+        <v>-32.18015102531122</v>
+      </c>
+      <c r="F29">
+        <v>0.4633062800102783</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B30">
         <v>12</v>
@@ -2252,12 +2999,18 @@
         <v>13</v>
       </c>
       <c r="D30">
-        <v>-105.4739135340946</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>73.30590186812178</v>
+      </c>
+      <c r="E30">
+        <v>-72.95465517313622</v>
+      </c>
+      <c r="F30">
+        <v>0.351246694985563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -2266,12 +3019,18 @@
         <v>10</v>
       </c>
       <c r="D31">
-        <v>-3.066197315756954</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>5.244220389979626</v>
+      </c>
+      <c r="E31">
+        <v>-5.196508971917122</v>
+      </c>
+      <c r="F31">
+        <v>0.04771141806250295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B32">
         <v>19</v>
@@ -2280,12 +3039,18 @@
         <v>20</v>
       </c>
       <c r="D32">
-        <v>-38.32338230986026</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>46.32124382288884</v>
+      </c>
+      <c r="E32">
+        <v>-46.21903945871017</v>
+      </c>
+      <c r="F32">
+        <v>0.1022043641786652</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2294,12 +3059,18 @@
         <v>21</v>
       </c>
       <c r="D33">
-        <v>-223.0837190883697</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>221.5971873223451</v>
+      </c>
+      <c r="E33">
+        <v>-218.7911672099672</v>
+      </c>
+      <c r="F33">
+        <v>2.806020112377849</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B34">
         <v>18</v>
@@ -2308,7 +3079,13 @@
         <v>21</v>
       </c>
       <c r="D34">
-        <v>-56.4570157609019</v>
+        <v>56.87355281830472</v>
+      </c>
+      <c r="E34">
+        <v>-56.77532842446865</v>
+      </c>
+      <c r="F34">
+        <v>0.09822439383606607</v>
       </c>
     </row>
   </sheetData>
@@ -2318,29 +3095,35 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B2">
         <v>9</v>
@@ -2349,12 +3132,18 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>-89.20351550662039</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>111.1211820896329</v>
+      </c>
+      <c r="E2">
+        <v>-110.833631647682</v>
+      </c>
+      <c r="F2">
+        <v>0.2875504419509456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -2363,12 +3152,18 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>-155.2883995227085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>123.9836595110117</v>
+      </c>
+      <c r="E3">
+        <v>-123.6015472267869</v>
+      </c>
+      <c r="F3">
+        <v>0.3821122842248226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -2377,12 +3172,18 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>-142.137660372759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>150.9785236114927</v>
+      </c>
+      <c r="E4">
+        <v>-150.4830862715429</v>
+      </c>
+      <c r="F4">
+        <v>0.4954373399498335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2391,12 +3192,18 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>-213.4240769968072</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>202.0462707815688</v>
+      </c>
+      <c r="E5">
+        <v>-201.0830233139372</v>
+      </c>
+      <c r="F5">
+        <v>0.9632474676316338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -2405,7 +3212,13 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>-192.7229991924163</v>
+        <v>168.1296538916122</v>
+      </c>
+      <c r="E6">
+        <v>-167.4952658069498</v>
+      </c>
+      <c r="F6">
+        <v>0.6343880846623851</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="408">
   <si>
     <t>Conventional generation (MW)</t>
   </si>
@@ -40,6 +40,474 @@
     <t>angle(degs)</t>
   </si>
   <si>
+    <t>AIRI00</t>
+  </si>
+  <si>
+    <t>AIRI0G</t>
+  </si>
+  <si>
+    <t>AIRI3-</t>
+  </si>
+  <si>
+    <t>ANNA3-</t>
+  </si>
+  <si>
+    <t>ANNA3A</t>
+  </si>
+  <si>
+    <t>AREC01</t>
+  </si>
+  <si>
+    <t>AREC02</t>
+  </si>
+  <si>
+    <t>AREC1-</t>
+  </si>
+  <si>
+    <t>AREC3-</t>
+  </si>
+  <si>
+    <t>AREC3A</t>
+  </si>
+  <si>
+    <t>AREC3B</t>
+  </si>
+  <si>
+    <t>ASVA0G</t>
+  </si>
+  <si>
+    <t>ASVA3-</t>
+  </si>
+  <si>
+    <t>AUCH2-</t>
+  </si>
+  <si>
+    <t>AUCW1-</t>
+  </si>
+  <si>
+    <t>AYR-2Q</t>
+  </si>
+  <si>
+    <t>AYR-2R</t>
+  </si>
+  <si>
+    <t>AYR-3-</t>
+  </si>
+  <si>
+    <t>BENB1-</t>
+  </si>
+  <si>
+    <t>BENB1A</t>
+  </si>
+  <si>
+    <t>BENB1B</t>
+  </si>
+  <si>
+    <t>BENB3-</t>
+  </si>
+  <si>
+    <t>BLAH1-</t>
+  </si>
+  <si>
+    <t>BLAH3A</t>
+  </si>
+  <si>
+    <t>BLAH3B</t>
+  </si>
+  <si>
+    <t>BLCW0G</t>
+  </si>
+  <si>
+    <t>BLCW1-</t>
+  </si>
+  <si>
+    <t>BLCW3-</t>
+  </si>
+  <si>
+    <t>BLKS3-</t>
+  </si>
+  <si>
+    <t>CAFA1Q</t>
+  </si>
+  <si>
+    <t>CAFA5-</t>
+  </si>
+  <si>
+    <t>CAFA5R</t>
+  </si>
+  <si>
+    <t>CD01</t>
+  </si>
+  <si>
+    <t>CHMO1-</t>
+  </si>
+  <si>
+    <t>COYL1-</t>
+  </si>
+  <si>
+    <t>COYL2-</t>
+  </si>
+  <si>
+    <t>COYL3-</t>
+  </si>
+  <si>
+    <t>COYT1A</t>
+  </si>
+  <si>
+    <t>COYT1T</t>
+  </si>
+  <si>
+    <t>COYW2S</t>
+  </si>
+  <si>
+    <t>COYW2T</t>
+  </si>
+  <si>
+    <t>DESA0G</t>
+  </si>
+  <si>
+    <t>DESA1Q</t>
+  </si>
+  <si>
+    <t>DESA3-</t>
+  </si>
+  <si>
+    <t>DUNH0G</t>
+  </si>
+  <si>
+    <t>DUNH1Q</t>
+  </si>
+  <si>
+    <t>DUNH1R</t>
+  </si>
+  <si>
+    <t>DUNH1S</t>
+  </si>
+  <si>
+    <t>DUNH1T</t>
+  </si>
+  <si>
+    <t>DUNH3-</t>
+  </si>
+  <si>
+    <t>EAST1Q</t>
+  </si>
+  <si>
+    <t>EAST5-</t>
+  </si>
+  <si>
+    <t>ENHI1-</t>
+  </si>
+  <si>
+    <t>ENHI3-</t>
+  </si>
+  <si>
+    <t>GHPS1-</t>
+  </si>
+  <si>
+    <t>GHPS3A</t>
+  </si>
+  <si>
+    <t>GHPS3B</t>
+  </si>
+  <si>
+    <t>GHPS3C</t>
+  </si>
+  <si>
+    <t>GLAP0G</t>
+  </si>
+  <si>
+    <t>GLAP3-</t>
+  </si>
+  <si>
+    <t>GLAP3A</t>
+  </si>
+  <si>
+    <t>GLCH0G</t>
+  </si>
+  <si>
+    <t>GLCH3-</t>
+  </si>
+  <si>
+    <t>GLGL1-</t>
+  </si>
+  <si>
+    <t>GLGL3-</t>
+  </si>
+  <si>
+    <t>GLLE1-</t>
+  </si>
+  <si>
+    <t>GLLE5-</t>
+  </si>
+  <si>
+    <t>GLLU1Q</t>
+  </si>
+  <si>
+    <t>GLLU1R</t>
+  </si>
+  <si>
+    <t>GLLU3-</t>
+  </si>
+  <si>
+    <t>GLLU3B</t>
+  </si>
+  <si>
+    <t>GLMU3-</t>
+  </si>
+  <si>
+    <t>HADH0G</t>
+  </si>
+  <si>
+    <t>HADH1-</t>
+  </si>
+  <si>
+    <t>HADH3-</t>
+  </si>
+  <si>
+    <t>KEOO1-</t>
+  </si>
+  <si>
+    <t>KEOO1Q</t>
+  </si>
+  <si>
+    <t>KEOO1R</t>
+  </si>
+  <si>
+    <t>KEOO1S</t>
+  </si>
+  <si>
+    <t>KEOO5-</t>
+  </si>
+  <si>
+    <t>KILG0A</t>
+  </si>
+  <si>
+    <t>KILG0B</t>
+  </si>
+  <si>
+    <t>KILG0C</t>
+  </si>
+  <si>
+    <t>KILG2-</t>
+  </si>
+  <si>
+    <t>KILG3A</t>
+  </si>
+  <si>
+    <t>KILG3B</t>
+  </si>
+  <si>
+    <t>KILG3C</t>
+  </si>
+  <si>
+    <t>KILS1-</t>
+  </si>
+  <si>
+    <t>KILS2-</t>
+  </si>
+  <si>
+    <t>KILS3-</t>
+  </si>
+  <si>
+    <t>KILS4-</t>
+  </si>
+  <si>
+    <t>KILT2Q</t>
+  </si>
+  <si>
+    <t>KILT2R</t>
+  </si>
+  <si>
+    <t>KILT3-</t>
+  </si>
+  <si>
+    <t>LONB1-</t>
+  </si>
+  <si>
+    <t>LONB1T</t>
+  </si>
+  <si>
+    <t>LORG1-</t>
+  </si>
+  <si>
+    <t>LORG3-</t>
+  </si>
+  <si>
+    <t>MAHI0G</t>
+  </si>
+  <si>
+    <t>MAHI1-</t>
+  </si>
+  <si>
+    <t>MAHI1B</t>
+  </si>
+  <si>
+    <t>MAHI1R</t>
+  </si>
+  <si>
+    <t>MAHI1X</t>
+  </si>
+  <si>
+    <t>MAHI2-</t>
+  </si>
+  <si>
+    <t>MAHI3-</t>
+  </si>
+  <si>
+    <t>MARG0G</t>
+  </si>
+  <si>
+    <t>MARG1-</t>
+  </si>
+  <si>
+    <t>MARG1Q</t>
+  </si>
+  <si>
+    <t>MARG3-</t>
+  </si>
+  <si>
+    <t>MAYB1-</t>
+  </si>
+  <si>
+    <t>MAYB1A</t>
+  </si>
+  <si>
+    <t>MAYB3-</t>
+  </si>
+  <si>
+    <t>MAYT1A</t>
+  </si>
+  <si>
+    <t>MAYT1T</t>
+  </si>
+  <si>
+    <t>N019</t>
+  </si>
+  <si>
+    <t>NECU1-</t>
+  </si>
+  <si>
+    <t>NECU1B</t>
+  </si>
+  <si>
+    <t>NECU1C</t>
+  </si>
+  <si>
+    <t>NECU2-</t>
+  </si>
+  <si>
+    <t>NETS1-</t>
+  </si>
+  <si>
+    <t>NETS3-</t>
+  </si>
+  <si>
+    <t>PENC0G</t>
+  </si>
+  <si>
+    <t>PENC3-</t>
+  </si>
+  <si>
+    <t>SAKN1-</t>
+  </si>
+  <si>
+    <t>SANQ1-</t>
+  </si>
+  <si>
+    <t>SNED0G</t>
+  </si>
+  <si>
+    <t>SNED3A</t>
+  </si>
+  <si>
+    <t>SNQR0G</t>
+  </si>
+  <si>
+    <t>SNQR3-</t>
+  </si>
+  <si>
+    <t>SOKY1-</t>
+  </si>
+  <si>
+    <t>SOKY3-</t>
+  </si>
+  <si>
+    <t>SQHR1-</t>
+  </si>
+  <si>
+    <t>SQHR3-</t>
+  </si>
+  <si>
+    <t>STNO1-</t>
+  </si>
+  <si>
+    <t>STNO3-</t>
+  </si>
+  <si>
+    <t>T3R0</t>
+  </si>
+  <si>
+    <t>T3R1</t>
+  </si>
+  <si>
+    <t>TONG1-</t>
+  </si>
+  <si>
+    <t>TONG3-</t>
+  </si>
+  <si>
+    <t>TONG5-</t>
+  </si>
+  <si>
+    <t>TRAL0G</t>
+  </si>
+  <si>
+    <t>TRAL3-</t>
+  </si>
+  <si>
+    <t>TRAL3A</t>
+  </si>
+  <si>
+    <t>TWEN3-</t>
+  </si>
+  <si>
+    <t>WHLL0G</t>
+  </si>
+  <si>
+    <t>WHLL3-</t>
+  </si>
+  <si>
+    <t>WIND0G</t>
+  </si>
+  <si>
+    <t>X3170</t>
+  </si>
+  <si>
+    <t>X3171</t>
+  </si>
+  <si>
+    <t>XW012A</t>
+  </si>
+  <si>
+    <t>XW012B</t>
+  </si>
+  <si>
+    <t>XY0060</t>
+  </si>
+  <si>
+    <t>XY0061</t>
+  </si>
+  <si>
+    <t>YX043</t>
+  </si>
+  <si>
+    <t>Y_0010</t>
+  </si>
+  <si>
+    <t>Y_0011</t>
+  </si>
+  <si>
     <t>busname</t>
   </si>
   <si>
@@ -49,55 +517,43 @@
     <t>alpha</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>D13</t>
-  </si>
-  <si>
-    <t>D14</t>
-  </si>
-  <si>
-    <t>D15</t>
-  </si>
-  <si>
-    <t>D16</t>
-  </si>
-  <si>
-    <t>D18</t>
-  </si>
-  <si>
-    <t>D19</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D20</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D9</t>
+    <t>lod_AYR-3-_1</t>
+  </si>
+  <si>
+    <t>lod_CAFA5-_1</t>
+  </si>
+  <si>
+    <t>lod_COYL3-_1</t>
+  </si>
+  <si>
+    <t>lod_EAST5-_1</t>
+  </si>
+  <si>
+    <t>lod_GLLE5-_1</t>
+  </si>
+  <si>
+    <t>lod_GLLU3-_1</t>
+  </si>
+  <si>
+    <t>lod_KEOO5-_1</t>
+  </si>
+  <si>
+    <t>lod_KILS3-_1</t>
+  </si>
+  <si>
+    <t>lod_KILT3-_1</t>
+  </si>
+  <si>
+    <t>lod_MAYB3-_1</t>
+  </si>
+  <si>
+    <t>lod_NETS3-_1</t>
+  </si>
+  <si>
+    <t>lod_TONG3-_1</t>
+  </si>
+  <si>
+    <t>lod_TONG5-_1</t>
   </si>
   <si>
     <t>PGLB(MW)</t>
@@ -112,103 +568,100 @@
     <t>PGUB(MW)</t>
   </si>
   <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>G13</t>
-  </si>
-  <si>
-    <t>G14</t>
-  </si>
-  <si>
-    <t>G15</t>
-  </si>
-  <si>
-    <t>G20</t>
-  </si>
-  <si>
-    <t>G17</t>
-  </si>
-  <si>
-    <t>G18</t>
-  </si>
-  <si>
-    <t>G16</t>
-  </si>
-  <si>
-    <t>G21</t>
-  </si>
-  <si>
-    <t>G19</t>
-  </si>
-  <si>
-    <t>G22</t>
-  </si>
-  <si>
-    <t>G23</t>
-  </si>
-  <si>
-    <t>G24</t>
-  </si>
-  <si>
-    <t>G25</t>
-  </si>
-  <si>
-    <t>G29</t>
-  </si>
-  <si>
-    <t>G30</t>
-  </si>
-  <si>
-    <t>G28</t>
-  </si>
-  <si>
-    <t>G26</t>
-  </si>
-  <si>
-    <t>G27</t>
-  </si>
-  <si>
-    <t>G32</t>
-  </si>
-  <si>
-    <t>G33</t>
-  </si>
-  <si>
-    <t>G31</t>
+    <t>HVDC_AUCH2-_1</t>
+  </si>
+  <si>
+    <t>EMO_AYR-3-_N2</t>
+  </si>
+  <si>
+    <t>EMH_AYR-3-_H2</t>
+  </si>
+  <si>
+    <t>EMO_CAFA5-_N2</t>
+  </si>
+  <si>
+    <t>EMH_CAFA5-_H2</t>
+  </si>
+  <si>
+    <t>EMH_COYL3-_H2</t>
+  </si>
+  <si>
+    <t>EMO_COYL3-_N2</t>
+  </si>
+  <si>
+    <t>EMH_EAST5-_H2</t>
+  </si>
+  <si>
+    <t>EMO_EAST5-_N2</t>
+  </si>
+  <si>
+    <t>sym_GHPS3A_1</t>
+  </si>
+  <si>
+    <t>sym_GHPS3B_1</t>
+  </si>
+  <si>
+    <t>sym_GHPS3C_1</t>
+  </si>
+  <si>
+    <t>EMO_GLLE5-_N2</t>
+  </si>
+  <si>
+    <t>EMH_GLLE5-_H2</t>
+  </si>
+  <si>
+    <t>EMH_GLLU3-_H2</t>
+  </si>
+  <si>
+    <t>EMO_GLLU3-_N2</t>
+  </si>
+  <si>
+    <t>EMH_KEOO5-_H2</t>
+  </si>
+  <si>
+    <t>EMO_KEOO5-_N2</t>
+  </si>
+  <si>
+    <t>EMH_KILS3-_H2</t>
+  </si>
+  <si>
+    <t>EMO_KILS3-_N2</t>
+  </si>
+  <si>
+    <t>boundary_kils</t>
+  </si>
+  <si>
+    <t>EMH_KILT3-_H2</t>
+  </si>
+  <si>
+    <t>EMO_KILT3-_N2</t>
+  </si>
+  <si>
+    <t>EMO_MAYB3-_N2</t>
+  </si>
+  <si>
+    <t>EMH_MAYB3-_H2</t>
+  </si>
+  <si>
+    <t>EMH_NETS3-_H2</t>
+  </si>
+  <si>
+    <t>EMO_NETS3-_N2</t>
+  </si>
+  <si>
+    <t>sym_TONG5-_2</t>
+  </si>
+  <si>
+    <t>EMO_TONG5-_N2</t>
+  </si>
+  <si>
+    <t>sym_TONG5-_1</t>
+  </si>
+  <si>
+    <t>sym_TONG5-_3</t>
+  </si>
+  <si>
+    <t>EMH_TONG5-_H2</t>
   </si>
   <si>
     <t>from_busname</t>
@@ -220,121 +673,577 @@
     <t>pL(MW)</t>
   </si>
   <si>
-    <t>L16-1223</t>
-  </si>
-  <si>
-    <t>L5-26</t>
-  </si>
-  <si>
-    <t>L25-1718</t>
-  </si>
-  <si>
-    <t>L33-2122</t>
-  </si>
-  <si>
-    <t>L18-1416</t>
-  </si>
-  <si>
-    <t>L10-78</t>
-  </si>
-  <si>
-    <t>L6-39</t>
-  </si>
-  <si>
-    <t>L23-1617</t>
-  </si>
-  <si>
-    <t>L7-49</t>
-  </si>
-  <si>
-    <t>L22-1524</t>
-  </si>
-  <si>
-    <t>L14-1114</t>
-  </si>
-  <si>
-    <t>L13-1113</t>
-  </si>
-  <si>
-    <t>L17-1323</t>
-  </si>
-  <si>
-    <t>L32-2023</t>
-  </si>
-  <si>
-    <t>L19-1516</t>
-  </si>
-  <si>
-    <t>L26-1722</t>
-  </si>
-  <si>
-    <t>L2-13</t>
-  </si>
-  <si>
-    <t>L27-1821</t>
-  </si>
-  <si>
-    <t>L11-89</t>
-  </si>
-  <si>
-    <t>L21-1521</t>
-  </si>
-  <si>
-    <t>L9-610</t>
-  </si>
-  <si>
-    <t>L4-24</t>
-  </si>
-  <si>
-    <t>L1-12</t>
-  </si>
-  <si>
-    <t>L29-1920</t>
-  </si>
-  <si>
-    <t>L31-2023</t>
-  </si>
-  <si>
-    <t>L3-15</t>
-  </si>
-  <si>
-    <t>L24-1619</t>
-  </si>
-  <si>
-    <t>L12-810</t>
-  </si>
-  <si>
-    <t>L15-1213</t>
-  </si>
-  <si>
-    <t>L8-510</t>
-  </si>
-  <si>
-    <t>L30-1920</t>
-  </si>
-  <si>
-    <t>L20-1521</t>
-  </si>
-  <si>
-    <t>L28-1821</t>
+    <t>lne_COYT1T_N019_1</t>
+  </si>
+  <si>
+    <t>lne_AYR-2R_COYW2T_1</t>
+  </si>
+  <si>
+    <t>lne_AIRI00_AIRI3-</t>
+  </si>
+  <si>
+    <t>lne_DUNH1Q_DUNH1S_1</t>
+  </si>
+  <si>
+    <t>lne_KILS2-_KILT2Q_1</t>
+  </si>
+  <si>
+    <t>lne_DUNH1Q_NECU1-_1</t>
+  </si>
+  <si>
+    <t>lne_BENB1-_BENB1B_1</t>
+  </si>
+  <si>
+    <t>lne_COYT1-_MAYT1A_1</t>
+  </si>
+  <si>
+    <t>lne_KEOO1-_KEOO1R_1</t>
+  </si>
+  <si>
+    <t>lne_COYL2-_COYW2T_1</t>
+  </si>
+  <si>
+    <t>lne_COYL2-_COYW2S_1</t>
+  </si>
+  <si>
+    <t>lne_GLGL3-_TWEN3-_1</t>
+  </si>
+  <si>
+    <t>lne_COYL1-_COYT1T_1</t>
+  </si>
+  <si>
+    <t>lne_COYL1-_COYT1T_2</t>
+  </si>
+  <si>
+    <t>lne_KEOO1Q_MARG1Q_1</t>
+  </si>
+  <si>
+    <t>lne_AREC3-_GLAP3A_1</t>
+  </si>
+  <si>
+    <t>lne_COYL1-_COYT1A_1</t>
+  </si>
+  <si>
+    <t>lne_COYL1-_COYT1A_2</t>
+  </si>
+  <si>
+    <t>lne_CAFA5R_CAFA5-_L</t>
+  </si>
+  <si>
+    <t>lne_EAST1Q_GLLE1-_1</t>
+  </si>
+  <si>
+    <t>lne_MARG1Q_MARG1-_1</t>
+  </si>
+  <si>
+    <t>lne_GLLE1-_TONG1-_1</t>
+  </si>
+  <si>
+    <t>lne_BENB1A_NECU1B_1</t>
+  </si>
+  <si>
+    <t>lne_MAHI1X_MAHI1R_1</t>
+  </si>
+  <si>
+    <t>lne_KILS2-_XW012A_1</t>
+  </si>
+  <si>
+    <t>lne_GHPS1-_GLGL1-_1</t>
+  </si>
+  <si>
+    <t>lne_GHPS1-_GLGL1-_2</t>
+  </si>
+  <si>
+    <t>lne_GLLE1-_NETS1-_2</t>
+  </si>
+  <si>
+    <t>lne_GLLE1-_NETS1-_1</t>
+  </si>
+  <si>
+    <t>lne_COYL2-_MAHI2-_1</t>
+  </si>
+  <si>
+    <t>lne_BLCW1-_MARG1-_1</t>
+  </si>
+  <si>
+    <t>lne_N019_KILS1-_1</t>
+  </si>
+  <si>
+    <t>lne_AUCH2-_MAHI2-_1</t>
+  </si>
+  <si>
+    <t>lne_KILS2-_KILT2R_1</t>
+  </si>
+  <si>
+    <t>lne_CAFA1Q_KEOO1-_1</t>
+  </si>
+  <si>
+    <t>lne_BLAH1-_GLGL1R_2</t>
+  </si>
+  <si>
+    <t>lne_BLAH1-_GLGL1R_1</t>
+  </si>
+  <si>
+    <t>lne_KEOO1R_LONB1T_1</t>
+  </si>
+  <si>
+    <t>lne_TRAL3A_TRAL3_1</t>
+  </si>
+  <si>
+    <t>lne_CHMO1-_MAHI1R_1</t>
+  </si>
+  <si>
+    <t>lne_BLAH3B_PENC3-_1</t>
+  </si>
+  <si>
+    <t>lne_KILG2-_MAHI2-_1</t>
+  </si>
+  <si>
+    <t>lne_BLAH3B_PENC3-_2</t>
+  </si>
+  <si>
+    <t>lne_DUNH1R_NECU1-_1</t>
+  </si>
+  <si>
+    <t>lne_AYR-2Q_COYW2S_1</t>
+  </si>
+  <si>
+    <t>lne_COYW2T_XY006_1</t>
+  </si>
+  <si>
+    <t>lne_BLAH1-_DUNH1Q_1</t>
+  </si>
+  <si>
+    <t>lne_SANQ1-_GLGL1-_1</t>
+  </si>
+  <si>
+    <t>lne_KEOO1Q_KEOO1S_1</t>
+  </si>
+  <si>
+    <t>lne_GLGL3-_GLMU3-_1</t>
+  </si>
+  <si>
+    <t>lne_GLGL3-_WHLL3-_1</t>
+  </si>
+  <si>
+    <t>lne_DUNH1R_DUNH1T_1</t>
+  </si>
+  <si>
+    <t>lne_MAYB1-_MAYT1A_2</t>
+  </si>
+  <si>
+    <t>lne_MAYB1-_MAYT1A_1</t>
+  </si>
+  <si>
+    <t>lne_COYW2S_XY006_1</t>
+  </si>
+  <si>
+    <t>lne_ANNA3-_ANNA3A_1</t>
+  </si>
+  <si>
+    <t>lne_ANNA3A_GLLU3B_1</t>
+  </si>
+  <si>
+    <t>lne_GLLU3-_GLCH3-_1</t>
+  </si>
+  <si>
+    <t>lne_GLLE1-_TONG1-_2</t>
+  </si>
+  <si>
+    <t>lne_BLCW3-_BLKS3-_1</t>
+  </si>
+  <si>
+    <t>lne_ASVA3-_MAYB3-_1</t>
+  </si>
+  <si>
+    <t>lne_COYL2-_NECU2-_1</t>
+  </si>
+  <si>
+    <t>lne_COYL2-_NECU2-_2</t>
+  </si>
+  <si>
+    <t>lne_DESA1Q_NECU1-_2</t>
+  </si>
+  <si>
+    <t>lne_DESA1Q_NECU1-_1</t>
+  </si>
+  <si>
+    <t>lne_GLLU1Q_NETS1-_1</t>
+  </si>
+  <si>
+    <t>lne_BENB1A_KEOO1R_1</t>
+  </si>
+  <si>
+    <t>lne_KEOO1-_GLLE1-_1</t>
+  </si>
+  <si>
+    <t>lne_GLLU3-_NETS3-_1</t>
+  </si>
+  <si>
+    <t>lne_XY006_KILS2-_1</t>
+  </si>
+  <si>
+    <t>lne_XY006_KILS2-_2</t>
+  </si>
+  <si>
+    <t>lne_COYW2S_YX043-_1</t>
+  </si>
+  <si>
+    <t>lne_AIRI00_NETS3-</t>
+  </si>
+  <si>
+    <t>lne_BLAH1-_DUNH1R_1</t>
+  </si>
+  <si>
+    <t>lne_NECU1C_SOKY1-_1</t>
+  </si>
+  <si>
+    <t>lne_AUCW1-_HADH1-_1</t>
+  </si>
+  <si>
+    <t>lne_MAHI1B_MAHI1X_1</t>
+  </si>
+  <si>
+    <t>lne_KILS2-_XW012B_1</t>
+  </si>
+  <si>
+    <t>lne_GLGL3-_SNQRI3-_1</t>
+  </si>
+  <si>
+    <t>lne_BLAH1-_GLGL1Q_1</t>
+  </si>
+  <si>
+    <t>lne_BLAH1-_GLGL1Q_2</t>
+  </si>
+  <si>
+    <t>lne_COYT1A_MAYT1-_1</t>
+  </si>
+  <si>
+    <t>lne_LONB1T_LORG1-_1</t>
+  </si>
+  <si>
+    <t>lne_GLAP3-_GLAP3A_1</t>
+  </si>
+  <si>
+    <t>lne_LONB1-_LONB1T_1</t>
+  </si>
+  <si>
+    <t>lne_NECU1C_SQHR1-_1</t>
+  </si>
+  <si>
+    <t>lne_GLLU1R_NETS1-_1</t>
+  </si>
+  <si>
+    <t>lne_GLGL1Q_SAKN1-_1</t>
+  </si>
+  <si>
+    <t>lne_BENB1B_KEOO1Q_1</t>
+  </si>
+  <si>
+    <t>lne_KILT3-_SNED3A_1</t>
+  </si>
+  <si>
+    <t>lne_MAYB1-_MAYT1T_2</t>
+  </si>
+  <si>
+    <t>lne_MAYB1-_MAYT1T_1</t>
+  </si>
+  <si>
+    <t>lne_KEOO1S_GLLE1-_1</t>
+  </si>
+  <si>
+    <t>lne_AREC1-_MAHI1-_2</t>
+  </si>
+  <si>
+    <t>lne_AREC1-_MAHI1-_1</t>
+  </si>
+  <si>
+    <t>lne_MAHI1R_STNO1-_1</t>
+  </si>
+  <si>
+    <t>lne_BENB1B_NECU1B_1</t>
+  </si>
+  <si>
+    <t>lne_MAHI3-_TRAL3A_1</t>
+  </si>
+  <si>
+    <t>lne_AUCW1-_MAYB1-_1</t>
+  </si>
+  <si>
+    <t>lne_ENHI1-_NECU1C_1</t>
   </si>
   <si>
     <t>pLT(MW)</t>
   </si>
   <si>
-    <t>T2-911</t>
-  </si>
-  <si>
-    <t>T3-912</t>
-  </si>
-  <si>
-    <t>T4-1011</t>
-  </si>
-  <si>
-    <t>T1-324</t>
-  </si>
-  <si>
-    <t>T5-1012</t>
+    <t>trf_AREC1-_AREC3B_1</t>
+  </si>
+  <si>
+    <t>trf_AREC3A_AREC01_1</t>
+  </si>
+  <si>
+    <t>trf_SNQR3-_SNQR0G_1</t>
+  </si>
+  <si>
+    <t>trf_GLGL1Q_GLGL3-_1</t>
+  </si>
+  <si>
+    <t>tr3_NECU2-_NECU1C_2_2W</t>
+  </si>
+  <si>
+    <t>trf_PENC3-_PENC0G_1</t>
+  </si>
+  <si>
+    <t>trf_AIRI3-_AIRI0G_1</t>
+  </si>
+  <si>
+    <t>trf_GLLU1R_GLLU3-_1</t>
+  </si>
+  <si>
+    <t>trf_TONG1-_TONG3-_2</t>
+  </si>
+  <si>
+    <t>trf_EAST1Q_EAST5-_1</t>
+  </si>
+  <si>
+    <t>tr3_KILS2-_KILS1-_1_2W</t>
+  </si>
+  <si>
+    <t>tr3_NECU2-_NECU1-_2_2W</t>
+  </si>
+  <si>
+    <t>trf_GHPS1-_GHPS3B_1</t>
+  </si>
+  <si>
+    <t>trf_MAYB1-_MAYB3-_1</t>
+  </si>
+  <si>
+    <t>trf_MAYB1-_MAYB3-_2</t>
+  </si>
+  <si>
+    <t>trf_KILG2-_KILG3B_1</t>
+  </si>
+  <si>
+    <t>trf_BLAH1-_BLAH3A_1</t>
+  </si>
+  <si>
+    <t>trf_BLAH1-_BLAH3A_2</t>
+  </si>
+  <si>
+    <t>trf_HADH3-_HADH0G_1</t>
+  </si>
+  <si>
+    <t>tr3_KILS4-_KILS2-_1_2W</t>
+  </si>
+  <si>
+    <t>trf_KILG3A_KILG0A_1</t>
+  </si>
+  <si>
+    <t>trf_MAHI3-_MAHI0G_1</t>
+  </si>
+  <si>
+    <t>trf_AYR-2Q_AYR-3-_1</t>
+  </si>
+  <si>
+    <t>trf_TONG1-_TONG3-_1</t>
+  </si>
+  <si>
+    <t>trf_GLLU1Q_GLLU3-_1</t>
+  </si>
+  <si>
+    <t>trf_GLLU1Q_GLLU3B_1</t>
+  </si>
+  <si>
+    <t>trf_COYL1-_COYL3-_1</t>
+  </si>
+  <si>
+    <t>trf_BLAH1-_BLAH3B_1</t>
+  </si>
+  <si>
+    <t>trf_LORG1-_LORG3-_1</t>
+  </si>
+  <si>
+    <t>tr3_MAHI2-_MAHI1B_2_2W</t>
+  </si>
+  <si>
+    <t>trf_MARG3-_MARG0G_1</t>
+  </si>
+  <si>
+    <t>trf_GLLU1R_GLLU3B_1</t>
+  </si>
+  <si>
+    <t>trf_NETS1-_NETS3-_1</t>
+  </si>
+  <si>
+    <t>trf_DESA1Q_DESA3-_1</t>
+  </si>
+  <si>
+    <t>tr3_NECU2-_NECU1B_1_2W</t>
+  </si>
+  <si>
+    <t>trf_ASVA3-_ASVA0G_1</t>
+  </si>
+  <si>
+    <t>trf_BLCW3A_BLCW0G_1</t>
+  </si>
+  <si>
+    <t>trf_TONG1-_TONG5-_1</t>
+  </si>
+  <si>
+    <t>trf_KILG3C_KILG0C_1</t>
+  </si>
+  <si>
+    <t>trf_GHPS1-_GHPS3C_1</t>
+  </si>
+  <si>
+    <t>tr3_NECU2-_NECU1B_3_2W</t>
+  </si>
+  <si>
+    <t>tr3_NECU2-_NECU1-_1_2W</t>
+  </si>
+  <si>
+    <t>tr3_NECU2-_NECU1C_1_2W</t>
+  </si>
+  <si>
+    <t>trf_ENHI1-_ENHI3-_1</t>
+  </si>
+  <si>
+    <t>trf_DUNH3-_WIND0G_1</t>
+  </si>
+  <si>
+    <t>trf_CAFA1Q_CAFA5R_1</t>
+  </si>
+  <si>
+    <t>tr3_KILS4T_KILS2-_1_2W</t>
+  </si>
+  <si>
+    <t>trf_BENB1-_BENB3-_1</t>
+  </si>
+  <si>
+    <t>tr3_COYL2-_COYL1-_2_2W</t>
+  </si>
+  <si>
+    <t>trf_SQHR1-_SQHR3-_1</t>
+  </si>
+  <si>
+    <t>trf_DESA3-_DESA0G_1</t>
+  </si>
+  <si>
+    <t>trf_BLCW1-_BLCW3-_1</t>
+  </si>
+  <si>
+    <t>trf_BLAH1-_BLAH3B_2</t>
+  </si>
+  <si>
+    <t>tr3_NECU2-_NECU1-_3_2W</t>
+  </si>
+  <si>
+    <t>trf_COYL1-_COYL3-_2</t>
+  </si>
+  <si>
+    <t>trf_TRAL3-_TRAL0G_1</t>
+  </si>
+  <si>
+    <t>trf_KILT2Q_KILT3-_1</t>
+  </si>
+  <si>
+    <t>trf_GLLE1-_GLLE5-_1</t>
+  </si>
+  <si>
+    <t>trf_WHLL3-_WHLL0G_1</t>
+  </si>
+  <si>
+    <t>trf_MAHI2-_MAHI3-_1</t>
+  </si>
+  <si>
+    <t>trf_KILT2R_KILT3-_1</t>
+  </si>
+  <si>
+    <t>tr3_NECU2-_NECU1B_2_2W</t>
+  </si>
+  <si>
+    <t>trf_GLAP3-_GLAP0G_1</t>
+  </si>
+  <si>
+    <t>trf_GHPS1-_GHPS3A_1</t>
+  </si>
+  <si>
+    <t>tr3_MAHI2-_MAHI1-_1_2W</t>
+  </si>
+  <si>
+    <t>trf_SNED3A_SNED0G_1</t>
+  </si>
+  <si>
+    <t>trf_DUNH1S_DUNH3-_1</t>
+  </si>
+  <si>
+    <t>tr3_KILS4-_KILS2-_2_2W</t>
+  </si>
+  <si>
+    <t>trf_AYR-2R_AYR-3-_1</t>
+  </si>
+  <si>
+    <t>trf_DUNH1T_DUNH3-_1</t>
+  </si>
+  <si>
+    <t>trf_HADH1-_HADH3-_1</t>
+  </si>
+  <si>
+    <t>trf_TONG1-_TONG5-_2</t>
+  </si>
+  <si>
+    <t>trf_NETS1-_NETS3-_2</t>
+  </si>
+  <si>
+    <t>trf_AREC1-_AREC3-_3</t>
+  </si>
+  <si>
+    <t>tr3_COYL2-_COYL1-_1_2W</t>
+  </si>
+  <si>
+    <t>trf_KILG2-_KILG3A_1</t>
+  </si>
+  <si>
+    <t>trf_KEOO1-_KEOO5-_1</t>
+  </si>
+  <si>
+    <t>trf_KILG2-_KILG3C_1</t>
+  </si>
+  <si>
+    <t>trf_STNO1-_STNO3-_1</t>
+  </si>
+  <si>
+    <t>trf_KILG3B_KILG0B_1</t>
+  </si>
+  <si>
+    <t>trf_AREC3B_AREC02_1</t>
+  </si>
+  <si>
+    <t>trf_AREC1-_AREC3A_1</t>
+  </si>
+  <si>
+    <t>trf_KILS2-_KILS3-_2</t>
+  </si>
+  <si>
+    <t>trf_KILS2-_KILS3-_1</t>
+  </si>
+  <si>
+    <t>trf_DUNH3-_DUNH0G_1</t>
+  </si>
+  <si>
+    <t>trf_MARG1-_MARG3-_1</t>
+  </si>
+  <si>
+    <t>trf_GLGL1R_GLGL3-_1</t>
+  </si>
+  <si>
+    <t>trf_GLCH3-_GLCH0G_1</t>
+  </si>
+  <si>
+    <t>trf_SOKY1-_SOKY3-_2</t>
+  </si>
+  <si>
+    <t>trf_SOKY1-_SOKY3-_1</t>
   </si>
 </sst>
 </file>
@@ -714,16 +1623,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>2850.000028356527</v>
+        <v>-1003.323757974291</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1273.102178738944</v>
       </c>
       <c r="C2">
-        <v>2850</v>
+        <v>269.778417939259</v>
       </c>
       <c r="D2">
-        <v>1279.883001582127</v>
+        <v>-50489.73907937983</v>
       </c>
     </row>
   </sheetData>
@@ -733,7 +1642,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B157"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -748,195 +1657,1251 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-115098818.7184407</v>
+        <v>-1104.488589155372</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-115098818.8106459</v>
+        <v>-1103.997435355487</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-115098818.2266142</v>
+        <v>-1104.469276056642</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>-115098822.0474855</v>
+        <v>-1101.153660626001</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-115098822.0342311</v>
+        <v>-1104.196525837672</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-115098824.749902</v>
+        <v>-1120.989391855386</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-115098825.384106</v>
+        <v>-1120.989391855382</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-115098827.0080717</v>
+        <v>-1120.989391854799</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-115098820.2999742</v>
+        <v>-1120.989391855577</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-115098821.9070895</v>
+        <v>-1120.98939185517</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-1.921304129064344</v>
+        <v>-1120.989391855167</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-2.889742119361877</v>
+        <v>-1116.088000256266</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>-1116.98005813569</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>1.896415185083334</v>
+        <v>-1122.368422005217</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16">
-        <v>15</v>
+      <c r="A16" t="s">
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>10.58488966611686</v>
+        <v>-1119.152034945128</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17">
-        <v>16</v>
+      <c r="A17" t="s">
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>9.7731521370031</v>
+        <v>-1119.995467411109</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18">
-        <v>17</v>
+      <c r="A18" t="s">
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>14.53123199141648</v>
+        <v>-1119.980457684751</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19">
-        <v>18</v>
+      <c r="A19" t="s">
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>16.01421325375122</v>
+        <v>-1122.668570001769</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20">
-        <v>19</v>
+      <c r="A20" t="s">
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>8.39508101334315</v>
+        <v>-1109.460988210996</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21">
-        <v>20</v>
+      <c r="A21" t="s">
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>9.267243359693008</v>
+        <v>-1109.775778751208</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22">
-        <v>21</v>
+      <c r="A22" t="s">
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>16.85073972345648</v>
+        <v>-1109.631323642379</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23">
-        <v>22</v>
+      <c r="A23" t="s">
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>23.0315573279479</v>
+        <v>-1102.901291061852</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24">
-        <v>23</v>
+      <c r="A24" t="s">
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>10.53502513974046</v>
+        <v>-1109.047521846277</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25">
-        <v>24</v>
+      <c r="A25" t="s">
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>4.207193376235396</v>
+        <v>-1103.914541412934</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>-1103.733681777323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>-1102.905343980177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>-1108.315161683676</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>-1104.828507160943</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>-1104.582321547941</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>-1108.896773055905</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>-1104.800019222722</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>-1106.40979553009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>-1119.187173639943</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>-1120.989391854536</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>-1119.21214983075</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>-1119.811499954672</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>-1116.716798048666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>-1119.199905765136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>-1119.322593200172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>-1119.945132784813</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>-1119.942386144747</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>-1106.143432789535</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>-1111.849604013783</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>-1107.781529333483</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>-1100.63531306688</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>-1109.228977403511</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>-1109.228854449208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>-1109.221114446901</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>-1109.220122324513</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>-1102.576852534802</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>-1108.486686861233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>-1102.159646162581</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54">
+        <v>-1112.169269733057</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>-1106.189702573668</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>-1107.439153408601</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>-1107.439153407749</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <v>-1107.439153407749</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>-1107.439153407749</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60">
+        <v>-1120.989391856494</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61">
+        <v>-1120.989391856337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62">
+        <v>-1120.989391855707</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63">
+        <v>-1101.698903518639</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64">
+        <v>-1102.353079362657</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65">
+        <v>-1107.439153408705</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66">
+        <v>-1100.927468648313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67">
+        <v>-1108.500918149945</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68">
+        <v>-1099.160381247086</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69">
+        <v>-1105.895477893586</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70">
+        <v>-1105.905904388181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71">
+        <v>-1102.589031165606</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72">
+        <v>-1104.306320268739</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73">
+        <v>-1098.09933241158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74">
+        <v>-1119.152034945314</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75">
+        <v>-1119.152034945178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76">
+        <v>-1119.152034945294</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77">
+        <v>-1108.916340623365</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78">
+        <v>-1109.149444405115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79">
+        <v>-1109.139258917726</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80">
+        <v>-1108.99998705304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81">
+        <v>-1098.478752968236</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82">
+        <v>-1114.290376012363</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83">
+        <v>-1114.304093946193</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84">
+        <v>-1114.432588708857</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85">
+        <v>-1120.695230194173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86">
+        <v>-1116.1300091902</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87">
+        <v>-1116.14372712403</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88">
+        <v>-1116.272221924916</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89">
+        <v>-1119.92603834702</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90">
+        <v>-1121.233464069948</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91">
+        <v>-1122.386026199269</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92">
+        <v>-1123.870187151155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93">
+        <v>-1121.243448782471</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94">
+        <v>-1121.243503943918</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95">
+        <v>-1122.442826298957</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96">
+        <v>-1108.206682846035</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97">
+        <v>-1108.301313639219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98">
+        <v>-1107.985877660268</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99">
+        <v>-1104.077032894179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100">
+        <v>-1115.590304720421</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101">
+        <v>-1120.989391854677</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102">
+        <v>-1120.989391854398</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103">
+        <v>-1120.989391854533</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104">
+        <v>-1120.989391854531</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105">
+        <v>-1120.989391853968</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106">
+        <v>-1117.429960450045</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107">
+        <v>-1102.610391080505</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108">
+        <v>-1108.389502964191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109">
+        <v>-1109.122971000715</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110">
+        <v>-1104.471905997169</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111">
+        <v>-1119.152034945128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112">
+        <v>-1119.275744596412</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113">
+        <v>-1118.247558355633</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114">
+        <v>-1119.276749525644</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115">
+        <v>-1119.187489664741</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116">
+        <v>-1119.383195067968</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117">
+        <v>-1111.898547801035</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118">
+        <v>-1112.998160841126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119">
+        <v>-1112.245546862735</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120">
+        <v>-1118.260748316221</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121">
+        <v>-1106.858580712851</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122">
+        <v>-1105.790034858595</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123">
+        <v>-1101.499170367116</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124">
+        <v>-1103.340213670884</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125">
+        <v>-1106.977828276734</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>130</v>
+      </c>
+      <c r="B126">
+        <v>-1107.126871794475</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>131</v>
+      </c>
+      <c r="B127">
+        <v>-1120.151918835783</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>132</v>
+      </c>
+      <c r="B128">
+        <v>-1121.668428394276</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129">
+        <v>-1098.893609823206</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130">
+        <v>-1100.733243042035</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>135</v>
+      </c>
+      <c r="B131">
+        <v>-1112.091150748627</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>136</v>
+      </c>
+      <c r="B132">
+        <v>-1104.755704952002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>137</v>
+      </c>
+      <c r="B133">
+        <v>-1110.581989666416</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>138</v>
+      </c>
+      <c r="B134">
+        <v>-1102.198814890876</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>139</v>
+      </c>
+      <c r="B135">
+        <v>-1120.989391854566</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136">
+        <v>-1120.98939185496</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>141</v>
+      </c>
+      <c r="B137">
+        <v>-1109.040832009714</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>142</v>
+      </c>
+      <c r="B138">
+        <v>-1109.040832009714</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139">
+        <v>-1108.720081605774</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>144</v>
+      </c>
+      <c r="B140">
+        <v>-1108.720081605868</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>145</v>
+      </c>
+      <c r="B141">
+        <v>-1109.735620176875</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>146</v>
+      </c>
+      <c r="B142">
+        <v>-1112.694809969835</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>147</v>
+      </c>
+      <c r="B143">
+        <v>-1114.56081980115</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144">
+        <v>-1114.594896718274</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145">
+        <v>-1098.078383129034</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>150</v>
+      </c>
+      <c r="B146">
+        <v>-1099.017678062984</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147">
+        <v>-1100.857547426994</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148">
+        <v>-1100.737499900171</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>153</v>
+      </c>
+      <c r="B149">
+        <v>-1119.214696208211</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150">
+        <v>-1119.211568752896</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151">
+        <v>-1121.233866825061</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>156</v>
+      </c>
+      <c r="B152">
+        <v>-1121.233922359646</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153">
+        <v>-1121.172069634874</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154">
+        <v>-1121.171938745857</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155">
+        <v>-1119.94376955935</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156">
+        <v>-1111.935407327431</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157">
+        <v>-1120.98939185468</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +2911,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -957,24 +2922,24 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>108</v>
+        <v>40.8894541163</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -982,13 +2947,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
       </c>
       <c r="C3">
-        <v>195</v>
+        <v>0.361061336226</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -996,13 +2961,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>13</v>
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
       </c>
       <c r="C4">
-        <v>265</v>
+        <v>50.661380394</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1010,13 +2975,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>14</v>
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
       </c>
       <c r="C5">
-        <v>194</v>
+        <v>0.476101978683</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1024,13 +2989,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
+        <v>169</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
       </c>
       <c r="C6">
-        <v>317</v>
+        <v>2.21851868863</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1038,13 +3003,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>16</v>
+        <v>170</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>25.4528706165</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1052,13 +3017,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>18</v>
+        <v>171</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
       </c>
       <c r="C8">
-        <v>333</v>
+        <v>1.45247828682</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1066,13 +3031,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>19</v>
+        <v>172</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
       </c>
       <c r="C9">
-        <v>181</v>
+        <v>31.6470250755</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1080,13 +3045,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
+        <v>173</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
       </c>
       <c r="C10">
-        <v>97</v>
+        <v>63.1802919065</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1094,13 +3059,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
+        <v>174</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
       </c>
       <c r="C11">
-        <v>128</v>
+        <v>23.0230066699</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1108,13 +3073,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
+        <v>175</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
       </c>
       <c r="C12">
-        <v>180</v>
+        <v>10.08135858</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1122,85 +3087,29 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
+        <v>176</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
       </c>
       <c r="C13">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
+        <v>177</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
       </c>
       <c r="C14">
-        <v>71</v>
+        <v>20.3348702902</v>
       </c>
       <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>136</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>125</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>171</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>175</v>
-      </c>
-      <c r="D18">
         <v>1</v>
       </c>
     </row>
@@ -1211,7 +3120,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1222,679 +3131,659 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="C2">
-        <v>15.2</v>
+        <v>-301.6</v>
       </c>
       <c r="D2">
-        <v>76</v>
+        <v>-290</v>
       </c>
       <c r="E2">
-        <v>76</v>
+        <v>-289.958</v>
       </c>
       <c r="F2">
-        <v>76</v>
+        <v>-278.4</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D3">
+        <v>0.22</v>
+      </c>
+      <c r="E3">
+        <v>0.348</v>
+      </c>
+      <c r="F3">
+        <v>0.347999989986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4">
-        <v>16</v>
-      </c>
       <c r="D4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>0.09989999979730001</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" t="s">
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="C5">
-        <v>15.2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>76</v>
+        <v>0.1</v>
       </c>
       <c r="F5">
-        <v>76</v>
+        <v>0.09989999979730001</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6">
-        <v>2</v>
+      <c r="A6" t="s">
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>13.48</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>13.48</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>17.5529994965</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7">
-        <v>2</v>
+      <c r="A7" t="s">
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="C7">
-        <v>15.2</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>76</v>
+        <v>0.08</v>
       </c>
       <c r="E7">
-        <v>76</v>
+        <v>0.08</v>
       </c>
       <c r="F7">
-        <v>76</v>
+        <v>0.157000005245</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8">
-        <v>2</v>
+      <c r="A8" t="s">
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>4.61</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>7.32</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>7.32000017166</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9">
-        <v>2</v>
+      <c r="A9" t="s">
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="C9">
-        <v>15.2</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>76</v>
+        <v>15.06</v>
       </c>
       <c r="E9">
-        <v>76</v>
+        <v>15.06</v>
       </c>
       <c r="F9">
-        <v>76</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10">
-        <v>7</v>
+      <c r="A10" t="s">
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>57.054</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>57.054</v>
+        <v>0.1</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>0.09989999979730001</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11">
-        <v>7</v>
+      <c r="A11" t="s">
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>-70</v>
       </c>
       <c r="D11">
-        <v>57.054</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>57.054</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12">
-        <v>7</v>
+      <c r="A12" t="s">
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>-70</v>
       </c>
       <c r="D12">
-        <v>57.054</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>57.054</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13">
-        <v>13</v>
+      <c r="A13" t="s">
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="C13">
-        <v>69</v>
+        <v>-70</v>
       </c>
       <c r="D13">
-        <v>76.279</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>76.279</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>197</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="C14">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>76.279</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>76.279</v>
+        <v>0.1</v>
       </c>
       <c r="F14">
-        <v>197</v>
+        <v>0.09989999979730001</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15">
-        <v>13</v>
+      <c r="A15" t="s">
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="C15">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>76.279</v>
+        <v>24.4</v>
       </c>
       <c r="E15">
-        <v>76.279</v>
+        <v>24.4</v>
       </c>
       <c r="F15">
-        <v>197</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16">
-        <v>14</v>
+      <c r="A16" t="s">
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
+        <v>0.04</v>
+      </c>
+      <c r="E16">
+        <v>0.04</v>
+      </c>
+      <c r="F16">
+        <v>0.09989999979730001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="D17">
+        <v>1.38</v>
+      </c>
+      <c r="E17">
+        <v>1.631</v>
+      </c>
+      <c r="F17">
+        <v>1.63100004196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="D18">
+        <v>26.73</v>
+      </c>
+      <c r="E18">
+        <v>26.73</v>
+      </c>
+      <c r="F18">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17">
-        <v>2.4</v>
-      </c>
-      <c r="D17">
-        <v>2.4</v>
-      </c>
-      <c r="E17">
-        <v>2.4</v>
-      </c>
-      <c r="F17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18">
-        <v>2.4</v>
-      </c>
-      <c r="D18">
-        <v>2.4</v>
-      </c>
-      <c r="E18">
-        <v>2.4</v>
-      </c>
-      <c r="F18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19">
-        <v>2.4</v>
-      </c>
       <c r="D19">
-        <v>2.4</v>
+        <v>0.01</v>
       </c>
       <c r="E19">
-        <v>2.4</v>
+        <v>0.1</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>0.09989999979730001</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20">
-        <v>15</v>
+      <c r="A20" t="s">
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="C20">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>0.09989999979730001</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21">
-        <v>15</v>
+      <c r="A21" t="s">
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="C21">
-        <v>54.3</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>155</v>
+        <v>0.01</v>
       </c>
       <c r="E21">
-        <v>155</v>
+        <v>0.1</v>
       </c>
       <c r="F21">
-        <v>155</v>
+        <v>0.09989999979730001</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22">
-        <v>15</v>
+      <c r="A22" t="s">
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>202</v>
       </c>
       <c r="C22">
-        <v>2.4</v>
+        <v>-1800</v>
       </c>
       <c r="D22">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>2.4</v>
+        <v>-841.538</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23">
-        <v>16</v>
+      <c r="A23" t="s">
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="C23">
-        <v>54.3</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>155</v>
+        <v>0.09989999979730001</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24">
-        <v>18</v>
+      <c r="A24" t="s">
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="C24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>400</v>
+        <v>11.26</v>
       </c>
       <c r="E24">
-        <v>400</v>
+        <v>13.679</v>
       </c>
       <c r="F24">
-        <v>400</v>
+        <v>13.6789999008</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25">
-        <v>21</v>
+      <c r="A25" t="s">
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>205</v>
       </c>
       <c r="C25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>400</v>
+        <v>12.84</v>
       </c>
       <c r="E25">
-        <v>400</v>
+        <v>16.626</v>
       </c>
       <c r="F25">
-        <v>400</v>
+        <v>16.6259994507</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26">
-        <v>22</v>
+      <c r="A26" t="s">
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>206</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>1.17</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>1.17</v>
       </c>
       <c r="F26">
-        <v>50</v>
+        <v>2.44799995422</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27">
-        <v>22</v>
+      <c r="A27" t="s">
+        <v>126</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>0.31</v>
       </c>
       <c r="E27">
-        <v>50</v>
+        <v>0.31</v>
       </c>
       <c r="F27">
-        <v>50</v>
+        <v>0.652999997139</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28">
-        <v>22</v>
+      <c r="A28" t="s">
+        <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>3.41</v>
       </c>
       <c r="E28">
-        <v>50</v>
+        <v>3.977</v>
       </c>
       <c r="F28">
-        <v>50</v>
+        <v>3.97699999809</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29">
-        <v>22</v>
+      <c r="A29" t="s">
+        <v>145</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>209</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30">
-        <v>22</v>
+      <c r="A30" t="s">
+        <v>145</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>0.96</v>
       </c>
       <c r="E30">
-        <v>50</v>
+        <v>1.241</v>
       </c>
       <c r="F30">
-        <v>50</v>
+        <v>1.24100005627</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31">
-        <v>22</v>
+      <c r="A31" t="s">
+        <v>145</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32">
-        <v>23</v>
+      <c r="A32" t="s">
+        <v>145</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="C32">
-        <v>54.3</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>155</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33">
-        <v>23</v>
+      <c r="A33" t="s">
+        <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>213</v>
       </c>
       <c r="C33">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>350</v>
+        <v>1.58</v>
       </c>
       <c r="E33">
-        <v>350</v>
+        <v>1.58</v>
       </c>
       <c r="F33">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>23</v>
-      </c>
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34">
-        <v>54.3</v>
-      </c>
-      <c r="D34">
-        <v>155</v>
-      </c>
-      <c r="E34">
-        <v>155</v>
-      </c>
-      <c r="F34">
-        <v>155</v>
+        <v>3.28900003433</v>
       </c>
     </row>
   </sheetData>
@@ -1915,19 +3804,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1937,7 +3826,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1948,475 +3837,1413 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>23</v>
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
       </c>
       <c r="D2">
-        <v>-242.5531987423753</v>
+        <v>26.39653596419432</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
+        <v>218</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>53.98936117476918</v>
+        <v>-17.43119072018552</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>18</v>
+        <v>219</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>-179.7424012021276</v>
+        <v>-5.000000997593709</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>22</v>
+        <v>220</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>-159.1085806250741</v>
+        <v>-37.13054343383211</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>16</v>
+        <v>221</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>-353.4061545612076</v>
+        <v>11.31919640353162</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
+        <v>222</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
       </c>
       <c r="D7">
-        <v>46.16213191091509</v>
+        <v>192.1830797379705</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
+        <v>223</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>30.40920914094078</v>
+        <v>-45.00000099759371</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>17</v>
+        <v>224</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
       </c>
       <c r="D9">
-        <v>-320.6338205878104</v>
+        <v>-7.276313235616737</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
+        <v>225</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
       </c>
       <c r="D10">
-        <v>-29.41159668123674</v>
+        <v>87.62179178888626</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>24</v>
+        <v>226</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
       </c>
       <c r="D11">
-        <v>214.4736010606555</v>
+        <v>445.1272717200156</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>14</v>
+        <v>227</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>159</v>
       </c>
       <c r="D12">
-        <v>-159.4061529878517</v>
+        <v>449.8320886906087</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>13</v>
+        <v>228</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
       </c>
       <c r="D13">
-        <v>-70.44765332828531</v>
+        <v>-21.25000099834996</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>23</v>
+        <v>229</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
       </c>
       <c r="D14">
-        <v>-212.5674860908122</v>
+        <v>19.1202227300901</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>23</v>
+        <v>230</v>
+      </c>
+      <c r="B15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
       </c>
       <c r="D15">
-        <v>-102.4396586047422</v>
+        <v>19.12022272933384</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>16</v>
+        <v>231</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>113</v>
       </c>
       <c r="D16">
-        <v>81.89302049156259</v>
+        <v>-59.63500199359297</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>22</v>
+        <v>232</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>-140.8914193856829</v>
+        <v>-4.239594315947455e-09</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
+        <v>233</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>154</v>
       </c>
       <c r="D18">
-        <v>-4.064390128154137</v>
+        <v>-2.066776093764718</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>21</v>
+        <v>234</v>
+      </c>
+      <c r="B19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>-56.37120145338551</v>
+        <v>-2.066776094520972</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>9</v>
+        <v>235</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>-70.9136211295704</v>
+        <v>-13.28136115287488</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21">
-        <v>15</v>
-      </c>
-      <c r="C21">
-        <v>21</v>
+        <v>236</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
       </c>
       <c r="D21">
-        <v>-223.1830896669777</v>
+        <v>14.74629621501466</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
+        <v>237</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
       </c>
       <c r="D22">
-        <v>-82.01064017679128</v>
+        <v>-59.63500199434924</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
+        <v>238</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>143</v>
       </c>
       <c r="D23">
-        <v>44.58840405032372</v>
+        <v>5.206663547184554</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
+        <v>239</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>122</v>
       </c>
       <c r="D24">
-        <v>11.57758826387495</v>
+        <v>156.3717937825612</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25">
-        <v>19</v>
-      </c>
-      <c r="C25">
-        <v>20</v>
+        <v>240</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>107</v>
       </c>
       <c r="D25">
-        <v>-38.439657968962</v>
+        <v>7.139987911175926e-09</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26">
-        <v>20</v>
-      </c>
-      <c r="C26">
-        <v>23</v>
+        <v>241</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
       </c>
       <c r="D26">
-        <v>-102.4396586047422</v>
+        <v>-11.31919640428788</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
+        <v>242</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
       </c>
       <c r="D27">
-        <v>68.48693356432798</v>
+        <v>8.388411956025515e-09</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28">
-        <v>16</v>
-      </c>
-      <c r="C28">
-        <v>19</v>
+        <v>243</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
       </c>
       <c r="D28">
-        <v>104.1206858636365</v>
+        <v>8.389445970549415e-09</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29">
-        <v>8</v>
-      </c>
-      <c r="C29">
-        <v>10</v>
+        <v>244</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>125</v>
       </c>
       <c r="D29">
-        <v>-53.92424866107496</v>
+        <v>-40.48517207340166</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30">
-        <v>12</v>
-      </c>
-      <c r="C30">
-        <v>13</v>
+        <v>245</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>125</v>
       </c>
       <c r="D30">
-        <v>-105.9569632695732</v>
+        <v>-40.48517207340089</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
+        <v>246</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>109</v>
       </c>
       <c r="D31">
-        <v>-2.513067137232464</v>
+        <v>73.08259909258756</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32">
-        <v>19</v>
-      </c>
-      <c r="C32">
-        <v>20</v>
+        <v>247</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>112</v>
       </c>
       <c r="D32">
-        <v>-38.439657968962</v>
+        <v>32.76000099751178</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33">
-        <v>15</v>
-      </c>
-      <c r="C33">
-        <v>21</v>
+        <v>248</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
       </c>
       <c r="D33">
-        <v>-223.1830896669777</v>
+        <v>26.39653596343807</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34">
+        <v>-289.9576040553854</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" t="s">
         <v>98</v>
       </c>
-      <c r="B34">
+      <c r="D35">
+        <v>11.31875561525339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36">
+        <v>13.28136115136237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37">
+        <v>-95.93750300192784</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38">
+        <v>-95.93750300117159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39">
+        <v>-68.75000199518742</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>255</v>
+      </c>
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40">
+        <v>-12.50000099759371</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>256</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41">
+        <v>2.813896154358208e-09</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>257</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42">
+        <v>-30.0000004987951</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>258</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43">
+        <v>171.2500029920249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>259</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44">
+        <v>-30.0000004987986</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>260</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45">
+        <v>192.1919312508256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>261</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <v>-23.04588862695496</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>262</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47">
+        <v>427.6960809990738</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>263</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48">
+        <v>155.0525363048947</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>264</v>
+      </c>
+      <c r="B49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49">
+        <v>61.87500099834998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>265</v>
+      </c>
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50">
+        <v>-58.74673060089346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>266</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51">
+        <v>-16.87500099834996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>267</v>
+      </c>
+      <c r="B52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52">
+        <v>-16.87500099759371</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>268</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53">
+        <v>-37.24445856059905</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>269</v>
+      </c>
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54">
+        <v>7.276313236372991</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>270</v>
+      </c>
+      <c r="B55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55">
+        <v>7.276313237129245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>271</v>
+      </c>
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56">
+        <v>426.7862000621411</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>272</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>21.87500099834996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>273</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58">
+        <v>21.87500099759371</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>274</v>
+      </c>
+      <c r="B59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59">
+        <v>-6.000000997593708</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>275</v>
+      </c>
+      <c r="B60" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60">
+        <v>5.206663547183878</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61">
+        <v>-32.76000099902429</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>277</v>
+      </c>
+      <c r="B62" t="s">
         <v>18</v>
       </c>
-      <c r="C34">
-        <v>21</v>
-      </c>
-      <c r="D34">
-        <v>-56.37120145338551</v>
+      <c r="C62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62">
+        <v>10.00000099759371</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>278</v>
+      </c>
+      <c r="B63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63">
+        <v>-472.0642703805159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>279</v>
+      </c>
+      <c r="B64" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64">
+        <v>-472.0642703804766</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>280</v>
+      </c>
+      <c r="B65" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65">
+        <v>38.4064081112957</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>281</v>
+      </c>
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66">
+        <v>38.40640811205196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>282</v>
+      </c>
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67">
+        <v>34.4246363769477</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>283</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68">
+        <v>-156.3717937833174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>284</v>
+      </c>
+      <c r="B69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69">
+        <v>-48.90048644693592</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>285</v>
+      </c>
+      <c r="B70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70">
+        <v>8.332297432704532</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>286</v>
+      </c>
+      <c r="B71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71">
+        <v>426.7862000613849</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>287</v>
+      </c>
+      <c r="B72" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72">
+        <v>427.6960809983177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>288</v>
+      </c>
+      <c r="B73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73">
+        <v>-449.8320886898524</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>289</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74">
+        <v>5.000000996837453</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>290</v>
+      </c>
+      <c r="B75" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75">
+        <v>154.9474726909828</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>291</v>
+      </c>
+      <c r="B76" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76">
+        <v>-100.6433866271158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>292</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77">
+        <v>2.268763589169787e-09</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>293</v>
+      </c>
+      <c r="B78" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78">
+        <v>7.89624244089731e-09</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>294</v>
+      </c>
+      <c r="B79" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" t="s">
+        <v>94</v>
+      </c>
+      <c r="D79">
+        <v>-11.31875561600964</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>295</v>
+      </c>
+      <c r="B80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" t="s">
+        <v>134</v>
+      </c>
+      <c r="D80">
+        <v>-18.75000099759371</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>296</v>
+      </c>
+      <c r="B81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" t="s">
+        <v>141</v>
+      </c>
+      <c r="D81">
+        <v>-95.93750300116855</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>297</v>
+      </c>
+      <c r="B82" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82">
+        <v>-95.9375030019248</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>298</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" t="s">
+        <v>119</v>
+      </c>
+      <c r="D83">
+        <v>-2.066776095277227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>299</v>
+      </c>
+      <c r="B84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84">
+        <v>-31.25000099759371</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>300</v>
+      </c>
+      <c r="B85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" t="s">
+        <v>66</v>
+      </c>
+      <c r="D85">
+        <v>-3.483339786226278e-09</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>301</v>
+      </c>
+      <c r="B86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86" t="s">
+        <v>100</v>
+      </c>
+      <c r="D86">
+        <v>-37.50000099834996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>302</v>
+      </c>
+      <c r="B87" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87">
+        <v>59.92994071852472</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>303</v>
+      </c>
+      <c r="B88" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88">
+        <v>34.05195728397714</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>304</v>
+      </c>
+      <c r="B89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C89" t="s">
+        <v>129</v>
+      </c>
+      <c r="D89">
+        <v>-56.25000099834997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>305</v>
+      </c>
+      <c r="B90" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90">
+        <v>-118.3817325937302</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>306</v>
+      </c>
+      <c r="B91" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91">
+        <v>-18.75000099759371</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>307</v>
+      </c>
+      <c r="B92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" t="s">
+        <v>119</v>
+      </c>
+      <c r="D92">
+        <v>2.066776096033482</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>308</v>
+      </c>
+      <c r="B93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" t="s">
+        <v>38</v>
+      </c>
+      <c r="D93">
+        <v>2.066776096789736</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>309</v>
+      </c>
+      <c r="B94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" t="s">
+        <v>71</v>
+      </c>
+      <c r="D94">
+        <v>-58.74673060164972</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>310</v>
+      </c>
+      <c r="B95" t="s">
+        <v>161</v>
+      </c>
+      <c r="C95" t="s">
+        <v>105</v>
+      </c>
+      <c r="D95">
+        <v>-1.349310855185296e-08</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>311</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D96">
+        <v>-1.273685402213157e-08</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>312</v>
+      </c>
+      <c r="B97" t="s">
+        <v>139</v>
+      </c>
+      <c r="C97" t="s">
+        <v>107</v>
+      </c>
+      <c r="D97">
+        <v>-3.569837227096333e-09</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>313</v>
+      </c>
+      <c r="B98" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98" t="s">
+        <v>122</v>
+      </c>
+      <c r="D98">
+        <v>163.3817335905676</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>314</v>
+      </c>
+      <c r="B99" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" t="s">
+        <v>148</v>
+      </c>
+      <c r="D99">
+        <v>-12.50000099683745</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>315</v>
+      </c>
+      <c r="B100" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" t="s">
+        <v>115</v>
+      </c>
+      <c r="D100">
+        <v>-3.025018118893063e-09</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>316</v>
+      </c>
+      <c r="B101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C101" t="s">
+        <v>123</v>
+      </c>
+      <c r="D101">
+        <v>41.02026694515647</v>
       </c>
     </row>
   </sheetData>
@@ -2426,7 +5253,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2437,83 +5264,1273 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>214</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>11</v>
+        <v>318</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>-89.04561642871408</v>
+        <v>3.492335589536663e-09</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
+        <v>319</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>-155.8703939827127</v>
+        <v>2.736160527483801e-09</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
+        <v>320</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
       </c>
       <c r="D4">
-        <v>-140.8081898874229</v>
+        <v>-18.75000099834996</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>24</v>
+        <v>321</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>-214.4736010606555</v>
+        <v>-36.87498211266605</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6">
+        <v>-120.0000012006666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7">
+        <v>-60.00000099834997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>-5.000000998349963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <v>-23.07869352952643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10">
+        <v>7.564597994702583e-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>-14.74629621577091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>328</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12">
+        <v>-26.39653596268182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>329</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13">
+        <v>-129.6323977372387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14">
+        <v>-5.844704146462294e-09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15">
+        <v>-4.743059825737702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>332</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16">
+        <v>-4.600029511962552</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>333</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17">
+        <v>-57.5000009975937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>334</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>-29.13056940547887</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>335</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>-28.99443259197731</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>336</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20">
+        <v>7.562545297232554e-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>337</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21">
+        <v>-286.3869752609501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>338</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22">
+        <v>-57.50000099834997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>339</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
         <v>104</v>
       </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
+      <c r="D23">
+        <v>-33.12500099834996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>340</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>23.04588862619871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>341</v>
+      </c>
+      <c r="B25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25">
+        <v>7.560492599787186e-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>342</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26">
+        <v>-23.52289913607347</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>343</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27">
+        <v>-10.90173724163049</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>344</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28">
+        <v>-20.87864436421965</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>345</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>-30.05929382248958</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>346</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30">
+        <v>-31.25000099834996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>347</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31">
+        <v>8.652496970618859e-09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>348</v>
+      </c>
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32">
+        <v>-26.87500099834996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>349</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33">
+        <v>-10.97326375520696</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>350</v>
+      </c>
+      <c r="B34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34">
+        <v>-6.246875243317136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>351</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35">
+        <v>-38.40640811280822</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>352</v>
+      </c>
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36">
+        <v>-107.3838538580439</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>353</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>-10.00000099834996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>354</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38">
+        <v>-32.76000099916421</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>355</v>
+      </c>
+      <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39">
+        <v>5.214363004939561</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>356</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40">
+        <v>-56.25000099834997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>357</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41">
+        <v>-5.84470415176477e-09</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>358</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42">
+        <v>-107.3839123202391</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>359</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43">
+        <v>-127.6453309517863</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>360</v>
+      </c>
+      <c r="B44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44">
+        <v>-120.0000012006698</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>361</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45">
+        <v>-41.02026694591272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>362</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46">
+        <v>-27.50000099834996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>363</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47">
+        <v>-13.28136115211863</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>364</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48">
+        <v>-278.7483181561542</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>365</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49">
+        <v>-45.00000099834996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>366</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50">
+        <v>-11.95670937148824</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>367</v>
+      </c>
+      <c r="B51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51">
+        <v>-59.92994071928097</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>368</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52">
+        <v>-38.40640811356447</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>369</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53">
+        <v>-32.76000099826803</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>370</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54">
+        <v>-29.94070717434788</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>371</v>
+      </c>
+      <c r="B55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55">
+        <v>-127.0972822990149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>372</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56">
+        <v>-20.08822101583766</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>373</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57">
+        <v>-12.50000099834996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>374</v>
+      </c>
+      <c r="B58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58">
+        <v>11.31919640277537</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>375</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59">
+        <v>-22.34390378189312</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>376</v>
+      </c>
+      <c r="B60" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60">
+        <v>-16.87500099834996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>377</v>
+      </c>
+      <c r="B61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61">
+        <v>-45.62500199443116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>378</v>
+      </c>
+      <c r="B62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62">
+        <v>11.31875561449714</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>379</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63">
+        <v>-104.9857611940895</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>380</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64">
+        <v>2.727085256505183e-09</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>381</v>
+      </c>
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65">
+        <v>-5.844704158070409e-09</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>382</v>
+      </c>
+      <c r="B66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66">
+        <v>1.424936308157443e-08</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>383</v>
+      </c>
+      <c r="B67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67">
+        <v>-18.75000099834996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>384</v>
+      </c>
+      <c r="B68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68">
+        <v>-37.13054343458836</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>385</v>
+      </c>
+      <c r="B69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69">
+        <v>-276.4023722897351</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>386</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70">
+        <v>17.43119071942926</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>387</v>
+      </c>
+      <c r="B71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71">
+        <v>-37.2444585613553</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>388</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72">
+        <v>1.512509059446521e-09</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>389</v>
+      </c>
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73">
+        <v>5.198964087160108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>390</v>
+      </c>
+      <c r="B74" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74">
+        <v>-6.246875243316819</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>391</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75">
+        <v>4.995848845668632e-09</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>392</v>
+      </c>
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76">
+        <v>-11.95670937148743</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>393</v>
+      </c>
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77">
+        <v>-57.5000009975937</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>394</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78">
+        <v>-25.43994419134422</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>395</v>
+      </c>
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79">
+        <v>-56.25000099759371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>396</v>
+      </c>
+      <c r="B80" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80">
+        <v>2.81358269737497e-09</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>397</v>
+      </c>
+      <c r="B81" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81">
+        <v>-57.50000099834997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>398</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
         <v>12</v>
       </c>
-      <c r="D6">
-        <v>-192.6397680292361</v>
+      <c r="D82">
+        <v>2.736081059815445e-09</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>399</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83">
+        <v>3.492415057205019e-09</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>400</v>
+      </c>
+      <c r="B84" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84">
+        <v>8.377677369833464</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>401</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85">
+        <v>8.325521924657744</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>402</v>
+      </c>
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86">
+        <v>-46.87500099834996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>403</v>
+      </c>
+      <c r="B87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" t="s">
+        <v>114</v>
+      </c>
+      <c r="D87">
+        <v>-26.87500099759371</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>404</v>
+      </c>
+      <c r="B88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88">
+        <v>-36.87502187846503</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>405</v>
+      </c>
+      <c r="B89" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" t="s">
+        <v>67</v>
+      </c>
+      <c r="D89">
+        <v>-6.000000998349963</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>406</v>
+      </c>
+      <c r="B90" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90">
+        <v>-50.32169331393624</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>407</v>
+      </c>
+      <c r="B91" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" t="s">
+        <v>136</v>
+      </c>
+      <c r="D91">
+        <v>-50.3216933139358</v>
       </c>
     </row>
   </sheetData>
